--- a/public/upload/sdtm-3-1-2-excel.xlsx
+++ b/public/upload/sdtm-3-1-2-excel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27127"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27226"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="0" windowWidth="36780" windowHeight="20180" activeTab="1"/>
@@ -5953,8 +5953,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5982,17 +5986,21 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -32337,7 +32345,7 @@
   <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -33044,6 +33052,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/public/upload/sdtm-3-1-2-excel.xlsx
+++ b/public/upload/sdtm-3-1-2-excel.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27226"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="0" windowWidth="36780" windowHeight="20180" activeTab="1"/>
+    <workbookView xWindow="460" yWindow="0" windowWidth="36780" windowHeight="20180"/>
   </bookViews>
   <sheets>
     <sheet name="3-1-2" sheetId="1" r:id="rId1"/>
     <sheet name="Extra" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3-1-2'!$A$1:$K$840</definedName>
     <definedName name="sdtm_3_1_2_excel" localSheetId="0">'3-1-2'!$A$1:$K$840</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7446" uniqueCount="1937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7650" uniqueCount="1937">
   <si>
     <t>Seq. For Order</t>
   </si>
@@ -5953,8 +5954,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5986,7 +5989,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5994,6 +5997,7 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6001,6 +6005,7 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6297,11 +6302,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K840"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6354,7 +6360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6380,7 +6386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6406,7 +6412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28">
+    <row r="4" spans="1:11" ht="28" hidden="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6432,7 +6438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="42">
+    <row r="5" spans="1:11" ht="42" hidden="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6458,7 +6464,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28">
+    <row r="6" spans="1:11" ht="28" hidden="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6484,7 +6490,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28">
+    <row r="7" spans="1:11" ht="28" hidden="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6510,7 +6516,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" hidden="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6536,7 +6542,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6562,7 +6568,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28">
+    <row r="10" spans="1:11" ht="28" hidden="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6588,7 +6594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6614,7 +6620,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6640,7 +6646,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="28">
+    <row r="13" spans="1:11" ht="28" hidden="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6666,7 +6672,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6692,7 +6698,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6718,7 +6724,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6744,7 +6750,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="28">
+    <row r="17" spans="1:10" ht="28" hidden="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6770,7 +6776,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="28">
+    <row r="18" spans="1:10" ht="28" hidden="1">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6796,7 +6802,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="28">
+    <row r="19" spans="1:10" ht="28" hidden="1">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6822,7 +6828,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="28">
+    <row r="20" spans="1:10" ht="28" hidden="1">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6848,7 +6854,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="42">
+    <row r="21" spans="1:10" ht="42" hidden="1">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6874,7 +6880,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" hidden="1">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6900,7 +6906,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="42">
+    <row r="23" spans="1:10" ht="42" hidden="1">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6926,7 +6932,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="28">
+    <row r="24" spans="1:10" ht="28" hidden="1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6952,7 +6958,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6978,7 +6984,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="42">
+    <row r="26" spans="1:10" ht="42" hidden="1">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7004,7 +7010,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="42">
+    <row r="27" spans="1:10" ht="42" hidden="1">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7030,7 +7036,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="42">
+    <row r="28" spans="1:10" ht="42" hidden="1">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7056,7 +7062,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="28">
+    <row r="29" spans="1:10" ht="28" hidden="1">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7082,7 +7088,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="28">
+    <row r="30" spans="1:10" ht="28" hidden="1">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7108,7 +7114,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="28">
+    <row r="31" spans="1:10" ht="28" hidden="1">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7134,7 +7140,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="28">
+    <row r="32" spans="1:10" ht="28" hidden="1">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7160,7 +7166,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" hidden="1">
       <c r="A33">
         <v>1</v>
       </c>
@@ -7186,7 +7192,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" hidden="1">
       <c r="A34">
         <v>2</v>
       </c>
@@ -7212,7 +7218,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="42">
+    <row r="35" spans="1:10" ht="42" hidden="1">
       <c r="A35">
         <v>3</v>
       </c>
@@ -7238,7 +7244,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="28">
+    <row r="36" spans="1:10" ht="28" hidden="1">
       <c r="A36">
         <v>4</v>
       </c>
@@ -7264,7 +7270,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" hidden="1">
       <c r="A37">
         <v>5</v>
       </c>
@@ -7290,7 +7296,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" hidden="1">
       <c r="A38">
         <v>6</v>
       </c>
@@ -7316,7 +7322,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="28">
+    <row r="39" spans="1:10" ht="28" hidden="1">
       <c r="A39">
         <v>7</v>
       </c>
@@ -7342,7 +7348,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="28">
+    <row r="40" spans="1:10" ht="28" hidden="1">
       <c r="A40">
         <v>8</v>
       </c>
@@ -7368,7 +7374,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" hidden="1">
       <c r="A41">
         <v>9</v>
       </c>
@@ -7394,7 +7400,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="28">
+    <row r="42" spans="1:10" ht="28" hidden="1">
       <c r="A42">
         <v>10</v>
       </c>
@@ -7420,7 +7426,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" hidden="1">
       <c r="A43">
         <v>11</v>
       </c>
@@ -7446,7 +7452,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" hidden="1">
       <c r="A44">
         <v>12</v>
       </c>
@@ -7472,7 +7478,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" hidden="1">
       <c r="A45">
         <v>13</v>
       </c>
@@ -7498,7 +7504,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="28">
+    <row r="46" spans="1:10" ht="28" hidden="1">
       <c r="A46">
         <v>14</v>
       </c>
@@ -7524,7 +7530,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="28">
+    <row r="47" spans="1:10" ht="28" hidden="1">
       <c r="A47">
         <v>15</v>
       </c>
@@ -7550,7 +7556,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="28">
+    <row r="48" spans="1:10" ht="28" hidden="1">
       <c r="A48">
         <v>16</v>
       </c>
@@ -7576,7 +7582,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="28">
+    <row r="49" spans="1:10" ht="28" hidden="1">
       <c r="A49">
         <v>17</v>
       </c>
@@ -7602,7 +7608,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="28">
+    <row r="50" spans="1:10" ht="28" hidden="1">
       <c r="A50">
         <v>18</v>
       </c>
@@ -7628,7 +7634,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" hidden="1">
       <c r="A51">
         <v>19</v>
       </c>
@@ -7654,7 +7660,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52">
         <v>20</v>
       </c>
@@ -7680,7 +7686,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" hidden="1">
       <c r="A53">
         <v>21</v>
       </c>
@@ -7706,7 +7712,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" hidden="1">
       <c r="A54">
         <v>22</v>
       </c>
@@ -7732,7 +7738,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" hidden="1">
       <c r="A55">
         <v>23</v>
       </c>
@@ -7758,7 +7764,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" hidden="1">
       <c r="A56">
         <v>24</v>
       </c>
@@ -7784,7 +7790,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" hidden="1">
       <c r="A57">
         <v>25</v>
       </c>
@@ -7810,7 +7816,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" hidden="1">
       <c r="A58">
         <v>26</v>
       </c>
@@ -7836,7 +7842,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" hidden="1">
       <c r="A59">
         <v>27</v>
       </c>
@@ -7862,7 +7868,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" hidden="1">
       <c r="A60">
         <v>28</v>
       </c>
@@ -7888,7 +7894,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="42">
+    <row r="61" spans="1:10" ht="42" hidden="1">
       <c r="A61">
         <v>29</v>
       </c>
@@ -7914,7 +7920,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="28">
+    <row r="62" spans="1:10" ht="28" hidden="1">
       <c r="A62">
         <v>30</v>
       </c>
@@ -7940,7 +7946,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="42">
+    <row r="63" spans="1:10" ht="42" hidden="1">
       <c r="A63">
         <v>1</v>
       </c>
@@ -7966,7 +7972,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="28">
+    <row r="64" spans="1:10" ht="28" hidden="1">
       <c r="A64">
         <v>2</v>
       </c>
@@ -7992,7 +7998,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" hidden="1">
       <c r="A65">
         <v>3</v>
       </c>
@@ -8018,7 +8024,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="28">
+    <row r="66" spans="1:10" ht="28" hidden="1">
       <c r="A66">
         <v>4</v>
       </c>
@@ -8044,7 +8050,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" hidden="1">
       <c r="A67">
         <v>5</v>
       </c>
@@ -8070,7 +8076,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" hidden="1">
       <c r="A68">
         <v>6</v>
       </c>
@@ -8096,7 +8102,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="28">
+    <row r="69" spans="1:10" ht="28" hidden="1">
       <c r="A69">
         <v>7</v>
       </c>
@@ -8122,7 +8128,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" hidden="1">
       <c r="A70">
         <v>8</v>
       </c>
@@ -8148,7 +8154,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" hidden="1">
       <c r="A71">
         <v>9</v>
       </c>
@@ -8174,7 +8180,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" hidden="1">
       <c r="A72">
         <v>10</v>
       </c>
@@ -8200,7 +8206,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" hidden="1">
       <c r="A73">
         <v>11</v>
       </c>
@@ -8226,7 +8232,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="70">
+    <row r="74" spans="1:10" ht="70" hidden="1">
       <c r="A74">
         <v>12</v>
       </c>
@@ -8252,7 +8258,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="28">
+    <row r="75" spans="1:10" ht="28" hidden="1">
       <c r="A75">
         <v>13</v>
       </c>
@@ -8278,7 +8284,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" hidden="1">
       <c r="A76">
         <v>14</v>
       </c>
@@ -8304,7 +8310,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="28">
+    <row r="77" spans="1:10" ht="28" hidden="1">
       <c r="A77">
         <v>15</v>
       </c>
@@ -8330,7 +8336,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="28">
+    <row r="78" spans="1:10" ht="28" hidden="1">
       <c r="A78">
         <v>16</v>
       </c>
@@ -8356,7 +8362,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="28">
+    <row r="79" spans="1:10" ht="28" hidden="1">
       <c r="A79">
         <v>17</v>
       </c>
@@ -8382,7 +8388,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="28">
+    <row r="80" spans="1:10" ht="28" hidden="1">
       <c r="A80">
         <v>18</v>
       </c>
@@ -8408,7 +8414,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" hidden="1">
       <c r="A81">
         <v>19</v>
       </c>
@@ -8434,7 +8440,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="28">
+    <row r="82" spans="1:10" ht="28" hidden="1">
       <c r="A82">
         <v>20</v>
       </c>
@@ -8460,7 +8466,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" hidden="1">
       <c r="A83">
         <v>21</v>
       </c>
@@ -8486,7 +8492,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" hidden="1">
       <c r="A84">
         <v>22</v>
       </c>
@@ -8512,7 +8518,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" hidden="1">
       <c r="A85">
         <v>23</v>
       </c>
@@ -8538,7 +8544,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" hidden="1">
       <c r="A86">
         <v>24</v>
       </c>
@@ -8564,7 +8570,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" hidden="1">
       <c r="A87">
         <v>25</v>
       </c>
@@ -8590,7 +8596,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" hidden="1">
       <c r="A88">
         <v>26</v>
       </c>
@@ -8616,7 +8622,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" hidden="1">
       <c r="A89">
         <v>27</v>
       </c>
@@ -8642,7 +8648,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" hidden="1">
       <c r="A90">
         <v>28</v>
       </c>
@@ -8668,7 +8674,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" hidden="1">
       <c r="A91">
         <v>29</v>
       </c>
@@ -8694,7 +8700,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" hidden="1">
       <c r="A92">
         <v>30</v>
       </c>
@@ -8720,7 +8726,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="28">
+    <row r="93" spans="1:10" ht="28" hidden="1">
       <c r="A93">
         <v>31</v>
       </c>
@@ -8746,7 +8752,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="28">
+    <row r="94" spans="1:10" ht="28" hidden="1">
       <c r="A94">
         <v>32</v>
       </c>
@@ -8772,7 +8778,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="42">
+    <row r="95" spans="1:10" ht="42" hidden="1">
       <c r="A95">
         <v>33</v>
       </c>
@@ -8798,7 +8804,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="28">
+    <row r="96" spans="1:10" ht="28" hidden="1">
       <c r="A96">
         <v>34</v>
       </c>
@@ -8824,7 +8830,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" hidden="1">
       <c r="A97">
         <v>35</v>
       </c>
@@ -8850,7 +8856,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" hidden="1">
       <c r="A98">
         <v>36</v>
       </c>
@@ -8876,7 +8882,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" hidden="1">
       <c r="A99">
         <v>37</v>
       </c>
@@ -8902,7 +8908,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="56">
+    <row r="100" spans="1:10" ht="56" hidden="1">
       <c r="A100">
         <v>1</v>
       </c>
@@ -8928,7 +8934,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="28">
+    <row r="101" spans="1:10" ht="28" hidden="1">
       <c r="A101">
         <v>1</v>
       </c>
@@ -8954,7 +8960,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" hidden="1">
       <c r="A102">
         <v>2</v>
       </c>
@@ -8980,7 +8986,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="42">
+    <row r="103" spans="1:10" ht="42" hidden="1">
       <c r="A103">
         <v>3</v>
       </c>
@@ -9006,7 +9012,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="28">
+    <row r="104" spans="1:10" ht="28" hidden="1">
       <c r="A104">
         <v>4</v>
       </c>
@@ -9032,7 +9038,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" hidden="1">
       <c r="A105">
         <v>5</v>
       </c>
@@ -9058,7 +9064,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" hidden="1">
       <c r="A106">
         <v>6</v>
       </c>
@@ -9084,7 +9090,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="28">
+    <row r="107" spans="1:10" ht="28" hidden="1">
       <c r="A107">
         <v>7</v>
       </c>
@@ -9110,7 +9116,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="28">
+    <row r="108" spans="1:10" ht="28" hidden="1">
       <c r="A108">
         <v>8</v>
       </c>
@@ -9136,7 +9142,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" hidden="1">
       <c r="A109">
         <v>9</v>
       </c>
@@ -9162,7 +9168,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" hidden="1">
       <c r="A110">
         <v>10</v>
       </c>
@@ -9188,7 +9194,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" hidden="1">
       <c r="A111">
         <v>11</v>
       </c>
@@ -9214,7 +9220,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" hidden="1">
       <c r="A112">
         <v>12</v>
       </c>
@@ -9240,7 +9246,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" hidden="1">
       <c r="A113">
         <v>13</v>
       </c>
@@ -9266,7 +9272,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="28">
+    <row r="114" spans="1:11" ht="28" hidden="1">
       <c r="A114">
         <v>14</v>
       </c>
@@ -9292,7 +9298,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" hidden="1">
       <c r="A115">
         <v>15</v>
       </c>
@@ -9318,7 +9324,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" hidden="1">
       <c r="A116">
         <v>16</v>
       </c>
@@ -9344,7 +9350,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" hidden="1">
       <c r="A117">
         <v>17</v>
       </c>
@@ -9370,7 +9376,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" hidden="1">
       <c r="A118">
         <v>18</v>
       </c>
@@ -9396,7 +9402,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="28">
+    <row r="119" spans="1:11" ht="28" hidden="1">
       <c r="A119">
         <v>19</v>
       </c>
@@ -9422,7 +9428,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" hidden="1">
       <c r="A120">
         <v>20</v>
       </c>
@@ -9448,7 +9454,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" hidden="1">
       <c r="A121">
         <v>21</v>
       </c>
@@ -9474,7 +9480,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" hidden="1">
       <c r="A122">
         <v>22</v>
       </c>
@@ -9500,7 +9506,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="28">
+    <row r="123" spans="1:11" ht="28" hidden="1">
       <c r="A123">
         <v>23</v>
       </c>
@@ -9526,7 +9532,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" hidden="1">
       <c r="A124">
         <v>24</v>
       </c>
@@ -9552,7 +9558,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" hidden="1">
       <c r="A125">
         <v>25</v>
       </c>
@@ -9578,7 +9584,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="28">
+    <row r="126" spans="1:11" ht="28" hidden="1">
       <c r="A126">
         <v>26</v>
       </c>
@@ -9604,7 +9610,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" hidden="1">
       <c r="A127">
         <v>1</v>
       </c>
@@ -9636,7 +9642,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" hidden="1">
       <c r="A128">
         <v>2</v>
       </c>
@@ -9668,7 +9674,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="28">
+    <row r="129" spans="1:11" ht="28" hidden="1">
       <c r="A129">
         <v>3</v>
       </c>
@@ -9700,7 +9706,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="28">
+    <row r="130" spans="1:11" ht="28" hidden="1">
       <c r="A130">
         <v>4</v>
       </c>
@@ -9732,7 +9738,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" hidden="1">
       <c r="A131">
         <v>5</v>
       </c>
@@ -9764,7 +9770,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" hidden="1">
       <c r="A132">
         <v>6</v>
       </c>
@@ -9796,7 +9802,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="28">
+    <row r="133" spans="1:11" ht="28" hidden="1">
       <c r="A133">
         <v>7</v>
       </c>
@@ -9828,7 +9834,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" hidden="1">
       <c r="A134">
         <v>8</v>
       </c>
@@ -9860,7 +9866,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" hidden="1">
       <c r="A135">
         <v>9</v>
       </c>
@@ -9892,7 +9898,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="42">
+    <row r="136" spans="1:11" ht="42" hidden="1">
       <c r="A136">
         <v>10</v>
       </c>
@@ -9924,7 +9930,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" hidden="1">
       <c r="A137">
         <v>11</v>
       </c>
@@ -9956,7 +9962,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" hidden="1">
       <c r="A138">
         <v>12</v>
       </c>
@@ -10007,6 +10013,9 @@
       <c r="F139" t="s">
         <v>485</v>
       </c>
+      <c r="G139" t="s">
+        <v>14</v>
+      </c>
       <c r="H139" t="s">
         <v>486</v>
       </c>
@@ -10020,7 +10029,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="42">
+    <row r="140" spans="1:11" ht="42" hidden="1">
       <c r="A140">
         <v>14</v>
       </c>
@@ -10071,6 +10080,9 @@
       <c r="F141" t="s">
         <v>179</v>
       </c>
+      <c r="G141" t="s">
+        <v>14</v>
+      </c>
       <c r="H141" t="s">
         <v>177</v>
       </c>
@@ -10103,6 +10115,9 @@
       <c r="F142" t="s">
         <v>183</v>
       </c>
+      <c r="G142" t="s">
+        <v>14</v>
+      </c>
       <c r="H142" t="s">
         <v>493</v>
       </c>
@@ -10135,6 +10150,9 @@
       <c r="F143" t="s">
         <v>187</v>
       </c>
+      <c r="G143" t="s">
+        <v>14</v>
+      </c>
       <c r="H143" t="s">
         <v>486</v>
       </c>
@@ -10167,6 +10185,9 @@
       <c r="F144" t="s">
         <v>191</v>
       </c>
+      <c r="G144" t="s">
+        <v>14</v>
+      </c>
       <c r="H144" t="s">
         <v>189</v>
       </c>
@@ -10180,7 +10201,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="42">
+    <row r="145" spans="1:11" ht="42" hidden="1">
       <c r="A145">
         <v>19</v>
       </c>
@@ -10212,7 +10233,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="42">
+    <row r="146" spans="1:11" ht="42" hidden="1">
       <c r="A146">
         <v>20</v>
       </c>
@@ -10244,7 +10265,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="28">
+    <row r="147" spans="1:11" ht="28" hidden="1">
       <c r="A147">
         <v>21</v>
       </c>
@@ -10276,7 +10297,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="28">
+    <row r="148" spans="1:11" ht="28" hidden="1">
       <c r="A148">
         <v>22</v>
       </c>
@@ -10327,6 +10348,9 @@
       <c r="F149" t="s">
         <v>508</v>
       </c>
+      <c r="G149" t="s">
+        <v>14</v>
+      </c>
       <c r="H149" t="s">
         <v>209</v>
       </c>
@@ -10359,6 +10383,9 @@
       <c r="F150" t="s">
         <v>215</v>
       </c>
+      <c r="G150" t="s">
+        <v>14</v>
+      </c>
       <c r="H150" t="s">
         <v>486</v>
       </c>
@@ -10391,6 +10418,9 @@
       <c r="F151" t="s">
         <v>219</v>
       </c>
+      <c r="G151" t="s">
+        <v>14</v>
+      </c>
       <c r="H151" t="s">
         <v>486</v>
       </c>
@@ -10423,6 +10453,9 @@
       <c r="F152" t="s">
         <v>223</v>
       </c>
+      <c r="G152" t="s">
+        <v>14</v>
+      </c>
       <c r="H152" t="s">
         <v>486</v>
       </c>
@@ -10455,6 +10488,9 @@
       <c r="F153" t="s">
         <v>227</v>
       </c>
+      <c r="G153" t="s">
+        <v>14</v>
+      </c>
       <c r="H153" t="s">
         <v>486</v>
       </c>
@@ -10487,6 +10523,9 @@
       <c r="F154" t="s">
         <v>231</v>
       </c>
+      <c r="G154" t="s">
+        <v>14</v>
+      </c>
       <c r="H154" t="s">
         <v>486</v>
       </c>
@@ -10519,6 +10558,9 @@
       <c r="F155" t="s">
         <v>235</v>
       </c>
+      <c r="G155" t="s">
+        <v>14</v>
+      </c>
       <c r="H155" t="s">
         <v>486</v>
       </c>
@@ -10551,6 +10593,9 @@
       <c r="F156" t="s">
         <v>239</v>
       </c>
+      <c r="G156" t="s">
+        <v>14</v>
+      </c>
       <c r="H156" t="s">
         <v>486</v>
       </c>
@@ -10583,6 +10628,9 @@
       <c r="F157" t="s">
         <v>243</v>
       </c>
+      <c r="G157" t="s">
+        <v>14</v>
+      </c>
       <c r="H157" t="s">
         <v>486</v>
       </c>
@@ -10615,6 +10663,9 @@
       <c r="F158" t="s">
         <v>247</v>
       </c>
+      <c r="G158" t="s">
+        <v>14</v>
+      </c>
       <c r="H158" t="s">
         <v>486</v>
       </c>
@@ -10628,7 +10679,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="56">
+    <row r="159" spans="1:11" ht="56" hidden="1">
       <c r="A159">
         <v>33</v>
       </c>
@@ -10679,6 +10730,9 @@
       <c r="F160" t="s">
         <v>532</v>
       </c>
+      <c r="G160" t="s">
+        <v>14</v>
+      </c>
       <c r="H160" t="s">
         <v>533</v>
       </c>
@@ -10708,6 +10762,9 @@
       <c r="F161" t="s">
         <v>535</v>
       </c>
+      <c r="G161" t="s">
+        <v>14</v>
+      </c>
       <c r="H161" t="s">
         <v>533</v>
       </c>
@@ -10718,7 +10775,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" hidden="1">
       <c r="A162">
         <v>36</v>
       </c>
@@ -10750,7 +10807,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" hidden="1">
       <c r="A163">
         <v>37</v>
       </c>
@@ -10801,6 +10858,9 @@
       <c r="F164" t="s">
         <v>543</v>
       </c>
+      <c r="G164" t="s">
+        <v>14</v>
+      </c>
       <c r="H164" t="s">
         <v>533</v>
       </c>
@@ -10833,6 +10893,9 @@
       <c r="F165" t="s">
         <v>110</v>
       </c>
+      <c r="G165" t="s">
+        <v>14</v>
+      </c>
       <c r="H165" t="s">
         <v>546</v>
       </c>
@@ -10865,6 +10928,9 @@
       <c r="F166" t="s">
         <v>126</v>
       </c>
+      <c r="G166" t="s">
+        <v>14</v>
+      </c>
       <c r="H166" t="s">
         <v>124</v>
       </c>
@@ -10878,7 +10944,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="28">
+    <row r="167" spans="1:11" ht="28" hidden="1">
       <c r="A167">
         <v>41</v>
       </c>
@@ -10910,7 +10976,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" hidden="1">
       <c r="A168">
         <v>1</v>
       </c>
@@ -10942,7 +11008,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" hidden="1">
       <c r="A169">
         <v>2</v>
       </c>
@@ -10974,7 +11040,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="28">
+    <row r="170" spans="1:11" ht="28" hidden="1">
       <c r="A170">
         <v>3</v>
       </c>
@@ -11006,7 +11072,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="28">
+    <row r="171" spans="1:11" ht="28" hidden="1">
       <c r="A171">
         <v>4</v>
       </c>
@@ -11038,7 +11104,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" hidden="1">
       <c r="A172">
         <v>5</v>
       </c>
@@ -11070,7 +11136,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" hidden="1">
       <c r="A173">
         <v>6</v>
       </c>
@@ -11102,7 +11168,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="28">
+    <row r="174" spans="1:11" ht="28" hidden="1">
       <c r="A174">
         <v>7</v>
       </c>
@@ -11134,7 +11200,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="42">
+    <row r="175" spans="1:11" ht="42" hidden="1">
       <c r="A175">
         <v>8</v>
       </c>
@@ -11185,6 +11251,9 @@
       <c r="F176" t="s">
         <v>563</v>
       </c>
+      <c r="G176" t="s">
+        <v>14</v>
+      </c>
       <c r="H176" t="s">
         <v>564</v>
       </c>
@@ -11217,6 +11286,9 @@
       <c r="F177" t="s">
         <v>567</v>
       </c>
+      <c r="G177" t="s">
+        <v>14</v>
+      </c>
       <c r="H177" t="s">
         <v>566</v>
       </c>
@@ -11230,7 +11302,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" hidden="1">
       <c r="A178">
         <v>11</v>
       </c>
@@ -11262,7 +11334,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="28">
+    <row r="179" spans="1:11" ht="28" hidden="1">
       <c r="A179">
         <v>12</v>
       </c>
@@ -11313,6 +11385,9 @@
       <c r="F180" t="s">
         <v>58</v>
       </c>
+      <c r="G180" t="s">
+        <v>14</v>
+      </c>
       <c r="H180" t="s">
         <v>533</v>
       </c>
@@ -11342,6 +11417,9 @@
       <c r="F181" t="s">
         <v>574</v>
       </c>
+      <c r="G181" t="s">
+        <v>14</v>
+      </c>
       <c r="H181" t="s">
         <v>533</v>
       </c>
@@ -11352,7 +11430,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" hidden="1">
       <c r="A182">
         <v>15</v>
       </c>
@@ -11384,7 +11462,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" hidden="1">
       <c r="A183">
         <v>1</v>
       </c>
@@ -11416,7 +11494,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" hidden="1">
       <c r="A184">
         <v>2</v>
       </c>
@@ -11448,7 +11526,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="28">
+    <row r="185" spans="1:11" ht="28" hidden="1">
       <c r="A185">
         <v>3</v>
       </c>
@@ -11480,7 +11558,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="28">
+    <row r="186" spans="1:11" ht="28" hidden="1">
       <c r="A186">
         <v>4</v>
       </c>
@@ -11512,7 +11590,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" hidden="1">
       <c r="A187">
         <v>5</v>
       </c>
@@ -11544,7 +11622,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" hidden="1">
       <c r="A188">
         <v>6</v>
       </c>
@@ -11576,7 +11654,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="28">
+    <row r="189" spans="1:11" ht="28" hidden="1">
       <c r="A189">
         <v>7</v>
       </c>
@@ -11608,7 +11686,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" hidden="1">
       <c r="A190">
         <v>8</v>
       </c>
@@ -11640,7 +11718,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" hidden="1">
       <c r="A191">
         <v>9</v>
       </c>
@@ -11672,7 +11750,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="42">
+    <row r="192" spans="1:11" ht="42" hidden="1">
       <c r="A192">
         <v>10</v>
       </c>
@@ -11704,7 +11782,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" hidden="1">
       <c r="A193">
         <v>11</v>
       </c>
@@ -11736,7 +11814,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" hidden="1">
       <c r="A194">
         <v>12</v>
       </c>
@@ -11787,6 +11865,9 @@
       <c r="F195" t="s">
         <v>599</v>
       </c>
+      <c r="G195" t="s">
+        <v>14</v>
+      </c>
       <c r="H195" t="s">
         <v>486</v>
       </c>
@@ -11818,6 +11899,9 @@
       </c>
       <c r="F196" t="s">
         <v>602</v>
+      </c>
+      <c r="G196" t="s">
+        <v>14</v>
       </c>
       <c r="H196" t="s">
         <v>486</v>
@@ -11851,6 +11935,9 @@
       <c r="F197" t="s">
         <v>167</v>
       </c>
+      <c r="G197" t="s">
+        <v>14</v>
+      </c>
       <c r="H197" t="s">
         <v>605</v>
       </c>
@@ -11864,7 +11951,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="28">
+    <row r="198" spans="1:11" ht="28" hidden="1">
       <c r="A198">
         <v>16</v>
       </c>
@@ -11896,7 +11983,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="56">
+    <row r="199" spans="1:11" ht="56" hidden="1">
       <c r="A199">
         <v>17</v>
       </c>
@@ -11947,6 +12034,9 @@
       <c r="F200" t="s">
         <v>613</v>
       </c>
+      <c r="G200" t="s">
+        <v>14</v>
+      </c>
       <c r="H200" t="s">
         <v>533</v>
       </c>
@@ -11976,6 +12066,9 @@
       <c r="F201" t="s">
         <v>615</v>
       </c>
+      <c r="G201" t="s">
+        <v>14</v>
+      </c>
       <c r="H201" t="s">
         <v>533</v>
       </c>
@@ -12005,6 +12098,9 @@
       <c r="F202" t="s">
         <v>617</v>
       </c>
+      <c r="G202" t="s">
+        <v>14</v>
+      </c>
       <c r="H202" t="s">
         <v>533</v>
       </c>
@@ -12015,7 +12111,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="42">
+    <row r="203" spans="1:11" ht="42" hidden="1">
       <c r="A203">
         <v>21</v>
       </c>
@@ -12066,6 +12162,9 @@
       <c r="F204" t="s">
         <v>110</v>
       </c>
+      <c r="G204" t="s">
+        <v>14</v>
+      </c>
       <c r="H204" t="s">
         <v>546</v>
       </c>
@@ -12098,6 +12197,9 @@
       <c r="F205" t="s">
         <v>126</v>
       </c>
+      <c r="G205" t="s">
+        <v>14</v>
+      </c>
       <c r="H205" t="s">
         <v>124</v>
       </c>
@@ -12111,7 +12213,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="28">
+    <row r="206" spans="1:11" ht="28" hidden="1">
       <c r="A206">
         <v>24</v>
       </c>
@@ -12143,7 +12245,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" hidden="1">
       <c r="A207">
         <v>1</v>
       </c>
@@ -12175,7 +12277,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" hidden="1">
       <c r="A208">
         <v>2</v>
       </c>
@@ -12207,7 +12309,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="28">
+    <row r="209" spans="1:11" ht="28" hidden="1">
       <c r="A209">
         <v>3</v>
       </c>
@@ -12239,7 +12341,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="28">
+    <row r="210" spans="1:11" ht="28" hidden="1">
       <c r="A210">
         <v>4</v>
       </c>
@@ -12271,7 +12373,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" hidden="1">
       <c r="A211">
         <v>5</v>
       </c>
@@ -12303,7 +12405,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="28">
+    <row r="212" spans="1:11" ht="28" hidden="1">
       <c r="A212">
         <v>6</v>
       </c>
@@ -12335,7 +12437,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="42">
+    <row r="213" spans="1:11" ht="42" hidden="1">
       <c r="A213">
         <v>7</v>
       </c>
@@ -12367,7 +12469,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="42">
+    <row r="214" spans="1:11" ht="42" hidden="1">
       <c r="A214">
         <v>8</v>
       </c>
@@ -12399,7 +12501,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" hidden="1">
       <c r="A215">
         <v>9</v>
       </c>
@@ -12431,7 +12533,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" hidden="1">
       <c r="A216">
         <v>10</v>
       </c>
@@ -12463,7 +12565,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="28">
+    <row r="217" spans="1:11" ht="28" hidden="1">
       <c r="A217">
         <v>11</v>
       </c>
@@ -12514,6 +12616,9 @@
       <c r="F218" t="s">
         <v>645</v>
       </c>
+      <c r="G218" t="s">
+        <v>14</v>
+      </c>
       <c r="H218" t="s">
         <v>533</v>
       </c>
@@ -12546,6 +12651,9 @@
       <c r="F219" t="s">
         <v>648</v>
       </c>
+      <c r="G219" t="s">
+        <v>14</v>
+      </c>
       <c r="H219" t="s">
         <v>533</v>
       </c>
@@ -12559,7 +12667,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" hidden="1">
       <c r="A220">
         <v>1</v>
       </c>
@@ -12591,7 +12699,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" hidden="1">
       <c r="A221">
         <v>2</v>
       </c>
@@ -12623,7 +12731,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="28">
+    <row r="222" spans="1:11" ht="28" hidden="1">
       <c r="A222">
         <v>3</v>
       </c>
@@ -12655,7 +12763,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="28">
+    <row r="223" spans="1:11" ht="28" hidden="1">
       <c r="A223">
         <v>4</v>
       </c>
@@ -12687,7 +12795,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" hidden="1">
       <c r="A224">
         <v>5</v>
       </c>
@@ -12719,7 +12827,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" hidden="1">
       <c r="A225">
         <v>6</v>
       </c>
@@ -12751,7 +12859,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="28">
+    <row r="226" spans="1:11" ht="28" hidden="1">
       <c r="A226">
         <v>7</v>
       </c>
@@ -12783,7 +12891,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" hidden="1">
       <c r="A227">
         <v>8</v>
       </c>
@@ -12815,7 +12923,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="28">
+    <row r="228" spans="1:11" ht="28" hidden="1">
       <c r="A228">
         <v>9</v>
       </c>
@@ -12847,7 +12955,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" hidden="1">
       <c r="A229">
         <v>10</v>
       </c>
@@ -12879,7 +12987,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" hidden="1">
       <c r="A230">
         <v>11</v>
       </c>
@@ -12930,6 +13038,9 @@
       <c r="F231" t="s">
         <v>667</v>
       </c>
+      <c r="G231" t="s">
+        <v>14</v>
+      </c>
       <c r="H231" t="s">
         <v>486</v>
       </c>
@@ -12962,6 +13073,9 @@
       <c r="F232" t="s">
         <v>670</v>
       </c>
+      <c r="G232" t="s">
+        <v>14</v>
+      </c>
       <c r="H232" t="s">
         <v>486</v>
       </c>
@@ -12994,6 +13108,9 @@
       <c r="F233" t="s">
         <v>167</v>
       </c>
+      <c r="G233" t="s">
+        <v>14</v>
+      </c>
       <c r="H233" t="s">
         <v>605</v>
       </c>
@@ -13007,7 +13124,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="28">
+    <row r="234" spans="1:11" ht="28" hidden="1">
       <c r="A234">
         <v>15</v>
       </c>
@@ -13039,7 +13156,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="56">
+    <row r="235" spans="1:11" ht="56" hidden="1">
       <c r="A235">
         <v>16</v>
       </c>
@@ -13071,7 +13188,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" hidden="1">
       <c r="A236">
         <v>17</v>
       </c>
@@ -13122,6 +13239,9 @@
       <c r="F237" t="s">
         <v>681</v>
       </c>
+      <c r="G237" t="s">
+        <v>14</v>
+      </c>
       <c r="H237" t="s">
         <v>533</v>
       </c>
@@ -13151,6 +13271,9 @@
       <c r="F238" t="s">
         <v>683</v>
       </c>
+      <c r="G238" t="s">
+        <v>14</v>
+      </c>
       <c r="H238" t="s">
         <v>533</v>
       </c>
@@ -13180,6 +13303,9 @@
       <c r="F239" t="s">
         <v>685</v>
       </c>
+      <c r="G239" t="s">
+        <v>14</v>
+      </c>
       <c r="H239" t="s">
         <v>533</v>
       </c>
@@ -13190,7 +13316,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="42">
+    <row r="240" spans="1:11" ht="42" hidden="1">
       <c r="A240">
         <v>21</v>
       </c>
@@ -13241,6 +13367,9 @@
       <c r="F241" t="s">
         <v>106</v>
       </c>
+      <c r="G241" t="s">
+        <v>14</v>
+      </c>
       <c r="H241" t="s">
         <v>546</v>
       </c>
@@ -13273,6 +13402,9 @@
       <c r="F242" t="s">
         <v>110</v>
       </c>
+      <c r="G242" t="s">
+        <v>14</v>
+      </c>
       <c r="H242" t="s">
         <v>546</v>
       </c>
@@ -13305,6 +13437,9 @@
       <c r="F243" t="s">
         <v>118</v>
       </c>
+      <c r="G243" t="s">
+        <v>14</v>
+      </c>
       <c r="H243" t="s">
         <v>116</v>
       </c>
@@ -13318,7 +13453,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="28">
+    <row r="244" spans="1:11" ht="28" hidden="1">
       <c r="A244">
         <v>25</v>
       </c>
@@ -13369,6 +13504,9 @@
       <c r="F245" t="s">
         <v>126</v>
       </c>
+      <c r="G245" t="s">
+        <v>14</v>
+      </c>
       <c r="H245" t="s">
         <v>124</v>
       </c>
@@ -13382,7 +13520,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="28">
+    <row r="246" spans="1:11" ht="28" hidden="1">
       <c r="A246">
         <v>27</v>
       </c>
@@ -13414,7 +13552,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" hidden="1">
       <c r="A247">
         <v>1</v>
       </c>
@@ -13446,7 +13584,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" hidden="1">
       <c r="A248">
         <v>2</v>
       </c>
@@ -13478,7 +13616,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="28">
+    <row r="249" spans="1:11" ht="28" hidden="1">
       <c r="A249">
         <v>3</v>
       </c>
@@ -13510,7 +13648,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="28">
+    <row r="250" spans="1:11" ht="28" hidden="1">
       <c r="A250">
         <v>4</v>
       </c>
@@ -13542,7 +13680,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" hidden="1">
       <c r="A251">
         <v>5</v>
       </c>
@@ -13574,7 +13712,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" hidden="1">
       <c r="A252">
         <v>6</v>
       </c>
@@ -13606,7 +13744,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="28">
+    <row r="253" spans="1:11" ht="28" hidden="1">
       <c r="A253">
         <v>7</v>
       </c>
@@ -13657,6 +13795,9 @@
       <c r="F254" t="s">
         <v>709</v>
       </c>
+      <c r="G254" t="s">
+        <v>14</v>
+      </c>
       <c r="H254" t="s">
         <v>708</v>
       </c>
@@ -13689,6 +13830,9 @@
       <c r="F255" t="s">
         <v>712</v>
       </c>
+      <c r="G255" t="s">
+        <v>14</v>
+      </c>
       <c r="H255" t="s">
         <v>711</v>
       </c>
@@ -13702,7 +13846,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" hidden="1">
       <c r="A256">
         <v>10</v>
       </c>
@@ -13734,7 +13878,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" hidden="1">
       <c r="A257">
         <v>11</v>
       </c>
@@ -13785,6 +13929,9 @@
       <c r="F258" t="s">
         <v>721</v>
       </c>
+      <c r="G258" t="s">
+        <v>14</v>
+      </c>
       <c r="H258" t="s">
         <v>722</v>
       </c>
@@ -13798,7 +13945,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="42">
+    <row r="259" spans="1:11" ht="42" hidden="1">
       <c r="A259">
         <v>13</v>
       </c>
@@ -13848,6 +13995,9 @@
       </c>
       <c r="F260" t="s">
         <v>281</v>
+      </c>
+      <c r="G260" t="s">
+        <v>14</v>
       </c>
       <c r="H260" t="s">
         <v>726</v>
@@ -13881,6 +14031,9 @@
       <c r="F261" t="s">
         <v>730</v>
       </c>
+      <c r="G261" t="s">
+        <v>14</v>
+      </c>
       <c r="H261" t="s">
         <v>729</v>
       </c>
@@ -13894,7 +14047,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="28">
+    <row r="262" spans="1:11" ht="28" hidden="1">
       <c r="A262">
         <v>16</v>
       </c>
@@ -13945,6 +14098,9 @@
       <c r="F263" t="s">
         <v>302</v>
       </c>
+      <c r="G263" t="s">
+        <v>14</v>
+      </c>
       <c r="H263" t="s">
         <v>726</v>
       </c>
@@ -13977,6 +14133,9 @@
       <c r="F264" t="s">
         <v>167</v>
       </c>
+      <c r="G264" t="s">
+        <v>14</v>
+      </c>
       <c r="H264" t="s">
         <v>605</v>
       </c>
@@ -13990,7 +14149,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="28">
+    <row r="265" spans="1:11" ht="28" hidden="1">
       <c r="A265">
         <v>19</v>
       </c>
@@ -14022,7 +14181,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" hidden="1">
       <c r="A266">
         <v>20</v>
       </c>
@@ -14054,7 +14213,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" hidden="1">
       <c r="A267">
         <v>21</v>
       </c>
@@ -14105,6 +14264,9 @@
       <c r="F268" t="s">
         <v>748</v>
       </c>
+      <c r="G268" t="s">
+        <v>14</v>
+      </c>
       <c r="H268" t="s">
         <v>177</v>
       </c>
@@ -14137,6 +14299,9 @@
       <c r="F269" t="s">
         <v>751</v>
       </c>
+      <c r="G269" t="s">
+        <v>14</v>
+      </c>
       <c r="H269" t="s">
         <v>750</v>
       </c>
@@ -14169,6 +14334,9 @@
       <c r="F270" t="s">
         <v>353</v>
       </c>
+      <c r="G270" t="s">
+        <v>14</v>
+      </c>
       <c r="H270" t="s">
         <v>486</v>
       </c>
@@ -14201,6 +14369,9 @@
       <c r="F271" t="s">
         <v>361</v>
       </c>
+      <c r="G271" t="s">
+        <v>14</v>
+      </c>
       <c r="H271" t="s">
         <v>486</v>
       </c>
@@ -14214,7 +14385,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="42">
+    <row r="272" spans="1:11" ht="42" hidden="1">
       <c r="A272">
         <v>26</v>
       </c>
@@ -14246,7 +14417,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" hidden="1">
       <c r="A273">
         <v>27</v>
       </c>
@@ -14278,7 +14449,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="28">
+    <row r="274" spans="1:11" ht="28" hidden="1">
       <c r="A274">
         <v>28</v>
       </c>
@@ -14310,7 +14481,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" hidden="1">
       <c r="A275">
         <v>29</v>
       </c>
@@ -14361,6 +14532,9 @@
       <c r="F276" t="s">
         <v>760</v>
       </c>
+      <c r="G276" t="s">
+        <v>14</v>
+      </c>
       <c r="H276" t="s">
         <v>533</v>
       </c>
@@ -14374,7 +14548,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="28">
+    <row r="277" spans="1:11" ht="28" hidden="1">
       <c r="A277">
         <v>31</v>
       </c>
@@ -14406,7 +14580,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="42">
+    <row r="278" spans="1:11" ht="42" hidden="1">
       <c r="A278">
         <v>32</v>
       </c>
@@ -14438,7 +14612,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" hidden="1">
       <c r="A279">
         <v>33</v>
       </c>
@@ -14489,6 +14663,9 @@
       <c r="F280" t="s">
         <v>94</v>
       </c>
+      <c r="G280" t="s">
+        <v>14</v>
+      </c>
       <c r="H280" t="s">
         <v>533</v>
       </c>
@@ -14502,7 +14679,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="28">
+    <row r="281" spans="1:11" ht="28" hidden="1">
       <c r="A281">
         <v>35</v>
       </c>
@@ -14553,6 +14730,9 @@
       <c r="F282" t="s">
         <v>102</v>
       </c>
+      <c r="G282" t="s">
+        <v>14</v>
+      </c>
       <c r="H282" t="s">
         <v>533</v>
       </c>
@@ -14566,7 +14746,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" hidden="1">
       <c r="A283">
         <v>1</v>
       </c>
@@ -14598,7 +14778,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" hidden="1">
       <c r="A284">
         <v>2</v>
       </c>
@@ -14630,7 +14810,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="28">
+    <row r="285" spans="1:11" ht="28" hidden="1">
       <c r="A285">
         <v>3</v>
       </c>
@@ -14662,7 +14842,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="28">
+    <row r="286" spans="1:11" ht="28" hidden="1">
       <c r="A286">
         <v>4</v>
       </c>
@@ -14694,7 +14874,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="28">
+    <row r="287" spans="1:11" ht="28" hidden="1">
       <c r="A287">
         <v>5</v>
       </c>
@@ -14726,7 +14906,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="42">
+    <row r="288" spans="1:11" ht="42" hidden="1">
       <c r="A288">
         <v>6</v>
       </c>
@@ -14758,7 +14938,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="28">
+    <row r="289" spans="1:11" ht="28" hidden="1">
       <c r="A289">
         <v>7</v>
       </c>
@@ -14809,6 +14989,9 @@
       <c r="F290" t="s">
         <v>786</v>
       </c>
+      <c r="G290" t="s">
+        <v>14</v>
+      </c>
       <c r="H290" t="s">
         <v>785</v>
       </c>
@@ -14822,7 +15005,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="28">
+    <row r="291" spans="1:11" ht="28" hidden="1">
       <c r="A291">
         <v>9</v>
       </c>
@@ -14873,6 +15056,9 @@
       <c r="F292" t="s">
         <v>792</v>
       </c>
+      <c r="G292" t="s">
+        <v>14</v>
+      </c>
       <c r="H292" t="s">
         <v>486</v>
       </c>
@@ -14905,6 +15091,9 @@
       <c r="F293" t="s">
         <v>795</v>
       </c>
+      <c r="G293" t="s">
+        <v>14</v>
+      </c>
       <c r="H293" t="s">
         <v>486</v>
       </c>
@@ -14918,7 +15107,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" hidden="1">
       <c r="A294">
         <v>12</v>
       </c>
@@ -14950,7 +15139,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="28">
+    <row r="295" spans="1:11" ht="28" hidden="1">
       <c r="A295">
         <v>13</v>
       </c>
@@ -14982,7 +15171,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" hidden="1">
       <c r="A296">
         <v>14</v>
       </c>
@@ -15033,6 +15222,9 @@
       <c r="F297" t="s">
         <v>58</v>
       </c>
+      <c r="G297" t="s">
+        <v>14</v>
+      </c>
       <c r="H297" t="s">
         <v>533</v>
       </c>
@@ -15043,7 +15235,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="42">
+    <row r="298" spans="1:11" ht="42" hidden="1">
       <c r="A298">
         <v>16</v>
       </c>
@@ -15075,7 +15267,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" hidden="1">
       <c r="A299">
         <v>1</v>
       </c>
@@ -15107,7 +15299,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" hidden="1">
       <c r="A300">
         <v>2</v>
       </c>
@@ -15139,7 +15331,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="28">
+    <row r="301" spans="1:11" ht="28" hidden="1">
       <c r="A301">
         <v>3</v>
       </c>
@@ -15171,7 +15363,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="28">
+    <row r="302" spans="1:11" ht="28" hidden="1">
       <c r="A302">
         <v>4</v>
       </c>
@@ -15203,7 +15395,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" hidden="1">
       <c r="A303">
         <v>5</v>
       </c>
@@ -15235,7 +15427,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" hidden="1">
       <c r="A304">
         <v>6</v>
       </c>
@@ -15267,7 +15459,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="28">
+    <row r="305" spans="1:11" ht="28" hidden="1">
       <c r="A305">
         <v>7</v>
       </c>
@@ -15318,6 +15510,9 @@
       <c r="F306" t="s">
         <v>810</v>
       </c>
+      <c r="G306" t="s">
+        <v>14</v>
+      </c>
       <c r="H306" t="s">
         <v>809</v>
       </c>
@@ -15350,6 +15545,9 @@
       <c r="F307" t="s">
         <v>813</v>
       </c>
+      <c r="G307" t="s">
+        <v>14</v>
+      </c>
       <c r="H307" t="s">
         <v>812</v>
       </c>
@@ -15363,7 +15561,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="28">
+    <row r="308" spans="1:11" ht="28" hidden="1">
       <c r="A308">
         <v>10</v>
       </c>
@@ -15395,7 +15593,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="28">
+    <row r="309" spans="1:11" ht="28" hidden="1">
       <c r="A309">
         <v>11</v>
       </c>
@@ -15427,7 +15625,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" hidden="1">
       <c r="A310">
         <v>12</v>
       </c>
@@ -15478,6 +15676,9 @@
       <c r="F311" t="s">
         <v>281</v>
       </c>
+      <c r="G311" t="s">
+        <v>14</v>
+      </c>
       <c r="H311" t="s">
         <v>726</v>
       </c>
@@ -15491,7 +15692,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="28">
+    <row r="312" spans="1:11" ht="28" hidden="1">
       <c r="A312">
         <v>14</v>
       </c>
@@ -15523,7 +15724,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="28">
+    <row r="313" spans="1:11" ht="28" hidden="1">
       <c r="A313">
         <v>15</v>
       </c>
@@ -15555,7 +15756,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="70">
+    <row r="314" spans="1:11" ht="70" hidden="1">
       <c r="A314">
         <v>16</v>
       </c>
@@ -15587,7 +15788,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="28">
+    <row r="315" spans="1:11" ht="28" hidden="1">
       <c r="A315">
         <v>17</v>
       </c>
@@ -15638,6 +15839,9 @@
       <c r="F316" t="s">
         <v>302</v>
       </c>
+      <c r="G316" t="s">
+        <v>14</v>
+      </c>
       <c r="H316" t="s">
         <v>726</v>
       </c>
@@ -15651,7 +15855,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="28">
+    <row r="317" spans="1:11" ht="28" hidden="1">
       <c r="A317">
         <v>19</v>
       </c>
@@ -15683,7 +15887,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="28">
+    <row r="318" spans="1:11" ht="28" hidden="1">
       <c r="A318">
         <v>20</v>
       </c>
@@ -15715,7 +15919,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="28">
+    <row r="319" spans="1:11" ht="28" hidden="1">
       <c r="A319">
         <v>21</v>
       </c>
@@ -15747,7 +15951,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="56">
+    <row r="320" spans="1:11" ht="56" hidden="1">
       <c r="A320">
         <v>22</v>
       </c>
@@ -15798,6 +16002,9 @@
       <c r="F321" t="s">
         <v>167</v>
       </c>
+      <c r="G321" t="s">
+        <v>14</v>
+      </c>
       <c r="H321" t="s">
         <v>605</v>
       </c>
@@ -15811,7 +16018,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="28">
+    <row r="322" spans="1:11" ht="28" hidden="1">
       <c r="A322">
         <v>24</v>
       </c>
@@ -15843,7 +16050,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" hidden="1">
       <c r="A323">
         <v>25</v>
       </c>
@@ -15875,7 +16082,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="324" spans="1:11" ht="28">
+    <row r="324" spans="1:11" ht="28" hidden="1">
       <c r="A324">
         <v>26</v>
       </c>
@@ -15907,7 +16114,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" hidden="1">
       <c r="A325">
         <v>27</v>
       </c>
@@ -15939,7 +16146,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" hidden="1">
       <c r="A326">
         <v>28</v>
       </c>
@@ -15971,7 +16178,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" hidden="1">
       <c r="A327">
         <v>29</v>
       </c>
@@ -16022,6 +16229,9 @@
       <c r="F328" t="s">
         <v>353</v>
       </c>
+      <c r="G328" t="s">
+        <v>14</v>
+      </c>
       <c r="H328" t="s">
         <v>486</v>
       </c>
@@ -16054,6 +16264,9 @@
       <c r="F329" t="s">
         <v>357</v>
       </c>
+      <c r="G329" t="s">
+        <v>14</v>
+      </c>
       <c r="H329" t="s">
         <v>486</v>
       </c>
@@ -16086,6 +16299,9 @@
       <c r="F330" t="s">
         <v>361</v>
       </c>
+      <c r="G330" t="s">
+        <v>14</v>
+      </c>
       <c r="H330" t="s">
         <v>486</v>
       </c>
@@ -16099,7 +16315,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="28">
+    <row r="331" spans="1:11" ht="28" hidden="1">
       <c r="A331">
         <v>33</v>
       </c>
@@ -16131,7 +16347,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="28">
+    <row r="332" spans="1:11" ht="28" hidden="1">
       <c r="A332">
         <v>34</v>
       </c>
@@ -16163,7 +16379,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" hidden="1">
       <c r="A333">
         <v>35</v>
       </c>
@@ -16195,7 +16411,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="28">
+    <row r="334" spans="1:11" ht="28" hidden="1">
       <c r="A334">
         <v>36</v>
       </c>
@@ -16227,7 +16443,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" hidden="1">
       <c r="A335">
         <v>37</v>
       </c>
@@ -16278,6 +16494,9 @@
       <c r="F336" t="s">
         <v>874</v>
       </c>
+      <c r="G336" t="s">
+        <v>14</v>
+      </c>
       <c r="H336" t="s">
         <v>533</v>
       </c>
@@ -16307,6 +16526,9 @@
       <c r="F337" t="s">
         <v>876</v>
       </c>
+      <c r="G337" t="s">
+        <v>14</v>
+      </c>
       <c r="H337" t="s">
         <v>533</v>
       </c>
@@ -16317,7 +16539,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="42">
+    <row r="338" spans="1:11" ht="42" hidden="1">
       <c r="A338">
         <v>40</v>
       </c>
@@ -16349,7 +16571,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="42">
+    <row r="339" spans="1:11" ht="42" hidden="1">
       <c r="A339">
         <v>41</v>
       </c>
@@ -16381,7 +16603,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" hidden="1">
       <c r="A340">
         <v>42</v>
       </c>
@@ -16432,6 +16654,9 @@
       <c r="F341" t="s">
         <v>94</v>
       </c>
+      <c r="G341" t="s">
+        <v>14</v>
+      </c>
       <c r="H341" t="s">
         <v>533</v>
       </c>
@@ -16445,7 +16670,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="28">
+    <row r="342" spans="1:11" ht="28" hidden="1">
       <c r="A342">
         <v>44</v>
       </c>
@@ -16496,6 +16721,9 @@
       <c r="F343" t="s">
         <v>102</v>
       </c>
+      <c r="G343" t="s">
+        <v>14</v>
+      </c>
       <c r="H343" t="s">
         <v>533</v>
       </c>
@@ -16509,7 +16737,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" hidden="1">
       <c r="A344">
         <v>1</v>
       </c>
@@ -16541,7 +16769,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" hidden="1">
       <c r="A345">
         <v>2</v>
       </c>
@@ -16573,7 +16801,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="28">
+    <row r="346" spans="1:11" ht="28" hidden="1">
       <c r="A346">
         <v>3</v>
       </c>
@@ -16605,7 +16833,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="28">
+    <row r="347" spans="1:11" ht="28" hidden="1">
       <c r="A347">
         <v>4</v>
       </c>
@@ -16637,7 +16865,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" hidden="1">
       <c r="A348">
         <v>5</v>
       </c>
@@ -16669,7 +16897,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="28">
+    <row r="349" spans="1:11" ht="28" hidden="1">
       <c r="A349">
         <v>6</v>
       </c>
@@ -16701,7 +16929,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="56">
+    <row r="350" spans="1:11" ht="56" hidden="1">
       <c r="A350">
         <v>7</v>
       </c>
@@ -16733,7 +16961,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="351" spans="1:11" ht="28">
+    <row r="351" spans="1:11" ht="28" hidden="1">
       <c r="A351">
         <v>8</v>
       </c>
@@ -16765,7 +16993,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" hidden="1">
       <c r="A352">
         <v>9</v>
       </c>
@@ -16797,7 +17025,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" hidden="1">
       <c r="A353">
         <v>10</v>
       </c>
@@ -16829,7 +17057,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" hidden="1">
       <c r="A354">
         <v>11</v>
       </c>
@@ -16861,7 +17089,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="355" spans="1:11" ht="28">
+    <row r="355" spans="1:11" ht="28" hidden="1">
       <c r="A355">
         <v>12</v>
       </c>
@@ -16893,7 +17121,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="356" spans="1:11" ht="42">
+    <row r="356" spans="1:11" ht="42" hidden="1">
       <c r="A356">
         <v>13</v>
       </c>
@@ -16944,6 +17172,9 @@
       <c r="F357" t="s">
         <v>281</v>
       </c>
+      <c r="G357" t="s">
+        <v>14</v>
+      </c>
       <c r="H357" t="s">
         <v>726</v>
       </c>
@@ -16957,7 +17188,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="358" spans="1:11" ht="42">
+    <row r="358" spans="1:11" ht="42" hidden="1">
       <c r="A358">
         <v>15</v>
       </c>
@@ -17008,6 +17239,9 @@
       <c r="F359" t="s">
         <v>167</v>
       </c>
+      <c r="G359" t="s">
+        <v>14</v>
+      </c>
       <c r="H359" t="s">
         <v>605</v>
       </c>
@@ -17021,7 +17255,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="360" spans="1:11" ht="28">
+    <row r="360" spans="1:11" ht="28" hidden="1">
       <c r="A360">
         <v>17</v>
       </c>
@@ -17072,6 +17306,9 @@
       <c r="F361" t="s">
         <v>924</v>
       </c>
+      <c r="G361" t="s">
+        <v>14</v>
+      </c>
       <c r="H361" t="s">
         <v>177</v>
       </c>
@@ -17085,7 +17322,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" hidden="1">
       <c r="A362">
         <v>19</v>
       </c>
@@ -17117,7 +17354,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="363" spans="1:11" ht="42">
+    <row r="363" spans="1:11" ht="42" hidden="1">
       <c r="A363">
         <v>20</v>
       </c>
@@ -17149,7 +17386,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" hidden="1">
       <c r="A364">
         <v>21</v>
       </c>
@@ -17181,7 +17418,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="365" spans="1:11" ht="28">
+    <row r="365" spans="1:11" ht="28" hidden="1">
       <c r="A365">
         <v>22</v>
       </c>
@@ -17213,7 +17450,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" hidden="1">
       <c r="A366">
         <v>23</v>
       </c>
@@ -17264,6 +17501,9 @@
       <c r="F367" t="s">
         <v>930</v>
       </c>
+      <c r="G367" t="s">
+        <v>14</v>
+      </c>
       <c r="H367" t="s">
         <v>533</v>
       </c>
@@ -17274,7 +17514,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="368" spans="1:11" ht="28">
+    <row r="368" spans="1:11" ht="28" hidden="1">
       <c r="A368">
         <v>25</v>
       </c>
@@ -17306,7 +17546,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" hidden="1">
       <c r="A369">
         <v>1</v>
       </c>
@@ -17338,7 +17578,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="370" spans="1:11">
+    <row r="370" spans="1:11" hidden="1">
       <c r="A370">
         <v>2</v>
       </c>
@@ -17370,7 +17610,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="371" spans="1:11" ht="28">
+    <row r="371" spans="1:11" ht="28" hidden="1">
       <c r="A371">
         <v>3</v>
       </c>
@@ -17402,7 +17642,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="372" spans="1:11" ht="28">
+    <row r="372" spans="1:11" ht="28" hidden="1">
       <c r="A372">
         <v>4</v>
       </c>
@@ -17434,7 +17674,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" hidden="1">
       <c r="A373">
         <v>5</v>
       </c>
@@ -17466,7 +17706,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="374" spans="1:11" ht="28">
+    <row r="374" spans="1:11" ht="28" hidden="1">
       <c r="A374">
         <v>6</v>
       </c>
@@ -17498,7 +17738,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="375" spans="1:11" ht="56">
+    <row r="375" spans="1:11" ht="56" hidden="1">
       <c r="A375">
         <v>7</v>
       </c>
@@ -17530,7 +17770,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="376" spans="1:11" ht="28">
+    <row r="376" spans="1:11" ht="28" hidden="1">
       <c r="A376">
         <v>8</v>
       </c>
@@ -17562,7 +17802,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="377" spans="1:11" ht="28">
+    <row r="377" spans="1:11" ht="28" hidden="1">
       <c r="A377">
         <v>9</v>
       </c>
@@ -17594,7 +17834,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="378" spans="1:11" ht="28">
+    <row r="378" spans="1:11" ht="28" hidden="1">
       <c r="A378">
         <v>10</v>
       </c>
@@ -17626,7 +17866,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="379" spans="1:11" ht="56">
+    <row r="379" spans="1:11" ht="56" hidden="1">
       <c r="A379">
         <v>11</v>
       </c>
@@ -17677,6 +17917,9 @@
       <c r="F380" t="s">
         <v>281</v>
       </c>
+      <c r="G380" t="s">
+        <v>14</v>
+      </c>
       <c r="H380" t="s">
         <v>726</v>
       </c>
@@ -17690,7 +17933,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="381" spans="1:11" ht="98">
+    <row r="381" spans="1:11" ht="98" hidden="1">
       <c r="A381">
         <v>13</v>
       </c>
@@ -17722,7 +17965,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="382" spans="1:11" ht="28">
+    <row r="382" spans="1:11" ht="28" hidden="1">
       <c r="A382">
         <v>14</v>
       </c>
@@ -17773,6 +18016,9 @@
       <c r="F383" t="s">
         <v>302</v>
       </c>
+      <c r="G383" t="s">
+        <v>14</v>
+      </c>
       <c r="H383" t="s">
         <v>726</v>
       </c>
@@ -17805,6 +18051,9 @@
       <c r="F384" t="s">
         <v>167</v>
       </c>
+      <c r="G384" t="s">
+        <v>14</v>
+      </c>
       <c r="H384" t="s">
         <v>605</v>
       </c>
@@ -17818,7 +18067,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="385" spans="1:11" ht="28">
+    <row r="385" spans="1:11" ht="28" hidden="1">
       <c r="A385">
         <v>17</v>
       </c>
@@ -17869,6 +18118,9 @@
       <c r="F386" t="s">
         <v>353</v>
       </c>
+      <c r="G386" t="s">
+        <v>14</v>
+      </c>
       <c r="H386" t="s">
         <v>486</v>
       </c>
@@ -17901,6 +18153,9 @@
       <c r="F387" t="s">
         <v>361</v>
       </c>
+      <c r="G387" t="s">
+        <v>14</v>
+      </c>
       <c r="H387" t="s">
         <v>486</v>
       </c>
@@ -17914,7 +18169,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" hidden="1">
       <c r="A388">
         <v>20</v>
       </c>
@@ -17946,7 +18201,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="389" spans="1:11" ht="28">
+    <row r="389" spans="1:11" ht="28" hidden="1">
       <c r="A389">
         <v>21</v>
       </c>
@@ -17978,7 +18233,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="390" spans="1:11">
+    <row r="390" spans="1:11" hidden="1">
       <c r="A390">
         <v>22</v>
       </c>
@@ -18029,6 +18284,9 @@
       <c r="F391" t="s">
         <v>972</v>
       </c>
+      <c r="G391" t="s">
+        <v>14</v>
+      </c>
       <c r="H391" t="s">
         <v>533</v>
       </c>
@@ -18042,7 +18300,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="392" spans="1:11" ht="28">
+    <row r="392" spans="1:11" ht="28" hidden="1">
       <c r="A392">
         <v>24</v>
       </c>
@@ -18074,7 +18332,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="393" spans="1:11" ht="28">
+    <row r="393" spans="1:11" ht="28" hidden="1">
       <c r="A393">
         <v>25</v>
       </c>
@@ -18106,7 +18364,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" hidden="1">
       <c r="A394">
         <v>26</v>
       </c>
@@ -18157,6 +18415,9 @@
       <c r="F395" t="s">
         <v>94</v>
       </c>
+      <c r="G395" t="s">
+        <v>14</v>
+      </c>
       <c r="H395" t="s">
         <v>533</v>
       </c>
@@ -18170,7 +18431,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="396" spans="1:11" ht="28">
+    <row r="396" spans="1:11" ht="28" hidden="1">
       <c r="A396">
         <v>28</v>
       </c>
@@ -18221,6 +18482,9 @@
       <c r="F397" t="s">
         <v>102</v>
       </c>
+      <c r="G397" t="s">
+        <v>14</v>
+      </c>
       <c r="H397" t="s">
         <v>533</v>
       </c>
@@ -18253,6 +18517,9 @@
       <c r="F398" t="s">
         <v>114</v>
       </c>
+      <c r="G398" t="s">
+        <v>14</v>
+      </c>
       <c r="H398" t="s">
         <v>533</v>
       </c>
@@ -18266,7 +18533,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" hidden="1">
       <c r="A399">
         <v>1</v>
       </c>
@@ -18298,7 +18565,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" spans="1:11" hidden="1">
       <c r="A400">
         <v>2</v>
       </c>
@@ -18330,7 +18597,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="401" spans="1:11" ht="28">
+    <row r="401" spans="1:11" ht="28" hidden="1">
       <c r="A401">
         <v>3</v>
       </c>
@@ -18362,7 +18629,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="402" spans="1:11" ht="28">
+    <row r="402" spans="1:11" ht="28" hidden="1">
       <c r="A402">
         <v>4</v>
       </c>
@@ -18394,7 +18661,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="403" spans="1:11">
+    <row r="403" spans="1:11" hidden="1">
       <c r="A403">
         <v>5</v>
       </c>
@@ -18426,7 +18693,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="28">
+    <row r="404" spans="1:11" ht="28" hidden="1">
       <c r="A404">
         <v>6</v>
       </c>
@@ -18477,6 +18744,9 @@
       <c r="F405" t="s">
         <v>994</v>
       </c>
+      <c r="G405" t="s">
+        <v>14</v>
+      </c>
       <c r="H405" t="s">
         <v>995</v>
       </c>
@@ -18490,7 +18760,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="406" spans="1:11" ht="28">
+    <row r="406" spans="1:11" ht="28" hidden="1">
       <c r="A406">
         <v>8</v>
       </c>
@@ -18522,7 +18792,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" hidden="1">
       <c r="A407">
         <v>9</v>
       </c>
@@ -18554,7 +18824,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="408" spans="1:11">
+    <row r="408" spans="1:11" hidden="1">
       <c r="A408">
         <v>10</v>
       </c>
@@ -18586,7 +18856,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="409" spans="1:11">
+    <row r="409" spans="1:11" hidden="1">
       <c r="A409">
         <v>11</v>
       </c>
@@ -18637,6 +18907,9 @@
       <c r="F410" t="s">
         <v>281</v>
       </c>
+      <c r="G410" t="s">
+        <v>14</v>
+      </c>
       <c r="H410" t="s">
         <v>726</v>
       </c>
@@ -18650,7 +18923,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="411" spans="1:11" ht="70">
+    <row r="411" spans="1:11" ht="70" hidden="1">
       <c r="A411">
         <v>13</v>
       </c>
@@ -18682,7 +18955,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="412" spans="1:11" ht="28">
+    <row r="412" spans="1:11" ht="28" hidden="1">
       <c r="A412">
         <v>14</v>
       </c>
@@ -18733,6 +19006,9 @@
       <c r="F413" t="s">
         <v>302</v>
       </c>
+      <c r="G413" t="s">
+        <v>14</v>
+      </c>
       <c r="H413" t="s">
         <v>726</v>
       </c>
@@ -18765,6 +19041,9 @@
       <c r="F414" t="s">
         <v>167</v>
       </c>
+      <c r="G414" t="s">
+        <v>14</v>
+      </c>
       <c r="H414" t="s">
         <v>605</v>
       </c>
@@ -18778,7 +19057,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="28">
+    <row r="415" spans="1:11" ht="28" hidden="1">
       <c r="A415">
         <v>17</v>
       </c>
@@ -18829,6 +19108,9 @@
       <c r="F416" t="s">
         <v>58</v>
       </c>
+      <c r="G416" t="s">
+        <v>14</v>
+      </c>
       <c r="H416" t="s">
         <v>533</v>
       </c>
@@ -18839,7 +19121,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="417" spans="1:11" ht="28">
+    <row r="417" spans="1:11" ht="28" hidden="1">
       <c r="A417">
         <v>19</v>
       </c>
@@ -18871,7 +19153,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="418" spans="1:11">
+    <row r="418" spans="1:11" hidden="1">
       <c r="A418">
         <v>1</v>
       </c>
@@ -18903,7 +19185,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="419" spans="1:11">
+    <row r="419" spans="1:11" hidden="1">
       <c r="A419">
         <v>2</v>
       </c>
@@ -18935,7 +19217,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="420" spans="1:11" ht="28">
+    <row r="420" spans="1:11" ht="28" hidden="1">
       <c r="A420">
         <v>3</v>
       </c>
@@ -18967,7 +19249,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="421" spans="1:11" ht="28">
+    <row r="421" spans="1:11" ht="28" hidden="1">
       <c r="A421">
         <v>4</v>
       </c>
@@ -18999,7 +19281,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="422" spans="1:11">
+    <row r="422" spans="1:11" hidden="1">
       <c r="A422">
         <v>5</v>
       </c>
@@ -19031,7 +19313,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="423" spans="1:11" ht="28">
+    <row r="423" spans="1:11" ht="28" hidden="1">
       <c r="A423">
         <v>6</v>
       </c>
@@ -19082,6 +19364,9 @@
       <c r="F424" t="s">
         <v>1026</v>
       </c>
+      <c r="G424" t="s">
+        <v>14</v>
+      </c>
       <c r="H424" t="s">
         <v>1025</v>
       </c>
@@ -19114,6 +19399,9 @@
       <c r="F425" t="s">
         <v>1029</v>
       </c>
+      <c r="G425" t="s">
+        <v>14</v>
+      </c>
       <c r="H425" t="s">
         <v>1028</v>
       </c>
@@ -19127,7 +19415,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="426" spans="1:11">
+    <row r="426" spans="1:11" hidden="1">
       <c r="A426">
         <v>9</v>
       </c>
@@ -19159,7 +19447,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="427" spans="1:11">
+    <row r="427" spans="1:11" hidden="1">
       <c r="A427">
         <v>10</v>
       </c>
@@ -19210,6 +19498,9 @@
       <c r="F428" t="s">
         <v>1037</v>
       </c>
+      <c r="G428" t="s">
+        <v>14</v>
+      </c>
       <c r="H428" t="s">
         <v>722</v>
       </c>
@@ -19223,7 +19514,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="429" spans="1:11">
+    <row r="429" spans="1:11" hidden="1">
       <c r="A429">
         <v>12</v>
       </c>
@@ -19274,6 +19565,9 @@
       <c r="F430" t="s">
         <v>281</v>
       </c>
+      <c r="G430" t="s">
+        <v>14</v>
+      </c>
       <c r="H430" t="s">
         <v>1041</v>
       </c>
@@ -19287,7 +19581,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="431" spans="1:11" ht="70">
+    <row r="431" spans="1:11" ht="70" hidden="1">
       <c r="A431">
         <v>14</v>
       </c>
@@ -19319,7 +19613,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="432" spans="1:11" ht="28">
+    <row r="432" spans="1:11" ht="28" hidden="1">
       <c r="A432">
         <v>15</v>
       </c>
@@ -19370,6 +19664,9 @@
       <c r="F433" t="s">
         <v>302</v>
       </c>
+      <c r="G433" t="s">
+        <v>14</v>
+      </c>
       <c r="H433" t="s">
         <v>1041</v>
       </c>
@@ -19402,6 +19699,9 @@
       <c r="F434" t="s">
         <v>167</v>
       </c>
+      <c r="G434" t="s">
+        <v>14</v>
+      </c>
       <c r="H434" t="s">
         <v>605</v>
       </c>
@@ -19415,7 +19715,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="435" spans="1:11" ht="28">
+    <row r="435" spans="1:11" ht="28" hidden="1">
       <c r="A435">
         <v>18</v>
       </c>
@@ -19466,6 +19766,9 @@
       <c r="F436" t="s">
         <v>1054</v>
       </c>
+      <c r="G436" t="s">
+        <v>14</v>
+      </c>
       <c r="H436" t="s">
         <v>177</v>
       </c>
@@ -19498,6 +19801,9 @@
       <c r="F437" t="s">
         <v>353</v>
       </c>
+      <c r="G437" t="s">
+        <v>14</v>
+      </c>
       <c r="H437" t="s">
         <v>486</v>
       </c>
@@ -19530,6 +19836,9 @@
       <c r="F438" t="s">
         <v>361</v>
       </c>
+      <c r="G438" t="s">
+        <v>14</v>
+      </c>
       <c r="H438" t="s">
         <v>486</v>
       </c>
@@ -19543,7 +19852,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="439" spans="1:11">
+    <row r="439" spans="1:11" hidden="1">
       <c r="A439">
         <v>22</v>
       </c>
@@ -19575,7 +19884,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="440" spans="1:11" ht="28">
+    <row r="440" spans="1:11" ht="28" hidden="1">
       <c r="A440">
         <v>23</v>
       </c>
@@ -19607,7 +19916,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="441" spans="1:11">
+    <row r="441" spans="1:11" hidden="1">
       <c r="A441">
         <v>24</v>
       </c>
@@ -19658,6 +19967,9 @@
       <c r="F442" t="s">
         <v>1060</v>
       </c>
+      <c r="G442" t="s">
+        <v>14</v>
+      </c>
       <c r="H442" t="s">
         <v>533</v>
       </c>
@@ -19668,7 +19980,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="443" spans="1:11" ht="28">
+    <row r="443" spans="1:11" ht="28" hidden="1">
       <c r="A443">
         <v>26</v>
       </c>
@@ -19700,7 +20012,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="444" spans="1:11" ht="42">
+    <row r="444" spans="1:11" ht="42" hidden="1">
       <c r="A444">
         <v>27</v>
       </c>
@@ -19732,7 +20044,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="445" spans="1:11">
+    <row r="445" spans="1:11" hidden="1">
       <c r="A445">
         <v>28</v>
       </c>
@@ -19783,6 +20095,9 @@
       <c r="F446" t="s">
         <v>94</v>
       </c>
+      <c r="G446" t="s">
+        <v>14</v>
+      </c>
       <c r="H446" t="s">
         <v>533</v>
       </c>
@@ -19796,7 +20111,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="447" spans="1:11" ht="28">
+    <row r="447" spans="1:11" ht="28" hidden="1">
       <c r="A447">
         <v>30</v>
       </c>
@@ -19847,6 +20162,9 @@
       <c r="F448" t="s">
         <v>102</v>
       </c>
+      <c r="G448" t="s">
+        <v>14</v>
+      </c>
       <c r="H448" t="s">
         <v>533</v>
       </c>
@@ -19860,7 +20178,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="449" spans="1:11">
+    <row r="449" spans="1:11" hidden="1">
       <c r="A449">
         <v>1</v>
       </c>
@@ -19892,7 +20210,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="450" spans="1:11">
+    <row r="450" spans="1:11" hidden="1">
       <c r="A450">
         <v>2</v>
       </c>
@@ -19924,7 +20242,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="451" spans="1:11" ht="28">
+    <row r="451" spans="1:11" ht="28" hidden="1">
       <c r="A451">
         <v>3</v>
       </c>
@@ -19956,7 +20274,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="452" spans="1:11" ht="28">
+    <row r="452" spans="1:11" ht="28" hidden="1">
       <c r="A452">
         <v>4</v>
       </c>
@@ -19988,7 +20306,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="453" spans="1:11">
+    <row r="453" spans="1:11" hidden="1">
       <c r="A453">
         <v>5</v>
       </c>
@@ -20020,7 +20338,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="454" spans="1:11">
+    <row r="454" spans="1:11" hidden="1">
       <c r="A454">
         <v>6</v>
       </c>
@@ -20052,7 +20370,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="455" spans="1:11" ht="42">
+    <row r="455" spans="1:11" ht="42" hidden="1">
       <c r="A455">
         <v>7</v>
       </c>
@@ -20084,7 +20402,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="456" spans="1:11" ht="42">
+    <row r="456" spans="1:11" ht="42" hidden="1">
       <c r="A456">
         <v>8</v>
       </c>
@@ -20116,7 +20434,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="457" spans="1:11" ht="42">
+    <row r="457" spans="1:11" ht="42" hidden="1">
       <c r="A457">
         <v>9</v>
       </c>
@@ -20148,7 +20466,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="458" spans="1:11">
+    <row r="458" spans="1:11" hidden="1">
       <c r="A458">
         <v>10</v>
       </c>
@@ -20180,7 +20498,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="459" spans="1:11">
+    <row r="459" spans="1:11" hidden="1">
       <c r="A459">
         <v>11</v>
       </c>
@@ -20212,7 +20530,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="460" spans="1:11">
+    <row r="460" spans="1:11" hidden="1">
       <c r="A460">
         <v>12</v>
       </c>
@@ -20263,6 +20581,9 @@
       <c r="F461" t="s">
         <v>281</v>
       </c>
+      <c r="G461" t="s">
+        <v>14</v>
+      </c>
       <c r="H461" t="s">
         <v>726</v>
       </c>
@@ -20276,7 +20597,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="462" spans="1:11" ht="42">
+    <row r="462" spans="1:11" ht="42" hidden="1">
       <c r="A462">
         <v>14</v>
       </c>
@@ -20308,7 +20629,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="463" spans="1:11" ht="28">
+    <row r="463" spans="1:11" ht="28" hidden="1">
       <c r="A463">
         <v>15</v>
       </c>
@@ -20359,6 +20680,9 @@
       <c r="F464" t="s">
         <v>1103</v>
       </c>
+      <c r="G464" t="s">
+        <v>14</v>
+      </c>
       <c r="H464" t="s">
         <v>726</v>
       </c>
@@ -20391,6 +20715,9 @@
       <c r="F465" t="s">
         <v>167</v>
       </c>
+      <c r="G465" t="s">
+        <v>14</v>
+      </c>
       <c r="H465" t="s">
         <v>605</v>
       </c>
@@ -20404,7 +20731,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="466" spans="1:11">
+    <row r="466" spans="1:11" hidden="1">
       <c r="A466">
         <v>18</v>
       </c>
@@ -20436,7 +20763,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="467" spans="1:11">
+    <row r="467" spans="1:11" hidden="1">
       <c r="A467">
         <v>19</v>
       </c>
@@ -20468,7 +20795,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="468" spans="1:11" ht="28">
+    <row r="468" spans="1:11" ht="28" hidden="1">
       <c r="A468">
         <v>20</v>
       </c>
@@ -20500,7 +20827,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="469" spans="1:11">
+    <row r="469" spans="1:11" hidden="1">
       <c r="A469">
         <v>21</v>
       </c>
@@ -20551,6 +20878,9 @@
       <c r="F470" t="s">
         <v>1110</v>
       </c>
+      <c r="G470" t="s">
+        <v>14</v>
+      </c>
       <c r="H470" t="s">
         <v>533</v>
       </c>
@@ -20561,7 +20891,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="471" spans="1:11" ht="28">
+    <row r="471" spans="1:11" ht="28" hidden="1">
       <c r="A471">
         <v>23</v>
       </c>
@@ -20593,7 +20923,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="472" spans="1:11">
+    <row r="472" spans="1:11" hidden="1">
       <c r="A472">
         <v>1</v>
       </c>
@@ -20625,7 +20955,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="473" spans="1:11">
+    <row r="473" spans="1:11" hidden="1">
       <c r="A473">
         <v>2</v>
       </c>
@@ -20657,7 +20987,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="474" spans="1:11" ht="28">
+    <row r="474" spans="1:11" ht="28" hidden="1">
       <c r="A474">
         <v>3</v>
       </c>
@@ -20689,7 +21019,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="475" spans="1:11" ht="28">
+    <row r="475" spans="1:11" ht="28" hidden="1">
       <c r="A475">
         <v>4</v>
       </c>
@@ -20721,7 +21051,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="476" spans="1:11" ht="28">
+    <row r="476" spans="1:11" ht="28" hidden="1">
       <c r="A476">
         <v>5</v>
       </c>
@@ -20753,7 +21083,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="477" spans="1:11">
+    <row r="477" spans="1:11" hidden="1">
       <c r="A477">
         <v>6</v>
       </c>
@@ -20785,7 +21115,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="478" spans="1:11" ht="42">
+    <row r="478" spans="1:11" ht="42" hidden="1">
       <c r="A478">
         <v>7</v>
       </c>
@@ -20817,7 +21147,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="479" spans="1:11" ht="70">
+    <row r="479" spans="1:11" ht="70" hidden="1">
       <c r="A479">
         <v>8</v>
       </c>
@@ -20849,7 +21179,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="480" spans="1:11" ht="42">
+    <row r="480" spans="1:11" ht="42" hidden="1">
       <c r="A480">
         <v>9</v>
       </c>
@@ -20881,7 +21211,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="481" spans="1:11">
+    <row r="481" spans="1:11" hidden="1">
       <c r="A481">
         <v>10</v>
       </c>
@@ -20913,7 +21243,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="482" spans="1:11">
+    <row r="482" spans="1:11" hidden="1">
       <c r="A482">
         <v>11</v>
       </c>
@@ -20945,7 +21275,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="483" spans="1:11" ht="42">
+    <row r="483" spans="1:11" ht="42" hidden="1">
       <c r="A483">
         <v>12</v>
       </c>
@@ -20996,6 +21326,9 @@
       <c r="F484" t="s">
         <v>281</v>
       </c>
+      <c r="G484" t="s">
+        <v>14</v>
+      </c>
       <c r="H484" t="s">
         <v>726</v>
       </c>
@@ -21009,7 +21342,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="485" spans="1:11" ht="70">
+    <row r="485" spans="1:11" ht="70" hidden="1">
       <c r="A485">
         <v>14</v>
       </c>
@@ -21041,7 +21374,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="486" spans="1:11" ht="28">
+    <row r="486" spans="1:11" ht="28" hidden="1">
       <c r="A486">
         <v>15</v>
       </c>
@@ -21092,6 +21425,9 @@
       <c r="F487" t="s">
         <v>302</v>
       </c>
+      <c r="G487" t="s">
+        <v>14</v>
+      </c>
       <c r="H487" t="s">
         <v>726</v>
       </c>
@@ -21105,7 +21441,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="488" spans="1:11" ht="28">
+    <row r="488" spans="1:11" ht="28" hidden="1">
       <c r="A488">
         <v>17</v>
       </c>
@@ -21156,6 +21492,9 @@
       <c r="F489" t="s">
         <v>167</v>
       </c>
+      <c r="G489" t="s">
+        <v>14</v>
+      </c>
       <c r="H489" t="s">
         <v>605</v>
       </c>
@@ -21169,7 +21508,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="490" spans="1:11" ht="28">
+    <row r="490" spans="1:11" ht="28" hidden="1">
       <c r="A490">
         <v>19</v>
       </c>
@@ -21201,7 +21540,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="491" spans="1:11">
+    <row r="491" spans="1:11" hidden="1">
       <c r="A491">
         <v>20</v>
       </c>
@@ -21233,7 +21572,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="492" spans="1:11" ht="28">
+    <row r="492" spans="1:11" ht="28" hidden="1">
       <c r="A492">
         <v>21</v>
       </c>
@@ -21265,7 +21604,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="493" spans="1:11">
+    <row r="493" spans="1:11" hidden="1">
       <c r="A493">
         <v>22</v>
       </c>
@@ -21297,7 +21636,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="494" spans="1:11">
+    <row r="494" spans="1:11" hidden="1">
       <c r="A494">
         <v>23</v>
       </c>
@@ -21348,6 +21687,9 @@
       <c r="F495" t="s">
         <v>1159</v>
       </c>
+      <c r="G495" t="s">
+        <v>14</v>
+      </c>
       <c r="H495" t="s">
         <v>177</v>
       </c>
@@ -21361,7 +21703,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="496" spans="1:11">
+    <row r="496" spans="1:11" hidden="1">
       <c r="A496">
         <v>25</v>
       </c>
@@ -21412,6 +21754,9 @@
       <c r="F497" t="s">
         <v>353</v>
       </c>
+      <c r="G497" t="s">
+        <v>14</v>
+      </c>
       <c r="H497" t="s">
         <v>486</v>
       </c>
@@ -21444,6 +21789,9 @@
       <c r="F498" t="s">
         <v>361</v>
       </c>
+      <c r="G498" t="s">
+        <v>14</v>
+      </c>
       <c r="H498" t="s">
         <v>486</v>
       </c>
@@ -21457,7 +21805,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="499" spans="1:11">
+    <row r="499" spans="1:11" hidden="1">
       <c r="A499">
         <v>28</v>
       </c>
@@ -21489,7 +21837,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="500" spans="1:11" ht="28">
+    <row r="500" spans="1:11" ht="28" hidden="1">
       <c r="A500">
         <v>29</v>
       </c>
@@ -21521,7 +21869,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="501" spans="1:11">
+    <row r="501" spans="1:11" hidden="1">
       <c r="A501">
         <v>30</v>
       </c>
@@ -21572,6 +21920,9 @@
       <c r="F502" t="s">
         <v>874</v>
       </c>
+      <c r="G502" t="s">
+        <v>14</v>
+      </c>
       <c r="H502" t="s">
         <v>533</v>
       </c>
@@ -21582,7 +21933,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="503" spans="1:11" ht="42">
+    <row r="503" spans="1:11" ht="42" hidden="1">
       <c r="A503">
         <v>32</v>
       </c>
@@ -21614,7 +21965,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="504" spans="1:11" ht="42">
+    <row r="504" spans="1:11" ht="42" hidden="1">
       <c r="A504">
         <v>33</v>
       </c>
@@ -21646,7 +21997,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="505" spans="1:11">
+    <row r="505" spans="1:11" hidden="1">
       <c r="A505">
         <v>34</v>
       </c>
@@ -21697,6 +22048,9 @@
       <c r="F506" t="s">
         <v>94</v>
       </c>
+      <c r="G506" t="s">
+        <v>14</v>
+      </c>
       <c r="H506" t="s">
         <v>533</v>
       </c>
@@ -21710,7 +22064,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="507" spans="1:11" ht="28">
+    <row r="507" spans="1:11" ht="28" hidden="1">
       <c r="A507">
         <v>36</v>
       </c>
@@ -21761,6 +22115,9 @@
       <c r="F508" t="s">
         <v>102</v>
       </c>
+      <c r="G508" t="s">
+        <v>14</v>
+      </c>
       <c r="H508" t="s">
         <v>533</v>
       </c>
@@ -21774,7 +22131,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="509" spans="1:11">
+    <row r="509" spans="1:11" hidden="1">
       <c r="A509">
         <v>1</v>
       </c>
@@ -21806,7 +22163,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="510" spans="1:11">
+    <row r="510" spans="1:11" hidden="1">
       <c r="A510">
         <v>2</v>
       </c>
@@ -21838,7 +22195,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="511" spans="1:11" ht="28">
+    <row r="511" spans="1:11" ht="28" hidden="1">
       <c r="A511">
         <v>3</v>
       </c>
@@ -21870,7 +22227,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="512" spans="1:11" ht="28">
+    <row r="512" spans="1:11" ht="28" hidden="1">
       <c r="A512">
         <v>4</v>
       </c>
@@ -21902,7 +22259,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="513" spans="1:11" ht="28">
+    <row r="513" spans="1:11" ht="28" hidden="1">
       <c r="A513">
         <v>5</v>
       </c>
@@ -21934,7 +22291,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="514" spans="1:11">
+    <row r="514" spans="1:11" hidden="1">
       <c r="A514">
         <v>6</v>
       </c>
@@ -21966,7 +22323,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="515" spans="1:11" ht="28">
+    <row r="515" spans="1:11" ht="28" hidden="1">
       <c r="A515">
         <v>7</v>
       </c>
@@ -21998,7 +22355,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="516" spans="1:11" ht="70">
+    <row r="516" spans="1:11" ht="70" hidden="1">
       <c r="A516">
         <v>8</v>
       </c>
@@ -22030,7 +22387,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="517" spans="1:11" ht="42">
+    <row r="517" spans="1:11" ht="42" hidden="1">
       <c r="A517">
         <v>9</v>
       </c>
@@ -22062,7 +22419,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="518" spans="1:11">
+    <row r="518" spans="1:11" hidden="1">
       <c r="A518">
         <v>10</v>
       </c>
@@ -22094,7 +22451,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="519" spans="1:11">
+    <row r="519" spans="1:11" hidden="1">
       <c r="A519">
         <v>11</v>
       </c>
@@ -22126,7 +22483,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="520" spans="1:11" ht="28">
+    <row r="520" spans="1:11" ht="28" hidden="1">
       <c r="A520">
         <v>12</v>
       </c>
@@ -22177,6 +22534,9 @@
       <c r="F521" t="s">
         <v>281</v>
       </c>
+      <c r="G521" t="s">
+        <v>14</v>
+      </c>
       <c r="H521" t="s">
         <v>726</v>
       </c>
@@ -22190,7 +22550,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="522" spans="1:11" ht="70">
+    <row r="522" spans="1:11" ht="70" hidden="1">
       <c r="A522">
         <v>14</v>
       </c>
@@ -22222,7 +22582,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="523" spans="1:11" ht="28">
+    <row r="523" spans="1:11" ht="28" hidden="1">
       <c r="A523">
         <v>15</v>
       </c>
@@ -22273,6 +22633,9 @@
       <c r="F524" t="s">
         <v>302</v>
       </c>
+      <c r="G524" t="s">
+        <v>14</v>
+      </c>
       <c r="H524" t="s">
         <v>726</v>
       </c>
@@ -22286,7 +22649,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="525" spans="1:11" ht="28">
+    <row r="525" spans="1:11" ht="28" hidden="1">
       <c r="A525">
         <v>17</v>
       </c>
@@ -22337,6 +22700,9 @@
       <c r="F526" t="s">
         <v>167</v>
       </c>
+      <c r="G526" t="s">
+        <v>14</v>
+      </c>
       <c r="H526" t="s">
         <v>605</v>
       </c>
@@ -22350,7 +22716,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="527" spans="1:11" ht="28">
+    <row r="527" spans="1:11" ht="28" hidden="1">
       <c r="A527">
         <v>19</v>
       </c>
@@ -22382,7 +22748,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="528" spans="1:11">
+    <row r="528" spans="1:11" hidden="1">
       <c r="A528">
         <v>20</v>
       </c>
@@ -22414,7 +22780,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="529" spans="1:11" ht="28">
+    <row r="529" spans="1:11" ht="28" hidden="1">
       <c r="A529">
         <v>21</v>
       </c>
@@ -22446,7 +22812,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="530" spans="1:11">
+    <row r="530" spans="1:11" hidden="1">
       <c r="A530">
         <v>22</v>
       </c>
@@ -22497,6 +22863,9 @@
       <c r="F531" t="s">
         <v>353</v>
       </c>
+      <c r="G531" t="s">
+        <v>14</v>
+      </c>
       <c r="H531" t="s">
         <v>486</v>
       </c>
@@ -22529,6 +22898,9 @@
       <c r="F532" t="s">
         <v>361</v>
       </c>
+      <c r="G532" t="s">
+        <v>14</v>
+      </c>
       <c r="H532" t="s">
         <v>486</v>
       </c>
@@ -22542,7 +22914,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="533" spans="1:11">
+    <row r="533" spans="1:11" hidden="1">
       <c r="A533">
         <v>25</v>
       </c>
@@ -22574,7 +22946,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="534" spans="1:11" ht="28">
+    <row r="534" spans="1:11" ht="28" hidden="1">
       <c r="A534">
         <v>26</v>
       </c>
@@ -22606,7 +22978,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="535" spans="1:11">
+    <row r="535" spans="1:11" hidden="1">
       <c r="A535">
         <v>27</v>
       </c>
@@ -22657,6 +23029,9 @@
       <c r="F536" t="s">
         <v>1224</v>
       </c>
+      <c r="G536" t="s">
+        <v>14</v>
+      </c>
       <c r="H536" t="s">
         <v>533</v>
       </c>
@@ -22667,7 +23042,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="537" spans="1:11" ht="42">
+    <row r="537" spans="1:11" ht="42" hidden="1">
       <c r="A537">
         <v>29</v>
       </c>
@@ -22699,7 +23074,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="538" spans="1:11" ht="42">
+    <row r="538" spans="1:11" ht="42" hidden="1">
       <c r="A538">
         <v>30</v>
       </c>
@@ -22731,7 +23106,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="539" spans="1:11">
+    <row r="539" spans="1:11" hidden="1">
       <c r="A539">
         <v>31</v>
       </c>
@@ -22782,6 +23157,9 @@
       <c r="F540" t="s">
         <v>94</v>
       </c>
+      <c r="G540" t="s">
+        <v>14</v>
+      </c>
       <c r="H540" t="s">
         <v>533</v>
       </c>
@@ -22795,7 +23173,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="541" spans="1:11" ht="28">
+    <row r="541" spans="1:11" ht="28" hidden="1">
       <c r="A541">
         <v>33</v>
       </c>
@@ -22827,7 +23205,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="542" spans="1:11">
+    <row r="542" spans="1:11" hidden="1">
       <c r="A542">
         <v>1</v>
       </c>
@@ -22859,7 +23237,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="543" spans="1:11">
+    <row r="543" spans="1:11" hidden="1">
       <c r="A543">
         <v>2</v>
       </c>
@@ -22891,7 +23269,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="544" spans="1:11" ht="28">
+    <row r="544" spans="1:11" ht="28" hidden="1">
       <c r="A544">
         <v>3</v>
       </c>
@@ -22923,7 +23301,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="545" spans="1:11" ht="28">
+    <row r="545" spans="1:11" ht="28" hidden="1">
       <c r="A545">
         <v>4</v>
       </c>
@@ -22955,7 +23333,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="546" spans="1:11" ht="28">
+    <row r="546" spans="1:11" ht="28" hidden="1">
       <c r="A546">
         <v>5</v>
       </c>
@@ -22987,7 +23365,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="547" spans="1:11">
+    <row r="547" spans="1:11" hidden="1">
       <c r="A547">
         <v>6</v>
       </c>
@@ -23019,7 +23397,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="548" spans="1:11">
+    <row r="548" spans="1:11" hidden="1">
       <c r="A548">
         <v>7</v>
       </c>
@@ -23051,7 +23429,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="549" spans="1:11" ht="56">
+    <row r="549" spans="1:11" ht="56" hidden="1">
       <c r="A549">
         <v>8</v>
       </c>
@@ -23083,7 +23461,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="550" spans="1:11" ht="42">
+    <row r="550" spans="1:11" ht="42" hidden="1">
       <c r="A550">
         <v>9</v>
       </c>
@@ -23115,7 +23493,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="551" spans="1:11">
+    <row r="551" spans="1:11" hidden="1">
       <c r="A551">
         <v>10</v>
       </c>
@@ -23147,7 +23525,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="552" spans="1:11">
+    <row r="552" spans="1:11" hidden="1">
       <c r="A552">
         <v>11</v>
       </c>
@@ -23179,7 +23557,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="553" spans="1:11">
+    <row r="553" spans="1:11" hidden="1">
       <c r="A553">
         <v>12</v>
       </c>
@@ -23230,6 +23608,9 @@
       <c r="F554" t="s">
         <v>281</v>
       </c>
+      <c r="G554" t="s">
+        <v>14</v>
+      </c>
       <c r="H554" t="s">
         <v>726</v>
       </c>
@@ -23243,7 +23624,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="555" spans="1:11" ht="70">
+    <row r="555" spans="1:11" ht="70" hidden="1">
       <c r="A555">
         <v>14</v>
       </c>
@@ -23275,7 +23656,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="556" spans="1:11" ht="28">
+    <row r="556" spans="1:11" ht="28" hidden="1">
       <c r="A556">
         <v>15</v>
       </c>
@@ -23326,6 +23707,9 @@
       <c r="F557" t="s">
         <v>302</v>
       </c>
+      <c r="G557" t="s">
+        <v>14</v>
+      </c>
       <c r="H557" t="s">
         <v>726</v>
       </c>
@@ -23358,6 +23742,9 @@
       <c r="F558" t="s">
         <v>167</v>
       </c>
+      <c r="G558" t="s">
+        <v>14</v>
+      </c>
       <c r="H558" t="s">
         <v>605</v>
       </c>
@@ -23371,7 +23758,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="559" spans="1:11" ht="28">
+    <row r="559" spans="1:11" ht="28" hidden="1">
       <c r="A559">
         <v>18</v>
       </c>
@@ -23403,7 +23790,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="560" spans="1:11">
+    <row r="560" spans="1:11" hidden="1">
       <c r="A560">
         <v>19</v>
       </c>
@@ -23435,7 +23822,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="561" spans="1:11">
+    <row r="561" spans="1:11" hidden="1">
       <c r="A561">
         <v>20</v>
       </c>
@@ -23467,7 +23854,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="562" spans="1:11">
+    <row r="562" spans="1:11" hidden="1">
       <c r="A562">
         <v>21</v>
       </c>
@@ -23499,7 +23886,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="563" spans="1:11" ht="42">
+    <row r="563" spans="1:11" ht="42" hidden="1">
       <c r="A563">
         <v>22</v>
       </c>
@@ -23550,6 +23937,9 @@
       <c r="F564" t="s">
         <v>357</v>
       </c>
+      <c r="G564" t="s">
+        <v>14</v>
+      </c>
       <c r="H564" t="s">
         <v>486</v>
       </c>
@@ -23582,6 +23972,9 @@
       <c r="F565" t="s">
         <v>361</v>
       </c>
+      <c r="G565" t="s">
+        <v>14</v>
+      </c>
       <c r="H565" t="s">
         <v>486</v>
       </c>
@@ -23595,7 +23988,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="566" spans="1:11">
+    <row r="566" spans="1:11" hidden="1">
       <c r="A566">
         <v>25</v>
       </c>
@@ -23627,7 +24020,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="567" spans="1:11">
+    <row r="567" spans="1:11" hidden="1">
       <c r="A567">
         <v>26</v>
       </c>
@@ -23659,7 +24052,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="568" spans="1:11" ht="28">
+    <row r="568" spans="1:11" ht="28" hidden="1">
       <c r="A568">
         <v>27</v>
       </c>
@@ -23691,7 +24084,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="569" spans="1:11">
+    <row r="569" spans="1:11" hidden="1">
       <c r="A569">
         <v>28</v>
       </c>
@@ -23742,6 +24135,9 @@
       <c r="F570" t="s">
         <v>874</v>
       </c>
+      <c r="G570" t="s">
+        <v>14</v>
+      </c>
       <c r="H570" t="s">
         <v>533</v>
       </c>
@@ -23774,6 +24170,9 @@
       <c r="F571" t="s">
         <v>876</v>
       </c>
+      <c r="G571" t="s">
+        <v>14</v>
+      </c>
       <c r="H571" t="s">
         <v>533</v>
       </c>
@@ -23787,7 +24186,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="572" spans="1:11" ht="28">
+    <row r="572" spans="1:11" ht="28" hidden="1">
       <c r="A572">
         <v>31</v>
       </c>
@@ -23819,7 +24218,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="573" spans="1:11" ht="42">
+    <row r="573" spans="1:11" ht="42" hidden="1">
       <c r="A573">
         <v>32</v>
       </c>
@@ -23851,7 +24250,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="574" spans="1:11">
+    <row r="574" spans="1:11" hidden="1">
       <c r="A574">
         <v>33</v>
       </c>
@@ -23902,6 +24301,9 @@
       <c r="F575" t="s">
         <v>94</v>
       </c>
+      <c r="G575" t="s">
+        <v>14</v>
+      </c>
       <c r="H575" t="s">
         <v>533</v>
       </c>
@@ -23915,7 +24317,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="576" spans="1:11" ht="28">
+    <row r="576" spans="1:11" ht="28" hidden="1">
       <c r="A576">
         <v>35</v>
       </c>
@@ -23966,6 +24368,9 @@
       <c r="F577" t="s">
         <v>1295</v>
       </c>
+      <c r="G577" t="s">
+        <v>14</v>
+      </c>
       <c r="H577" t="s">
         <v>533</v>
       </c>
@@ -23998,6 +24403,9 @@
       <c r="F578" t="s">
         <v>114</v>
       </c>
+      <c r="G578" t="s">
+        <v>14</v>
+      </c>
       <c r="H578" t="s">
         <v>533</v>
       </c>
@@ -24011,7 +24419,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="579" spans="1:11">
+    <row r="579" spans="1:11" hidden="1">
       <c r="A579">
         <v>1</v>
       </c>
@@ -24043,7 +24451,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="580" spans="1:11">
+    <row r="580" spans="1:11" hidden="1">
       <c r="A580">
         <v>2</v>
       </c>
@@ -24075,7 +24483,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="581" spans="1:11" ht="28">
+    <row r="581" spans="1:11" ht="28" hidden="1">
       <c r="A581">
         <v>3</v>
       </c>
@@ -24107,7 +24515,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="582" spans="1:11" ht="28">
+    <row r="582" spans="1:11" ht="28" hidden="1">
       <c r="A582">
         <v>4</v>
       </c>
@@ -24139,7 +24547,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="583" spans="1:11" ht="28">
+    <row r="583" spans="1:11" ht="28" hidden="1">
       <c r="A583">
         <v>5</v>
       </c>
@@ -24171,7 +24579,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="584" spans="1:11" ht="56">
+    <row r="584" spans="1:11" ht="56" hidden="1">
       <c r="A584">
         <v>6</v>
       </c>
@@ -24203,7 +24611,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="585" spans="1:11" ht="28">
+    <row r="585" spans="1:11" ht="28" hidden="1">
       <c r="A585">
         <v>7</v>
       </c>
@@ -24235,7 +24643,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="586" spans="1:11" ht="28">
+    <row r="586" spans="1:11" ht="28" hidden="1">
       <c r="A586">
         <v>8</v>
       </c>
@@ -24267,7 +24675,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="587" spans="1:11" ht="28">
+    <row r="587" spans="1:11" ht="28" hidden="1">
       <c r="A587">
         <v>9</v>
       </c>
@@ -24299,7 +24707,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="588" spans="1:11">
+    <row r="588" spans="1:11" hidden="1">
       <c r="A588">
         <v>10</v>
       </c>
@@ -24350,6 +24758,9 @@
       <c r="F589" t="s">
         <v>281</v>
       </c>
+      <c r="G589" t="s">
+        <v>14</v>
+      </c>
       <c r="H589" t="s">
         <v>726</v>
       </c>
@@ -24363,7 +24774,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="590" spans="1:11" ht="42">
+    <row r="590" spans="1:11" ht="42" hidden="1">
       <c r="A590">
         <v>12</v>
       </c>
@@ -24395,7 +24806,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="591" spans="1:11" ht="28">
+    <row r="591" spans="1:11" ht="28" hidden="1">
       <c r="A591">
         <v>13</v>
       </c>
@@ -24445,6 +24856,9 @@
       </c>
       <c r="F592" t="s">
         <v>302</v>
+      </c>
+      <c r="G592" t="s">
+        <v>14</v>
       </c>
       <c r="H592" t="s">
         <v>726</v>
@@ -24478,6 +24892,9 @@
       <c r="F593" t="s">
         <v>167</v>
       </c>
+      <c r="G593" t="s">
+        <v>14</v>
+      </c>
       <c r="H593" t="s">
         <v>605</v>
       </c>
@@ -24491,7 +24908,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="594" spans="1:11" ht="28">
+    <row r="594" spans="1:11" ht="28" hidden="1">
       <c r="A594">
         <v>16</v>
       </c>
@@ -24523,7 +24940,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="595" spans="1:11" ht="42">
+    <row r="595" spans="1:11" ht="42" hidden="1">
       <c r="A595">
         <v>17</v>
       </c>
@@ -24574,6 +24991,9 @@
       <c r="F596" t="s">
         <v>1331</v>
       </c>
+      <c r="G596" t="s">
+        <v>14</v>
+      </c>
       <c r="H596" t="s">
         <v>533</v>
       </c>
@@ -24606,6 +25026,9 @@
       <c r="F597" t="s">
         <v>1295</v>
       </c>
+      <c r="G597" t="s">
+        <v>14</v>
+      </c>
       <c r="H597" t="s">
         <v>533</v>
       </c>
@@ -24619,7 +25042,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="598" spans="1:11">
+    <row r="598" spans="1:11" hidden="1">
       <c r="A598">
         <v>1</v>
       </c>
@@ -24651,7 +25074,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="599" spans="1:11">
+    <row r="599" spans="1:11" hidden="1">
       <c r="A599">
         <v>2</v>
       </c>
@@ -24683,7 +25106,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="600" spans="1:11" ht="28">
+    <row r="600" spans="1:11" ht="28" hidden="1">
       <c r="A600">
         <v>3</v>
       </c>
@@ -24715,7 +25138,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="601" spans="1:11" ht="28">
+    <row r="601" spans="1:11" ht="28" hidden="1">
       <c r="A601">
         <v>4</v>
       </c>
@@ -24747,7 +25170,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="602" spans="1:11">
+    <row r="602" spans="1:11" hidden="1">
       <c r="A602">
         <v>5</v>
       </c>
@@ -24779,7 +25202,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="603" spans="1:11" ht="28">
+    <row r="603" spans="1:11" ht="28" hidden="1">
       <c r="A603">
         <v>6</v>
       </c>
@@ -24811,7 +25234,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="604" spans="1:11" ht="56">
+    <row r="604" spans="1:11" ht="56" hidden="1">
       <c r="A604">
         <v>7</v>
       </c>
@@ -24843,7 +25266,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="605" spans="1:11" ht="28">
+    <row r="605" spans="1:11" ht="28" hidden="1">
       <c r="A605">
         <v>8</v>
       </c>
@@ -24875,7 +25298,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="606" spans="1:11" ht="42">
+    <row r="606" spans="1:11" ht="42" hidden="1">
       <c r="A606">
         <v>9</v>
       </c>
@@ -24907,7 +25330,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="607" spans="1:11">
+    <row r="607" spans="1:11" hidden="1">
       <c r="A607">
         <v>10</v>
       </c>
@@ -24939,7 +25362,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="608" spans="1:11">
+    <row r="608" spans="1:11" hidden="1">
       <c r="A608">
         <v>11</v>
       </c>
@@ -24971,7 +25394,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="609" spans="1:11">
+    <row r="609" spans="1:11" hidden="1">
       <c r="A609">
         <v>12</v>
       </c>
@@ -25022,6 +25445,9 @@
       <c r="F610" t="s">
         <v>281</v>
       </c>
+      <c r="G610" t="s">
+        <v>14</v>
+      </c>
       <c r="H610" t="s">
         <v>726</v>
       </c>
@@ -25035,7 +25461,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="611" spans="1:11" ht="70">
+    <row r="611" spans="1:11" ht="70" hidden="1">
       <c r="A611">
         <v>14</v>
       </c>
@@ -25067,7 +25493,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="612" spans="1:11" ht="28">
+    <row r="612" spans="1:11" ht="28" hidden="1">
       <c r="A612">
         <v>15</v>
       </c>
@@ -25118,6 +25544,9 @@
       <c r="F613" t="s">
         <v>302</v>
       </c>
+      <c r="G613" t="s">
+        <v>14</v>
+      </c>
       <c r="H613" t="s">
         <v>726</v>
       </c>
@@ -25150,6 +25579,9 @@
       <c r="F614" t="s">
         <v>167</v>
       </c>
+      <c r="G614" t="s">
+        <v>14</v>
+      </c>
       <c r="H614" t="s">
         <v>605</v>
       </c>
@@ -25163,7 +25595,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="615" spans="1:11" ht="28">
+    <row r="615" spans="1:11" ht="28" hidden="1">
       <c r="A615">
         <v>18</v>
       </c>
@@ -25214,6 +25646,9 @@
       <c r="F616" t="s">
         <v>1368</v>
       </c>
+      <c r="G616" t="s">
+        <v>14</v>
+      </c>
       <c r="H616" t="s">
         <v>177</v>
       </c>
@@ -25246,6 +25681,9 @@
       <c r="F617" t="s">
         <v>353</v>
       </c>
+      <c r="G617" t="s">
+        <v>14</v>
+      </c>
       <c r="H617" t="s">
         <v>486</v>
       </c>
@@ -25259,7 +25697,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="618" spans="1:11" ht="42">
+    <row r="618" spans="1:11" ht="42" hidden="1">
       <c r="A618">
         <v>21</v>
       </c>
@@ -25291,7 +25729,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="619" spans="1:11">
+    <row r="619" spans="1:11" hidden="1">
       <c r="A619">
         <v>22</v>
       </c>
@@ -25323,7 +25761,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="620" spans="1:11" ht="28">
+    <row r="620" spans="1:11" ht="28" hidden="1">
       <c r="A620">
         <v>23</v>
       </c>
@@ -25355,7 +25793,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="621" spans="1:11">
+    <row r="621" spans="1:11" hidden="1">
       <c r="A621">
         <v>24</v>
       </c>
@@ -25406,6 +25844,9 @@
       <c r="F622" t="s">
         <v>58</v>
       </c>
+      <c r="G622" t="s">
+        <v>14</v>
+      </c>
       <c r="H622" t="s">
         <v>533</v>
       </c>
@@ -25416,7 +25857,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="623" spans="1:11" ht="42">
+    <row r="623" spans="1:11" ht="42" hidden="1">
       <c r="A623">
         <v>26</v>
       </c>
@@ -25448,7 +25889,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="624" spans="1:11">
+    <row r="624" spans="1:11" hidden="1">
       <c r="A624">
         <v>1</v>
       </c>
@@ -25480,7 +25921,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="625" spans="1:11">
+    <row r="625" spans="1:11" hidden="1">
       <c r="A625">
         <v>2</v>
       </c>
@@ -25512,7 +25953,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="626" spans="1:11" ht="28">
+    <row r="626" spans="1:11" ht="28" hidden="1">
       <c r="A626">
         <v>3</v>
       </c>
@@ -25544,7 +25985,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="627" spans="1:11" ht="28">
+    <row r="627" spans="1:11" ht="28" hidden="1">
       <c r="A627">
         <v>4</v>
       </c>
@@ -25576,7 +26017,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="628" spans="1:11">
+    <row r="628" spans="1:11" hidden="1">
       <c r="A628">
         <v>5</v>
       </c>
@@ -25608,7 +26049,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="629" spans="1:11" ht="42">
+    <row r="629" spans="1:11" ht="42" hidden="1">
       <c r="A629">
         <v>6</v>
       </c>
@@ -25640,7 +26081,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="630" spans="1:11">
+    <row r="630" spans="1:11" hidden="1">
       <c r="A630">
         <v>7</v>
       </c>
@@ -25672,7 +26113,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="631" spans="1:11">
+    <row r="631" spans="1:11" hidden="1">
       <c r="A631">
         <v>8</v>
       </c>
@@ -25704,7 +26145,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="632" spans="1:11" ht="56">
+    <row r="632" spans="1:11" ht="56" hidden="1">
       <c r="A632">
         <v>9</v>
       </c>
@@ -25736,7 +26177,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="633" spans="1:11" ht="28">
+    <row r="633" spans="1:11" ht="28" hidden="1">
       <c r="A633">
         <v>10</v>
       </c>
@@ -25768,7 +26209,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="634" spans="1:11" ht="28">
+    <row r="634" spans="1:11" ht="28" hidden="1">
       <c r="A634">
         <v>11</v>
       </c>
@@ -25819,6 +26260,9 @@
       <c r="F635" t="s">
         <v>1396</v>
       </c>
+      <c r="G635" t="s">
+        <v>14</v>
+      </c>
       <c r="H635" t="s">
         <v>486</v>
       </c>
@@ -25851,6 +26295,9 @@
       <c r="F636" t="s">
         <v>1399</v>
       </c>
+      <c r="G636" t="s">
+        <v>14</v>
+      </c>
       <c r="H636" t="s">
         <v>486</v>
       </c>
@@ -25883,6 +26330,9 @@
       <c r="F637" t="s">
         <v>167</v>
       </c>
+      <c r="G637" t="s">
+        <v>14</v>
+      </c>
       <c r="H637" t="s">
         <v>605</v>
       </c>
@@ -25896,7 +26346,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="638" spans="1:11" ht="28">
+    <row r="638" spans="1:11" ht="28" hidden="1">
       <c r="A638">
         <v>15</v>
       </c>
@@ -25928,7 +26378,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="639" spans="1:11">
+    <row r="639" spans="1:11" hidden="1">
       <c r="A639">
         <v>16</v>
       </c>
@@ -25960,7 +26410,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="640" spans="1:11" ht="28">
+    <row r="640" spans="1:11" ht="28" hidden="1">
       <c r="A640">
         <v>17</v>
       </c>
@@ -25992,7 +26442,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="641" spans="1:11" ht="42">
+    <row r="641" spans="1:11" ht="42" hidden="1">
       <c r="A641">
         <v>18</v>
       </c>
@@ -26024,7 +26474,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="642" spans="1:11">
+    <row r="642" spans="1:11" hidden="1">
       <c r="A642">
         <v>19</v>
       </c>
@@ -26056,7 +26506,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="643" spans="1:11" ht="28">
+    <row r="643" spans="1:11" ht="28" hidden="1">
       <c r="A643">
         <v>20</v>
       </c>
@@ -26107,6 +26557,9 @@
       <c r="F644" t="s">
         <v>413</v>
       </c>
+      <c r="G644" t="s">
+        <v>14</v>
+      </c>
       <c r="H644" t="s">
         <v>726</v>
       </c>
@@ -26139,6 +26592,9 @@
       <c r="F645" t="s">
         <v>418</v>
       </c>
+      <c r="G645" t="s">
+        <v>14</v>
+      </c>
       <c r="H645" t="s">
         <v>1422</v>
       </c>
@@ -26171,6 +26627,9 @@
       <c r="F646" t="s">
         <v>422</v>
       </c>
+      <c r="G646" t="s">
+        <v>14</v>
+      </c>
       <c r="H646" t="s">
         <v>1425</v>
       </c>
@@ -26184,7 +26643,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="647" spans="1:11" ht="42">
+    <row r="647" spans="1:11" ht="42" hidden="1">
       <c r="A647">
         <v>24</v>
       </c>
@@ -26216,7 +26675,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="648" spans="1:11" ht="28">
+    <row r="648" spans="1:11" ht="28" hidden="1">
       <c r="A648">
         <v>25</v>
       </c>
@@ -26267,6 +26726,9 @@
       <c r="F649" t="s">
         <v>434</v>
       </c>
+      <c r="G649" t="s">
+        <v>14</v>
+      </c>
       <c r="H649" t="s">
         <v>432</v>
       </c>
@@ -26299,6 +26761,9 @@
       <c r="F650" t="s">
         <v>1433</v>
       </c>
+      <c r="G650" t="s">
+        <v>14</v>
+      </c>
       <c r="H650" t="s">
         <v>533</v>
       </c>
@@ -26328,6 +26793,9 @@
       <c r="F651" t="s">
         <v>1435</v>
       </c>
+      <c r="G651" t="s">
+        <v>14</v>
+      </c>
       <c r="H651" t="s">
         <v>533</v>
       </c>
@@ -26338,7 +26806,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="652" spans="1:11">
+    <row r="652" spans="1:11" hidden="1">
       <c r="A652">
         <v>29</v>
       </c>
@@ -26370,7 +26838,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="653" spans="1:11">
+    <row r="653" spans="1:11" hidden="1">
       <c r="A653">
         <v>30</v>
       </c>
@@ -26421,6 +26889,9 @@
       <c r="F654" t="s">
         <v>1443</v>
       </c>
+      <c r="G654" t="s">
+        <v>14</v>
+      </c>
       <c r="H654" t="s">
         <v>533</v>
       </c>
@@ -26453,6 +26924,9 @@
       <c r="F655" t="s">
         <v>106</v>
       </c>
+      <c r="G655" t="s">
+        <v>14</v>
+      </c>
       <c r="H655" t="s">
         <v>546</v>
       </c>
@@ -26485,6 +26959,9 @@
       <c r="F656" t="s">
         <v>110</v>
       </c>
+      <c r="G656" t="s">
+        <v>14</v>
+      </c>
       <c r="H656" t="s">
         <v>546</v>
       </c>
@@ -26517,6 +26994,9 @@
       <c r="F657" t="s">
         <v>118</v>
       </c>
+      <c r="G657" t="s">
+        <v>14</v>
+      </c>
       <c r="H657" t="s">
         <v>116</v>
       </c>
@@ -26530,7 +27010,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="658" spans="1:11" ht="28">
+    <row r="658" spans="1:11" ht="28" hidden="1">
       <c r="A658">
         <v>35</v>
       </c>
@@ -26581,6 +27061,9 @@
       <c r="F659" t="s">
         <v>126</v>
       </c>
+      <c r="G659" t="s">
+        <v>14</v>
+      </c>
       <c r="H659" t="s">
         <v>124</v>
       </c>
@@ -26594,7 +27077,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="660" spans="1:11" ht="28">
+    <row r="660" spans="1:11" ht="28" hidden="1">
       <c r="A660">
         <v>37</v>
       </c>
@@ -26626,7 +27109,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="661" spans="1:11">
+    <row r="661" spans="1:11" hidden="1">
       <c r="A661">
         <v>1</v>
       </c>
@@ -26658,7 +27141,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="662" spans="1:11">
+    <row r="662" spans="1:11" hidden="1">
       <c r="A662">
         <v>2</v>
       </c>
@@ -26690,7 +27173,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="663" spans="1:11" ht="28">
+    <row r="663" spans="1:11" ht="28" hidden="1">
       <c r="A663">
         <v>3</v>
       </c>
@@ -26722,7 +27205,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="664" spans="1:11" ht="28">
+    <row r="664" spans="1:11" ht="28" hidden="1">
       <c r="A664">
         <v>4</v>
       </c>
@@ -26754,7 +27237,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="665" spans="1:11">
+    <row r="665" spans="1:11" hidden="1">
       <c r="A665">
         <v>5</v>
       </c>
@@ -26786,7 +27269,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="666" spans="1:11" ht="28">
+    <row r="666" spans="1:11" ht="28" hidden="1">
       <c r="A666">
         <v>6</v>
       </c>
@@ -26818,7 +27301,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="667" spans="1:11" ht="28">
+    <row r="667" spans="1:11" ht="28" hidden="1">
       <c r="A667">
         <v>7</v>
       </c>
@@ -26850,7 +27333,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="668" spans="1:11">
+    <row r="668" spans="1:11" hidden="1">
       <c r="A668">
         <v>8</v>
       </c>
@@ -26882,7 +27365,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="669" spans="1:11">
+    <row r="669" spans="1:11" hidden="1">
       <c r="A669">
         <v>9</v>
       </c>
@@ -26914,7 +27397,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="670" spans="1:11">
+    <row r="670" spans="1:11" hidden="1">
       <c r="A670">
         <v>10</v>
       </c>
@@ -26946,7 +27429,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="671" spans="1:11">
+    <row r="671" spans="1:11" hidden="1">
       <c r="A671">
         <v>11</v>
       </c>
@@ -26997,6 +27480,9 @@
       <c r="F672" t="s">
         <v>413</v>
       </c>
+      <c r="G672" t="s">
+        <v>14</v>
+      </c>
       <c r="H672" t="s">
         <v>726</v>
       </c>
@@ -27029,6 +27515,9 @@
       <c r="F673" t="s">
         <v>418</v>
       </c>
+      <c r="G673" t="s">
+        <v>14</v>
+      </c>
       <c r="H673" t="s">
         <v>1422</v>
       </c>
@@ -27061,6 +27550,9 @@
       <c r="F674" t="s">
         <v>422</v>
       </c>
+      <c r="G674" t="s">
+        <v>14</v>
+      </c>
       <c r="H674" t="s">
         <v>1425</v>
       </c>
@@ -27074,7 +27566,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="675" spans="1:11" ht="28">
+    <row r="675" spans="1:11" ht="28" hidden="1">
       <c r="A675">
         <v>15</v>
       </c>
@@ -27106,7 +27598,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="676" spans="1:11" ht="28">
+    <row r="676" spans="1:11" ht="28" hidden="1">
       <c r="A676">
         <v>16</v>
       </c>
@@ -27157,6 +27649,9 @@
       <c r="F677" t="s">
         <v>434</v>
       </c>
+      <c r="G677" t="s">
+        <v>14</v>
+      </c>
       <c r="H677" t="s">
         <v>432</v>
       </c>
@@ -27170,7 +27665,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="678" spans="1:11">
+    <row r="678" spans="1:11" hidden="1">
       <c r="A678">
         <v>18</v>
       </c>
@@ -27221,6 +27716,9 @@
       <c r="F679" t="s">
         <v>440</v>
       </c>
+      <c r="G679" t="s">
+        <v>14</v>
+      </c>
       <c r="H679" t="s">
         <v>177</v>
       </c>
@@ -27234,7 +27732,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="680" spans="1:11">
+    <row r="680" spans="1:11" hidden="1">
       <c r="A680">
         <v>20</v>
       </c>
@@ -27266,7 +27764,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="681" spans="1:11">
+    <row r="681" spans="1:11" hidden="1">
       <c r="A681">
         <v>21</v>
       </c>
@@ -27317,6 +27815,9 @@
       <c r="F682" t="s">
         <v>451</v>
       </c>
+      <c r="G682" t="s">
+        <v>14</v>
+      </c>
       <c r="H682" t="s">
         <v>726</v>
       </c>
@@ -27330,7 +27831,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="683" spans="1:11" ht="28">
+    <row r="683" spans="1:11" ht="28" hidden="1">
       <c r="A683">
         <v>23</v>
       </c>
@@ -27362,7 +27863,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="684" spans="1:11">
+    <row r="684" spans="1:11" hidden="1">
       <c r="A684">
         <v>24</v>
       </c>
@@ -27394,7 +27895,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="685" spans="1:11" ht="28">
+    <row r="685" spans="1:11" ht="28" hidden="1">
       <c r="A685">
         <v>25</v>
       </c>
@@ -27445,6 +27946,9 @@
       <c r="F686" t="s">
         <v>1500</v>
       </c>
+      <c r="G686" t="s">
+        <v>14</v>
+      </c>
       <c r="H686" t="s">
         <v>533</v>
       </c>
@@ -27477,6 +27981,9 @@
       <c r="F687" t="s">
         <v>1503</v>
       </c>
+      <c r="G687" t="s">
+        <v>14</v>
+      </c>
       <c r="H687" t="s">
         <v>533</v>
       </c>
@@ -27490,7 +27997,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="688" spans="1:11">
+    <row r="688" spans="1:11" hidden="1">
       <c r="A688">
         <v>28</v>
       </c>
@@ -27522,7 +28029,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="689" spans="1:11">
+    <row r="689" spans="1:11" hidden="1">
       <c r="A689">
         <v>29</v>
       </c>
@@ -27573,6 +28080,9 @@
       <c r="F690" t="s">
         <v>1512</v>
       </c>
+      <c r="G690" t="s">
+        <v>14</v>
+      </c>
       <c r="H690" t="s">
         <v>533</v>
       </c>
@@ -27586,7 +28096,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="691" spans="1:11" ht="42">
+    <row r="691" spans="1:11" ht="42" hidden="1">
       <c r="A691">
         <v>31</v>
       </c>
@@ -27618,7 +28128,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="692" spans="1:11">
+    <row r="692" spans="1:11" hidden="1">
       <c r="A692">
         <v>32</v>
       </c>
@@ -27669,6 +28179,9 @@
       <c r="F693" t="s">
         <v>94</v>
       </c>
+      <c r="G693" t="s">
+        <v>14</v>
+      </c>
       <c r="H693" t="s">
         <v>533</v>
       </c>
@@ -27682,7 +28195,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="694" spans="1:11" ht="28">
+    <row r="694" spans="1:11" ht="28" hidden="1">
       <c r="A694">
         <v>34</v>
       </c>
@@ -27714,7 +28227,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="695" spans="1:11">
+    <row r="695" spans="1:11" hidden="1">
       <c r="A695">
         <v>1</v>
       </c>
@@ -27746,7 +28259,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="696" spans="1:11">
+    <row r="696" spans="1:11" hidden="1">
       <c r="A696">
         <v>2</v>
       </c>
@@ -27778,7 +28291,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="697" spans="1:11" ht="28">
+    <row r="697" spans="1:11" ht="28" hidden="1">
       <c r="A697">
         <v>3</v>
       </c>
@@ -27810,7 +28323,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="698" spans="1:11" ht="28">
+    <row r="698" spans="1:11" ht="28" hidden="1">
       <c r="A698">
         <v>4</v>
       </c>
@@ -27842,7 +28355,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="699" spans="1:11">
+    <row r="699" spans="1:11" hidden="1">
       <c r="A699">
         <v>5</v>
       </c>
@@ -27874,7 +28387,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="700" spans="1:11" ht="28">
+    <row r="700" spans="1:11" ht="28" hidden="1">
       <c r="A700">
         <v>6</v>
       </c>
@@ -27906,7 +28419,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="701" spans="1:11">
+    <row r="701" spans="1:11" hidden="1">
       <c r="A701">
         <v>7</v>
       </c>
@@ -27938,7 +28451,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="702" spans="1:11">
+    <row r="702" spans="1:11" hidden="1">
       <c r="A702">
         <v>8</v>
       </c>
@@ -27970,7 +28483,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="703" spans="1:11" ht="42">
+    <row r="703" spans="1:11" ht="42" hidden="1">
       <c r="A703">
         <v>9</v>
       </c>
@@ -28002,7 +28515,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="704" spans="1:11">
+    <row r="704" spans="1:11" hidden="1">
       <c r="A704">
         <v>10</v>
       </c>
@@ -28034,7 +28547,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="705" spans="1:11">
+    <row r="705" spans="1:11" hidden="1">
       <c r="A705">
         <v>11</v>
       </c>
@@ -28085,6 +28598,9 @@
       <c r="F706" t="s">
         <v>1543</v>
       </c>
+      <c r="G706" t="s">
+        <v>14</v>
+      </c>
       <c r="H706" t="s">
         <v>486</v>
       </c>
@@ -28117,6 +28633,9 @@
       <c r="F707" t="s">
         <v>1546</v>
       </c>
+      <c r="G707" t="s">
+        <v>14</v>
+      </c>
       <c r="H707" t="s">
         <v>486</v>
       </c>
@@ -28149,6 +28668,9 @@
       <c r="F708" t="s">
         <v>167</v>
       </c>
+      <c r="G708" t="s">
+        <v>14</v>
+      </c>
       <c r="H708" t="s">
         <v>605</v>
       </c>
@@ -28162,7 +28684,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="709" spans="1:11" ht="28">
+    <row r="709" spans="1:11" ht="28" hidden="1">
       <c r="A709">
         <v>15</v>
       </c>
@@ -28194,7 +28716,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="710" spans="1:11" ht="28">
+    <row r="710" spans="1:11" ht="28" hidden="1">
       <c r="A710">
         <v>16</v>
       </c>
@@ -28226,7 +28748,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="711" spans="1:11">
+    <row r="711" spans="1:11" hidden="1">
       <c r="A711">
         <v>17</v>
       </c>
@@ -28258,7 +28780,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="712" spans="1:11">
+    <row r="712" spans="1:11" hidden="1">
       <c r="A712">
         <v>18</v>
       </c>
@@ -28290,7 +28812,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="713" spans="1:11">
+    <row r="713" spans="1:11" hidden="1">
       <c r="A713">
         <v>19</v>
       </c>
@@ -28341,6 +28863,9 @@
       <c r="F714" t="s">
         <v>1566</v>
       </c>
+      <c r="G714" t="s">
+        <v>14</v>
+      </c>
       <c r="H714" t="s">
         <v>726</v>
       </c>
@@ -28354,7 +28879,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="715" spans="1:11">
+    <row r="715" spans="1:11" hidden="1">
       <c r="A715">
         <v>21</v>
       </c>
@@ -28405,6 +28930,9 @@
       <c r="F716" t="s">
         <v>1571</v>
       </c>
+      <c r="G716" t="s">
+        <v>14</v>
+      </c>
       <c r="H716" t="s">
         <v>1425</v>
       </c>
@@ -28418,7 +28946,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="717" spans="1:11" ht="28">
+    <row r="717" spans="1:11" ht="28" hidden="1">
       <c r="A717">
         <v>23</v>
       </c>
@@ -28469,6 +28997,9 @@
       <c r="F718" t="s">
         <v>434</v>
       </c>
+      <c r="G718" t="s">
+        <v>14</v>
+      </c>
       <c r="H718" t="s">
         <v>432</v>
       </c>
@@ -28501,6 +29032,9 @@
       <c r="F719" t="s">
         <v>1579</v>
       </c>
+      <c r="G719" t="s">
+        <v>14</v>
+      </c>
       <c r="H719" t="s">
         <v>533</v>
       </c>
@@ -28530,6 +29064,9 @@
       <c r="F720" t="s">
         <v>1581</v>
       </c>
+      <c r="G720" t="s">
+        <v>14</v>
+      </c>
       <c r="H720" t="s">
         <v>533</v>
       </c>
@@ -28540,7 +29077,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="721" spans="1:11">
+    <row r="721" spans="1:11" hidden="1">
       <c r="A721">
         <v>27</v>
       </c>
@@ -28572,7 +29109,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="722" spans="1:11">
+    <row r="722" spans="1:11" hidden="1">
       <c r="A722">
         <v>28</v>
       </c>
@@ -28623,6 +29160,9 @@
       <c r="F723" t="s">
         <v>1589</v>
       </c>
+      <c r="G723" t="s">
+        <v>14</v>
+      </c>
       <c r="H723" t="s">
         <v>533</v>
       </c>
@@ -28655,6 +29195,9 @@
       <c r="F724" t="s">
         <v>106</v>
       </c>
+      <c r="G724" t="s">
+        <v>14</v>
+      </c>
       <c r="H724" t="s">
         <v>546</v>
       </c>
@@ -28687,6 +29230,9 @@
       <c r="F725" t="s">
         <v>110</v>
       </c>
+      <c r="G725" t="s">
+        <v>14</v>
+      </c>
       <c r="H725" t="s">
         <v>546</v>
       </c>
@@ -28719,6 +29265,9 @@
       <c r="F726" t="s">
         <v>118</v>
       </c>
+      <c r="G726" t="s">
+        <v>14</v>
+      </c>
       <c r="H726" t="s">
         <v>116</v>
       </c>
@@ -28732,7 +29281,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="727" spans="1:11" ht="28">
+    <row r="727" spans="1:11" ht="28" hidden="1">
       <c r="A727">
         <v>33</v>
       </c>
@@ -28783,6 +29332,9 @@
       <c r="F728" t="s">
         <v>126</v>
       </c>
+      <c r="G728" t="s">
+        <v>14</v>
+      </c>
       <c r="H728" t="s">
         <v>124</v>
       </c>
@@ -28796,7 +29348,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="729" spans="1:11" ht="28">
+    <row r="729" spans="1:11" ht="28" hidden="1">
       <c r="A729">
         <v>35</v>
       </c>
@@ -28828,7 +29380,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="730" spans="1:11">
+    <row r="730" spans="1:11" hidden="1">
       <c r="A730">
         <v>1</v>
       </c>
@@ -28876,6 +29428,9 @@
       <c r="F731" t="s">
         <v>1606</v>
       </c>
+      <c r="G731" t="s">
+        <v>14</v>
+      </c>
       <c r="H731" t="s">
         <v>17</v>
       </c>
@@ -28886,7 +29441,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="732" spans="1:11" ht="28">
+    <row r="732" spans="1:11" ht="28" hidden="1">
       <c r="A732">
         <v>3</v>
       </c>
@@ -28915,7 +29470,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="733" spans="1:11" ht="28">
+    <row r="733" spans="1:11" ht="28" hidden="1">
       <c r="A733">
         <v>4</v>
       </c>
@@ -28944,7 +29499,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="734" spans="1:11" ht="28">
+    <row r="734" spans="1:11" ht="28" hidden="1">
       <c r="A734">
         <v>5</v>
       </c>
@@ -28992,6 +29547,9 @@
       <c r="F735" t="s">
         <v>1615</v>
       </c>
+      <c r="G735" t="s">
+        <v>14</v>
+      </c>
       <c r="H735" t="s">
         <v>1614</v>
       </c>
@@ -29002,7 +29560,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="736" spans="1:11" ht="42">
+    <row r="736" spans="1:11" ht="42" hidden="1">
       <c r="A736">
         <v>7</v>
       </c>
@@ -29031,7 +29589,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="737" spans="1:11">
+    <row r="737" spans="1:11" hidden="1">
       <c r="A737">
         <v>1</v>
       </c>
@@ -29063,7 +29621,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="738" spans="1:11">
+    <row r="738" spans="1:11" hidden="1">
       <c r="A738">
         <v>2</v>
       </c>
@@ -29095,7 +29653,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="739" spans="1:11" ht="28">
+    <row r="739" spans="1:11" ht="28" hidden="1">
       <c r="A739">
         <v>3</v>
       </c>
@@ -29127,7 +29685,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="740" spans="1:11" ht="28">
+    <row r="740" spans="1:11" ht="28" hidden="1">
       <c r="A740">
         <v>4</v>
       </c>
@@ -29159,7 +29717,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="741" spans="1:11" ht="42">
+    <row r="741" spans="1:11" ht="42" hidden="1">
       <c r="A741">
         <v>5</v>
       </c>
@@ -29191,7 +29749,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="742" spans="1:11">
+    <row r="742" spans="1:11" hidden="1">
       <c r="A742">
         <v>6</v>
       </c>
@@ -29242,6 +29800,9 @@
       <c r="F743" t="s">
         <v>1631</v>
       </c>
+      <c r="G743" t="s">
+        <v>14</v>
+      </c>
       <c r="H743" t="s">
         <v>533</v>
       </c>
@@ -29274,6 +29835,9 @@
       <c r="F744" t="s">
         <v>1634</v>
       </c>
+      <c r="G744" t="s">
+        <v>14</v>
+      </c>
       <c r="H744" t="s">
         <v>533</v>
       </c>
@@ -29287,7 +29851,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="745" spans="1:11">
+    <row r="745" spans="1:11" hidden="1">
       <c r="A745">
         <v>9</v>
       </c>
@@ -29319,7 +29883,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="746" spans="1:11" ht="28">
+    <row r="746" spans="1:11" ht="28" hidden="1">
       <c r="A746">
         <v>10</v>
       </c>
@@ -29351,7 +29915,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="747" spans="1:11" ht="28">
+    <row r="747" spans="1:11" ht="28" hidden="1">
       <c r="A747">
         <v>11</v>
       </c>
@@ -29383,7 +29947,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="748" spans="1:11">
+    <row r="748" spans="1:11" hidden="1">
       <c r="A748">
         <v>1</v>
       </c>
@@ -29415,7 +29979,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="749" spans="1:11">
+    <row r="749" spans="1:11" hidden="1">
       <c r="A749">
         <v>2</v>
       </c>
@@ -29466,6 +30030,9 @@
       <c r="F750" t="s">
         <v>1606</v>
       </c>
+      <c r="G750" t="s">
+        <v>14</v>
+      </c>
       <c r="H750" t="s">
         <v>17</v>
       </c>
@@ -29479,7 +30046,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="751" spans="1:11" ht="28">
+    <row r="751" spans="1:11" ht="28" hidden="1">
       <c r="A751">
         <v>4</v>
       </c>
@@ -29511,7 +30078,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="752" spans="1:11" ht="28">
+    <row r="752" spans="1:11" ht="28" hidden="1">
       <c r="A752">
         <v>5</v>
       </c>
@@ -29543,7 +30110,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="753" spans="1:11" ht="28">
+    <row r="753" spans="1:11" ht="28" hidden="1">
       <c r="A753">
         <v>6</v>
       </c>
@@ -29575,7 +30142,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="754" spans="1:11" ht="28">
+    <row r="754" spans="1:11" ht="28" hidden="1">
       <c r="A754">
         <v>7</v>
       </c>
@@ -29607,7 +30174,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="755" spans="1:11" ht="42">
+    <row r="755" spans="1:11" ht="42" hidden="1">
       <c r="A755">
         <v>8</v>
       </c>
@@ -29639,7 +30206,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="756" spans="1:11" ht="28">
+    <row r="756" spans="1:11" ht="28" hidden="1">
       <c r="A756">
         <v>9</v>
       </c>
@@ -29671,7 +30238,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="757" spans="1:11" ht="28">
+    <row r="757" spans="1:11" ht="28" hidden="1">
       <c r="A757">
         <v>10</v>
       </c>
@@ -29722,6 +30289,9 @@
       <c r="F758" t="s">
         <v>1653</v>
       </c>
+      <c r="G758" t="s">
+        <v>14</v>
+      </c>
       <c r="H758" t="s">
         <v>533</v>
       </c>
@@ -29735,7 +30305,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="759" spans="1:11">
+    <row r="759" spans="1:11" hidden="1">
       <c r="A759">
         <v>1</v>
       </c>
@@ -29767,7 +30337,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="760" spans="1:11">
+    <row r="760" spans="1:11" hidden="1">
       <c r="A760">
         <v>2</v>
       </c>
@@ -29799,7 +30369,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="761" spans="1:11" ht="28">
+    <row r="761" spans="1:11" ht="28" hidden="1">
       <c r="A761">
         <v>3</v>
       </c>
@@ -29831,7 +30401,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="762" spans="1:11" ht="28">
+    <row r="762" spans="1:11" ht="28" hidden="1">
       <c r="A762">
         <v>4</v>
       </c>
@@ -29882,6 +30452,9 @@
       <c r="F763" t="s">
         <v>1660</v>
       </c>
+      <c r="G763" t="s">
+        <v>14</v>
+      </c>
       <c r="H763" t="s">
         <v>533</v>
       </c>
@@ -29914,6 +30487,9 @@
       <c r="F764" t="s">
         <v>1663</v>
       </c>
+      <c r="G764" t="s">
+        <v>14</v>
+      </c>
       <c r="H764" t="s">
         <v>533</v>
       </c>
@@ -29927,7 +30503,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="765" spans="1:11">
+    <row r="765" spans="1:11" hidden="1">
       <c r="A765">
         <v>7</v>
       </c>
@@ -29959,7 +30535,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="766" spans="1:11" ht="28">
+    <row r="766" spans="1:11" ht="28" hidden="1">
       <c r="A766">
         <v>8</v>
       </c>
@@ -29991,7 +30567,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="767" spans="1:11">
+    <row r="767" spans="1:11" hidden="1">
       <c r="A767">
         <v>9</v>
       </c>
@@ -30042,6 +30618,9 @@
       <c r="F768" t="s">
         <v>1675</v>
       </c>
+      <c r="G768" t="s">
+        <v>14</v>
+      </c>
       <c r="H768" t="s">
         <v>533</v>
       </c>
@@ -30055,7 +30634,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="769" spans="1:11" ht="28">
+    <row r="769" spans="1:11" ht="28" hidden="1">
       <c r="A769">
         <v>11</v>
       </c>
@@ -30106,6 +30685,9 @@
       <c r="F770" t="s">
         <v>1681</v>
       </c>
+      <c r="G770" t="s">
+        <v>14</v>
+      </c>
       <c r="H770" t="s">
         <v>1680</v>
       </c>
@@ -30138,6 +30720,9 @@
       <c r="F771" t="s">
         <v>1684</v>
       </c>
+      <c r="G771" t="s">
+        <v>14</v>
+      </c>
       <c r="H771" t="s">
         <v>1683</v>
       </c>
@@ -30169,6 +30754,9 @@
       </c>
       <c r="F772" t="s">
         <v>1687</v>
+      </c>
+      <c r="G772" t="s">
+        <v>14</v>
       </c>
       <c r="H772" t="s">
         <v>1686</v>
@@ -30202,6 +30790,9 @@
       <c r="F773" t="s">
         <v>1690</v>
       </c>
+      <c r="G773" t="s">
+        <v>14</v>
+      </c>
       <c r="H773" t="s">
         <v>1689</v>
       </c>
@@ -30215,7 +30806,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="774" spans="1:11" ht="84">
+    <row r="774" spans="1:11" ht="84" hidden="1">
       <c r="A774">
         <v>16</v>
       </c>
@@ -30247,7 +30838,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="775" spans="1:11">
+    <row r="775" spans="1:11" hidden="1">
       <c r="A775">
         <v>17</v>
       </c>
@@ -30298,6 +30889,9 @@
       <c r="F776" t="s">
         <v>1699</v>
       </c>
+      <c r="G776" t="s">
+        <v>14</v>
+      </c>
       <c r="H776" t="s">
         <v>1698</v>
       </c>
@@ -30330,6 +30924,9 @@
       <c r="F777" t="s">
         <v>58</v>
       </c>
+      <c r="G777" t="s">
+        <v>14</v>
+      </c>
       <c r="H777" t="s">
         <v>533</v>
       </c>
@@ -30343,7 +30940,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="778" spans="1:11">
+    <row r="778" spans="1:11" hidden="1">
       <c r="A778">
         <v>20</v>
       </c>
@@ -30375,7 +30972,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="779" spans="1:11">
+    <row r="779" spans="1:11" hidden="1">
       <c r="A779">
         <v>1</v>
       </c>
@@ -30407,7 +31004,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="780" spans="1:11">
+    <row r="780" spans="1:11" hidden="1">
       <c r="A780">
         <v>2</v>
       </c>
@@ -30439,7 +31036,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="781" spans="1:11" ht="28">
+    <row r="781" spans="1:11" ht="28" hidden="1">
       <c r="A781">
         <v>3</v>
       </c>
@@ -30471,7 +31068,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="782" spans="1:11">
+    <row r="782" spans="1:11" hidden="1">
       <c r="A782">
         <v>4</v>
       </c>
@@ -30503,7 +31100,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="783" spans="1:11" ht="28">
+    <row r="783" spans="1:11" ht="28" hidden="1">
       <c r="A783">
         <v>5</v>
       </c>
@@ -30535,7 +31132,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="784" spans="1:11">
+    <row r="784" spans="1:11" hidden="1">
       <c r="A784">
         <v>6</v>
       </c>
@@ -30586,6 +31183,9 @@
       <c r="F785" t="s">
         <v>1707</v>
       </c>
+      <c r="G785" t="s">
+        <v>14</v>
+      </c>
       <c r="H785" t="s">
         <v>533</v>
       </c>
@@ -30618,6 +31218,9 @@
       <c r="F786" t="s">
         <v>1710</v>
       </c>
+      <c r="G786" t="s">
+        <v>14</v>
+      </c>
       <c r="H786" t="s">
         <v>533</v>
       </c>
@@ -30631,7 +31234,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="787" spans="1:11">
+    <row r="787" spans="1:11" hidden="1">
       <c r="A787">
         <v>9</v>
       </c>
@@ -30663,7 +31266,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="788" spans="1:11">
+    <row r="788" spans="1:11" hidden="1">
       <c r="A788">
         <v>10</v>
       </c>
@@ -30695,7 +31298,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="789" spans="1:11">
+    <row r="789" spans="1:11" hidden="1">
       <c r="A789">
         <v>11</v>
       </c>
@@ -30727,7 +31330,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="790" spans="1:11">
+    <row r="790" spans="1:11" hidden="1">
       <c r="A790">
         <v>1</v>
       </c>
@@ -30775,6 +31378,9 @@
       <c r="F791" t="s">
         <v>1606</v>
       </c>
+      <c r="G791" t="s">
+        <v>14</v>
+      </c>
       <c r="H791" t="s">
         <v>17</v>
       </c>
@@ -30785,7 +31391,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="792" spans="1:11" ht="28">
+    <row r="792" spans="1:11" ht="28" hidden="1">
       <c r="A792">
         <v>3</v>
       </c>
@@ -30814,7 +31420,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="793" spans="1:11" ht="28">
+    <row r="793" spans="1:11" ht="28" hidden="1">
       <c r="A793">
         <v>4</v>
       </c>
@@ -30843,7 +31449,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="794" spans="1:11" ht="28">
+    <row r="794" spans="1:11" ht="28" hidden="1">
       <c r="A794">
         <v>5</v>
       </c>
@@ -30872,7 +31478,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="795" spans="1:11" ht="56">
+    <row r="795" spans="1:11" ht="56" hidden="1">
       <c r="A795">
         <v>6</v>
       </c>
@@ -30901,7 +31507,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="796" spans="1:11" ht="28">
+    <row r="796" spans="1:11" ht="28" hidden="1">
       <c r="A796">
         <v>7</v>
       </c>
@@ -30930,7 +31536,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="797" spans="1:11" ht="28">
+    <row r="797" spans="1:11" ht="28" hidden="1">
       <c r="A797">
         <v>8</v>
       </c>
@@ -30959,7 +31565,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="798" spans="1:11" ht="28">
+    <row r="798" spans="1:11" ht="28" hidden="1">
       <c r="A798">
         <v>9</v>
       </c>
@@ -30988,7 +31594,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="799" spans="1:11" ht="42">
+    <row r="799" spans="1:11" ht="42" hidden="1">
       <c r="A799">
         <v>10</v>
       </c>
@@ -31017,7 +31623,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="800" spans="1:11">
+    <row r="800" spans="1:11" hidden="1">
       <c r="A800">
         <v>1</v>
       </c>
@@ -31049,7 +31655,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="801" spans="1:11">
+    <row r="801" spans="1:11" hidden="1">
       <c r="A801">
         <v>2</v>
       </c>
@@ -31081,7 +31687,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="802" spans="1:11" ht="84">
+    <row r="802" spans="1:11" ht="84" hidden="1">
       <c r="A802">
         <v>3</v>
       </c>
@@ -31113,7 +31719,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="803" spans="1:11">
+    <row r="803" spans="1:11" hidden="1">
       <c r="A803">
         <v>4</v>
       </c>
@@ -31145,7 +31751,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="804" spans="1:11">
+    <row r="804" spans="1:11" hidden="1">
       <c r="A804">
         <v>5</v>
       </c>
@@ -31177,7 +31783,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="805" spans="1:11" ht="42">
+    <row r="805" spans="1:11" ht="42" hidden="1">
       <c r="A805">
         <v>6</v>
       </c>
@@ -31209,7 +31815,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="806" spans="1:11">
+    <row r="806" spans="1:11" hidden="1">
       <c r="A806">
         <v>7</v>
       </c>
@@ -31241,7 +31847,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="807" spans="1:11" ht="28">
+    <row r="807" spans="1:11" ht="28" hidden="1">
       <c r="A807">
         <v>8</v>
       </c>
@@ -31273,7 +31879,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="808" spans="1:11" ht="42">
+    <row r="808" spans="1:11" ht="42" hidden="1">
       <c r="A808">
         <v>9</v>
       </c>
@@ -31305,7 +31911,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="809" spans="1:11" ht="28">
+    <row r="809" spans="1:11" ht="28" hidden="1">
       <c r="A809">
         <v>10</v>
       </c>
@@ -31337,7 +31943,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="810" spans="1:11">
+    <row r="810" spans="1:11" hidden="1">
       <c r="A810">
         <v>1</v>
       </c>
@@ -31369,7 +31975,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="811" spans="1:11">
+    <row r="811" spans="1:11" hidden="1">
       <c r="A811">
         <v>2</v>
       </c>
@@ -31401,7 +32007,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="812" spans="1:11">
+    <row r="812" spans="1:11" hidden="1">
       <c r="A812">
         <v>3</v>
       </c>
@@ -31433,7 +32039,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="813" spans="1:11" ht="28">
+    <row r="813" spans="1:11" ht="28" hidden="1">
       <c r="A813">
         <v>4</v>
       </c>
@@ -31465,7 +32071,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="814" spans="1:11">
+    <row r="814" spans="1:11" hidden="1">
       <c r="A814">
         <v>5</v>
       </c>
@@ -31497,7 +32103,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="815" spans="1:11" ht="84">
+    <row r="815" spans="1:11" ht="84" hidden="1">
       <c r="A815">
         <v>6</v>
       </c>
@@ -31529,7 +32135,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="816" spans="1:11">
+    <row r="816" spans="1:11" hidden="1">
       <c r="A816">
         <v>7</v>
       </c>
@@ -31561,7 +32167,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="817" spans="1:11">
+    <row r="817" spans="1:11" hidden="1">
       <c r="A817">
         <v>8</v>
       </c>
@@ -31593,7 +32199,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="818" spans="1:11">
+    <row r="818" spans="1:11" hidden="1">
       <c r="A818">
         <v>9</v>
       </c>
@@ -31625,7 +32231,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="819" spans="1:11">
+    <row r="819" spans="1:11" hidden="1">
       <c r="A819">
         <v>1</v>
       </c>
@@ -31657,7 +32263,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="820" spans="1:11">
+    <row r="820" spans="1:11" hidden="1">
       <c r="A820">
         <v>2</v>
       </c>
@@ -31689,7 +32295,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="821" spans="1:11" ht="42">
+    <row r="821" spans="1:11" ht="42" hidden="1">
       <c r="A821">
         <v>3</v>
       </c>
@@ -31721,7 +32327,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="822" spans="1:11">
+    <row r="822" spans="1:11" hidden="1">
       <c r="A822">
         <v>4</v>
       </c>
@@ -31753,7 +32359,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="823" spans="1:11">
+    <row r="823" spans="1:11" hidden="1">
       <c r="A823">
         <v>5</v>
       </c>
@@ -31785,7 +32391,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="824" spans="1:11">
+    <row r="824" spans="1:11" hidden="1">
       <c r="A824">
         <v>6</v>
       </c>
@@ -31836,6 +32442,9 @@
       <c r="F825" t="s">
         <v>1765</v>
       </c>
+      <c r="G825" t="s">
+        <v>14</v>
+      </c>
       <c r="H825" t="s">
         <v>533</v>
       </c>
@@ -31849,7 +32458,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="826" spans="1:11">
+    <row r="826" spans="1:11" hidden="1">
       <c r="A826">
         <v>1</v>
       </c>
@@ -31881,7 +32490,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="827" spans="1:11">
+    <row r="827" spans="1:11" hidden="1">
       <c r="A827">
         <v>2</v>
       </c>
@@ -31913,7 +32522,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="828" spans="1:11" ht="42">
+    <row r="828" spans="1:11" ht="42" hidden="1">
       <c r="A828">
         <v>3</v>
       </c>
@@ -31945,7 +32554,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="829" spans="1:11" ht="28">
+    <row r="829" spans="1:11" ht="28" hidden="1">
       <c r="A829">
         <v>4</v>
       </c>
@@ -31996,6 +32605,9 @@
       <c r="F830" t="s">
         <v>786</v>
       </c>
+      <c r="G830" t="s">
+        <v>14</v>
+      </c>
       <c r="H830" t="s">
         <v>785</v>
       </c>
@@ -32009,7 +32621,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="831" spans="1:11" ht="28">
+    <row r="831" spans="1:11" ht="28" hidden="1">
       <c r="A831">
         <v>6</v>
       </c>
@@ -32041,7 +32653,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="832" spans="1:11">
+    <row r="832" spans="1:11" hidden="1">
       <c r="A832">
         <v>7</v>
       </c>
@@ -32073,7 +32685,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="833" spans="1:11">
+    <row r="833" spans="1:11" hidden="1">
       <c r="A833">
         <v>8</v>
       </c>
@@ -32105,7 +32717,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="834" spans="1:11">
+    <row r="834" spans="1:11" hidden="1">
       <c r="A834">
         <v>1</v>
       </c>
@@ -32137,7 +32749,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="835" spans="1:11">
+    <row r="835" spans="1:11" hidden="1">
       <c r="A835">
         <v>2</v>
       </c>
@@ -32169,7 +32781,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="836" spans="1:11" ht="28">
+    <row r="836" spans="1:11" ht="28" hidden="1">
       <c r="A836">
         <v>3</v>
       </c>
@@ -32201,7 +32813,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="837" spans="1:11">
+    <row r="837" spans="1:11" hidden="1">
       <c r="A837">
         <v>4</v>
       </c>
@@ -32252,6 +32864,9 @@
       <c r="F838" t="s">
         <v>1784</v>
       </c>
+      <c r="G838" t="s">
+        <v>14</v>
+      </c>
       <c r="H838" t="s">
         <v>1783</v>
       </c>
@@ -32284,6 +32899,9 @@
       <c r="F839" t="s">
         <v>1788</v>
       </c>
+      <c r="G839" t="s">
+        <v>14</v>
+      </c>
       <c r="H839" t="s">
         <v>1787</v>
       </c>
@@ -32297,7 +32915,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="840" spans="1:11" ht="42">
+    <row r="840" spans="1:11" ht="42" hidden="1">
       <c r="A840">
         <v>7</v>
       </c>
@@ -32330,6 +32948,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K840">
+    <filterColumn colId="6">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0"/>
   <extLst>
@@ -32344,7 +32967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>

--- a/public/upload/sdtm-3-1-2-excel.xlsx
+++ b/public/upload/sdtm-3-1-2-excel.xlsx
@@ -6302,12 +6302,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K840"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F144" sqref="F144"/>
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6360,7 +6359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6386,7 +6385,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6412,7 +6411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28" hidden="1">
+    <row r="4" spans="1:11" ht="28">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6438,7 +6437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="42" hidden="1">
+    <row r="5" spans="1:11" ht="42">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6464,7 +6463,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28" hidden="1">
+    <row r="6" spans="1:11" ht="28">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6490,7 +6489,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28" hidden="1">
+    <row r="7" spans="1:11" ht="28">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6516,7 +6515,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6542,7 +6541,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6568,7 +6567,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28" hidden="1">
+    <row r="10" spans="1:11" ht="28">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6594,7 +6593,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6620,7 +6619,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6646,7 +6645,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="28" hidden="1">
+    <row r="13" spans="1:11" ht="28">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6672,7 +6671,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6698,7 +6697,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6724,7 +6723,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6750,7 +6749,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="28" hidden="1">
+    <row r="17" spans="1:10" ht="28">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6776,7 +6775,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="28" hidden="1">
+    <row r="18" spans="1:10" ht="28">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6802,7 +6801,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="28" hidden="1">
+    <row r="19" spans="1:10" ht="28">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6828,7 +6827,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="28" hidden="1">
+    <row r="20" spans="1:10" ht="28">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6854,7 +6853,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="42" hidden="1">
+    <row r="21" spans="1:10" ht="42">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6880,7 +6879,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6906,7 +6905,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="42" hidden="1">
+    <row r="23" spans="1:10" ht="42">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6932,7 +6931,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="28" hidden="1">
+    <row r="24" spans="1:10" ht="28">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6958,7 +6957,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6984,7 +6983,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="42" hidden="1">
+    <row r="26" spans="1:10" ht="42">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7010,7 +7009,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="42" hidden="1">
+    <row r="27" spans="1:10" ht="42">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7036,7 +7035,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="42" hidden="1">
+    <row r="28" spans="1:10" ht="42">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7062,7 +7061,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="28" hidden="1">
+    <row r="29" spans="1:10" ht="28">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7088,7 +7087,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="28" hidden="1">
+    <row r="30" spans="1:10" ht="28">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7114,7 +7113,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="28" hidden="1">
+    <row r="31" spans="1:10" ht="28">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7140,7 +7139,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="28" hidden="1">
+    <row r="32" spans="1:10" ht="28">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7166,7 +7165,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>1</v>
       </c>
@@ -7192,7 +7191,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>2</v>
       </c>
@@ -7218,7 +7217,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="42" hidden="1">
+    <row r="35" spans="1:10" ht="42">
       <c r="A35">
         <v>3</v>
       </c>
@@ -7244,7 +7243,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="28" hidden="1">
+    <row r="36" spans="1:10" ht="28">
       <c r="A36">
         <v>4</v>
       </c>
@@ -7270,7 +7269,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>5</v>
       </c>
@@ -7296,7 +7295,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>6</v>
       </c>
@@ -7322,7 +7321,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="28" hidden="1">
+    <row r="39" spans="1:10" ht="28">
       <c r="A39">
         <v>7</v>
       </c>
@@ -7348,7 +7347,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="28" hidden="1">
+    <row r="40" spans="1:10" ht="28">
       <c r="A40">
         <v>8</v>
       </c>
@@ -7374,7 +7373,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1">
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>9</v>
       </c>
@@ -7400,7 +7399,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="28" hidden="1">
+    <row r="42" spans="1:10" ht="28">
       <c r="A42">
         <v>10</v>
       </c>
@@ -7426,7 +7425,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1">
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>11</v>
       </c>
@@ -7452,7 +7451,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1">
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>12</v>
       </c>
@@ -7478,7 +7477,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1">
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>13</v>
       </c>
@@ -7504,7 +7503,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="28" hidden="1">
+    <row r="46" spans="1:10" ht="28">
       <c r="A46">
         <v>14</v>
       </c>
@@ -7530,7 +7529,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="28" hidden="1">
+    <row r="47" spans="1:10" ht="28">
       <c r="A47">
         <v>15</v>
       </c>
@@ -7556,7 +7555,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="28" hidden="1">
+    <row r="48" spans="1:10" ht="28">
       <c r="A48">
         <v>16</v>
       </c>
@@ -7582,7 +7581,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="28" hidden="1">
+    <row r="49" spans="1:10" ht="28">
       <c r="A49">
         <v>17</v>
       </c>
@@ -7608,7 +7607,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="28" hidden="1">
+    <row r="50" spans="1:10" ht="28">
       <c r="A50">
         <v>18</v>
       </c>
@@ -7634,7 +7633,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1">
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>19</v>
       </c>
@@ -7660,7 +7659,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1">
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>20</v>
       </c>
@@ -7686,7 +7685,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1">
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>21</v>
       </c>
@@ -7712,7 +7711,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1">
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>22</v>
       </c>
@@ -7738,7 +7737,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1">
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>23</v>
       </c>
@@ -7764,7 +7763,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1">
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>24</v>
       </c>
@@ -7790,7 +7789,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1">
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>25</v>
       </c>
@@ -7816,7 +7815,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1">
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>26</v>
       </c>
@@ -7842,7 +7841,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1">
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>27</v>
       </c>
@@ -7868,7 +7867,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1">
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>28</v>
       </c>
@@ -7894,7 +7893,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="42" hidden="1">
+    <row r="61" spans="1:10" ht="42">
       <c r="A61">
         <v>29</v>
       </c>
@@ -7920,7 +7919,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="28" hidden="1">
+    <row r="62" spans="1:10" ht="28">
       <c r="A62">
         <v>30</v>
       </c>
@@ -7946,7 +7945,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="42" hidden="1">
+    <row r="63" spans="1:10" ht="42">
       <c r="A63">
         <v>1</v>
       </c>
@@ -7972,7 +7971,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="28" hidden="1">
+    <row r="64" spans="1:10" ht="28">
       <c r="A64">
         <v>2</v>
       </c>
@@ -7998,7 +7997,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1">
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>3</v>
       </c>
@@ -8024,7 +8023,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="28" hidden="1">
+    <row r="66" spans="1:10" ht="28">
       <c r="A66">
         <v>4</v>
       </c>
@@ -8050,7 +8049,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1">
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>5</v>
       </c>
@@ -8076,7 +8075,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1">
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>6</v>
       </c>
@@ -8102,7 +8101,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="28" hidden="1">
+    <row r="69" spans="1:10" ht="28">
       <c r="A69">
         <v>7</v>
       </c>
@@ -8128,7 +8127,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1">
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>8</v>
       </c>
@@ -8154,7 +8153,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1">
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>9</v>
       </c>
@@ -8180,7 +8179,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1">
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>10</v>
       </c>
@@ -8206,7 +8205,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1">
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>11</v>
       </c>
@@ -8232,7 +8231,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="70" hidden="1">
+    <row r="74" spans="1:10" ht="70">
       <c r="A74">
         <v>12</v>
       </c>
@@ -8258,7 +8257,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="28" hidden="1">
+    <row r="75" spans="1:10" ht="28">
       <c r="A75">
         <v>13</v>
       </c>
@@ -8284,7 +8283,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1">
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>14</v>
       </c>
@@ -8310,7 +8309,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="28" hidden="1">
+    <row r="77" spans="1:10" ht="28">
       <c r="A77">
         <v>15</v>
       </c>
@@ -8336,7 +8335,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="28" hidden="1">
+    <row r="78" spans="1:10" ht="28">
       <c r="A78">
         <v>16</v>
       </c>
@@ -8362,7 +8361,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="28" hidden="1">
+    <row r="79" spans="1:10" ht="28">
       <c r="A79">
         <v>17</v>
       </c>
@@ -8388,7 +8387,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="28" hidden="1">
+    <row r="80" spans="1:10" ht="28">
       <c r="A80">
         <v>18</v>
       </c>
@@ -8414,7 +8413,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1">
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>19</v>
       </c>
@@ -8440,7 +8439,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="28" hidden="1">
+    <row r="82" spans="1:10" ht="28">
       <c r="A82">
         <v>20</v>
       </c>
@@ -8466,7 +8465,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1">
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>21</v>
       </c>
@@ -8492,7 +8491,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1">
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>22</v>
       </c>
@@ -8518,7 +8517,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1">
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>23</v>
       </c>
@@ -8544,7 +8543,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1">
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>24</v>
       </c>
@@ -8570,7 +8569,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1">
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>25</v>
       </c>
@@ -8596,7 +8595,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1">
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>26</v>
       </c>
@@ -8622,7 +8621,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1">
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>27</v>
       </c>
@@ -8648,7 +8647,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1">
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>28</v>
       </c>
@@ -8674,7 +8673,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1">
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>29</v>
       </c>
@@ -8700,7 +8699,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1">
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>30</v>
       </c>
@@ -8726,7 +8725,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="28" hidden="1">
+    <row r="93" spans="1:10" ht="28">
       <c r="A93">
         <v>31</v>
       </c>
@@ -8752,7 +8751,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="28" hidden="1">
+    <row r="94" spans="1:10" ht="28">
       <c r="A94">
         <v>32</v>
       </c>
@@ -8778,7 +8777,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="42" hidden="1">
+    <row r="95" spans="1:10" ht="42">
       <c r="A95">
         <v>33</v>
       </c>
@@ -8804,7 +8803,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="28" hidden="1">
+    <row r="96" spans="1:10" ht="28">
       <c r="A96">
         <v>34</v>
       </c>
@@ -8830,7 +8829,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1">
+    <row r="97" spans="1:10">
       <c r="A97">
         <v>35</v>
       </c>
@@ -8856,7 +8855,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1">
+    <row r="98" spans="1:10">
       <c r="A98">
         <v>36</v>
       </c>
@@ -8882,7 +8881,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1">
+    <row r="99" spans="1:10">
       <c r="A99">
         <v>37</v>
       </c>
@@ -8908,7 +8907,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="56" hidden="1">
+    <row r="100" spans="1:10" ht="56">
       <c r="A100">
         <v>1</v>
       </c>
@@ -8934,7 +8933,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="28" hidden="1">
+    <row r="101" spans="1:10" ht="28">
       <c r="A101">
         <v>1</v>
       </c>
@@ -8960,7 +8959,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1">
+    <row r="102" spans="1:10">
       <c r="A102">
         <v>2</v>
       </c>
@@ -8986,7 +8985,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="42" hidden="1">
+    <row r="103" spans="1:10" ht="42">
       <c r="A103">
         <v>3</v>
       </c>
@@ -9012,7 +9011,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="28" hidden="1">
+    <row r="104" spans="1:10" ht="28">
       <c r="A104">
         <v>4</v>
       </c>
@@ -9038,7 +9037,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1">
+    <row r="105" spans="1:10">
       <c r="A105">
         <v>5</v>
       </c>
@@ -9064,7 +9063,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1">
+    <row r="106" spans="1:10">
       <c r="A106">
         <v>6</v>
       </c>
@@ -9090,7 +9089,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="28" hidden="1">
+    <row r="107" spans="1:10" ht="28">
       <c r="A107">
         <v>7</v>
       </c>
@@ -9116,7 +9115,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="28" hidden="1">
+    <row r="108" spans="1:10" ht="28">
       <c r="A108">
         <v>8</v>
       </c>
@@ -9142,7 +9141,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1">
+    <row r="109" spans="1:10">
       <c r="A109">
         <v>9</v>
       </c>
@@ -9168,7 +9167,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1">
+    <row r="110" spans="1:10">
       <c r="A110">
         <v>10</v>
       </c>
@@ -9194,7 +9193,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1">
+    <row r="111" spans="1:10">
       <c r="A111">
         <v>11</v>
       </c>
@@ -9220,7 +9219,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1">
+    <row r="112" spans="1:10">
       <c r="A112">
         <v>12</v>
       </c>
@@ -9246,7 +9245,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1">
+    <row r="113" spans="1:11">
       <c r="A113">
         <v>13</v>
       </c>
@@ -9272,7 +9271,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="28" hidden="1">
+    <row r="114" spans="1:11" ht="28">
       <c r="A114">
         <v>14</v>
       </c>
@@ -9298,7 +9297,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1">
+    <row r="115" spans="1:11">
       <c r="A115">
         <v>15</v>
       </c>
@@ -9324,7 +9323,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1">
+    <row r="116" spans="1:11">
       <c r="A116">
         <v>16</v>
       </c>
@@ -9350,7 +9349,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1">
+    <row r="117" spans="1:11">
       <c r="A117">
         <v>17</v>
       </c>
@@ -9376,7 +9375,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1">
+    <row r="118" spans="1:11">
       <c r="A118">
         <v>18</v>
       </c>
@@ -9402,7 +9401,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="28" hidden="1">
+    <row r="119" spans="1:11" ht="28">
       <c r="A119">
         <v>19</v>
       </c>
@@ -9428,7 +9427,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1">
+    <row r="120" spans="1:11">
       <c r="A120">
         <v>20</v>
       </c>
@@ -9454,7 +9453,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1">
+    <row r="121" spans="1:11">
       <c r="A121">
         <v>21</v>
       </c>
@@ -9480,7 +9479,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1">
+    <row r="122" spans="1:11">
       <c r="A122">
         <v>22</v>
       </c>
@@ -9506,7 +9505,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="28" hidden="1">
+    <row r="123" spans="1:11" ht="28">
       <c r="A123">
         <v>23</v>
       </c>
@@ -9532,7 +9531,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1">
+    <row r="124" spans="1:11">
       <c r="A124">
         <v>24</v>
       </c>
@@ -9558,7 +9557,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1">
+    <row r="125" spans="1:11">
       <c r="A125">
         <v>25</v>
       </c>
@@ -9584,7 +9583,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="28" hidden="1">
+    <row r="126" spans="1:11" ht="28">
       <c r="A126">
         <v>26</v>
       </c>
@@ -9610,7 +9609,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1">
+    <row r="127" spans="1:11">
       <c r="A127">
         <v>1</v>
       </c>
@@ -9642,7 +9641,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1">
+    <row r="128" spans="1:11">
       <c r="A128">
         <v>2</v>
       </c>
@@ -9674,7 +9673,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="28" hidden="1">
+    <row r="129" spans="1:11" ht="28">
       <c r="A129">
         <v>3</v>
       </c>
@@ -9706,7 +9705,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="28" hidden="1">
+    <row r="130" spans="1:11" ht="28">
       <c r="A130">
         <v>4</v>
       </c>
@@ -9738,7 +9737,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1">
+    <row r="131" spans="1:11">
       <c r="A131">
         <v>5</v>
       </c>
@@ -9770,7 +9769,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1">
+    <row r="132" spans="1:11">
       <c r="A132">
         <v>6</v>
       </c>
@@ -9802,7 +9801,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="28" hidden="1">
+    <row r="133" spans="1:11" ht="28">
       <c r="A133">
         <v>7</v>
       </c>
@@ -9834,7 +9833,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1">
+    <row r="134" spans="1:11">
       <c r="A134">
         <v>8</v>
       </c>
@@ -9866,7 +9865,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1">
+    <row r="135" spans="1:11">
       <c r="A135">
         <v>9</v>
       </c>
@@ -9898,7 +9897,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="42" hidden="1">
+    <row r="136" spans="1:11" ht="42">
       <c r="A136">
         <v>10</v>
       </c>
@@ -9930,7 +9929,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1">
+    <row r="137" spans="1:11">
       <c r="A137">
         <v>11</v>
       </c>
@@ -9962,7 +9961,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1">
+    <row r="138" spans="1:11">
       <c r="A138">
         <v>12</v>
       </c>
@@ -10029,7 +10028,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="42" hidden="1">
+    <row r="140" spans="1:11" ht="42">
       <c r="A140">
         <v>14</v>
       </c>
@@ -10201,7 +10200,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="42" hidden="1">
+    <row r="145" spans="1:11" ht="42">
       <c r="A145">
         <v>19</v>
       </c>
@@ -10233,7 +10232,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="42" hidden="1">
+    <row r="146" spans="1:11" ht="42">
       <c r="A146">
         <v>20</v>
       </c>
@@ -10265,7 +10264,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="28" hidden="1">
+    <row r="147" spans="1:11" ht="28">
       <c r="A147">
         <v>21</v>
       </c>
@@ -10297,7 +10296,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="28" hidden="1">
+    <row r="148" spans="1:11" ht="28">
       <c r="A148">
         <v>22</v>
       </c>
@@ -10679,7 +10678,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="56" hidden="1">
+    <row r="159" spans="1:11" ht="56">
       <c r="A159">
         <v>33</v>
       </c>
@@ -10775,7 +10774,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1">
+    <row r="162" spans="1:11">
       <c r="A162">
         <v>36</v>
       </c>
@@ -10807,7 +10806,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1">
+    <row r="163" spans="1:11">
       <c r="A163">
         <v>37</v>
       </c>
@@ -10944,7 +10943,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="28" hidden="1">
+    <row r="167" spans="1:11" ht="28">
       <c r="A167">
         <v>41</v>
       </c>
@@ -10976,7 +10975,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1">
+    <row r="168" spans="1:11">
       <c r="A168">
         <v>1</v>
       </c>
@@ -11008,7 +11007,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1">
+    <row r="169" spans="1:11">
       <c r="A169">
         <v>2</v>
       </c>
@@ -11040,7 +11039,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="28" hidden="1">
+    <row r="170" spans="1:11" ht="28">
       <c r="A170">
         <v>3</v>
       </c>
@@ -11072,7 +11071,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="28" hidden="1">
+    <row r="171" spans="1:11" ht="28">
       <c r="A171">
         <v>4</v>
       </c>
@@ -11104,7 +11103,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1">
+    <row r="172" spans="1:11">
       <c r="A172">
         <v>5</v>
       </c>
@@ -11136,7 +11135,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1">
+    <row r="173" spans="1:11">
       <c r="A173">
         <v>6</v>
       </c>
@@ -11168,7 +11167,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="28" hidden="1">
+    <row r="174" spans="1:11" ht="28">
       <c r="A174">
         <v>7</v>
       </c>
@@ -11200,7 +11199,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="42" hidden="1">
+    <row r="175" spans="1:11" ht="42">
       <c r="A175">
         <v>8</v>
       </c>
@@ -11302,7 +11301,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1">
+    <row r="178" spans="1:11">
       <c r="A178">
         <v>11</v>
       </c>
@@ -11334,7 +11333,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="28" hidden="1">
+    <row r="179" spans="1:11" ht="28">
       <c r="A179">
         <v>12</v>
       </c>
@@ -11430,7 +11429,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1">
+    <row r="182" spans="1:11">
       <c r="A182">
         <v>15</v>
       </c>
@@ -11462,7 +11461,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1">
+    <row r="183" spans="1:11">
       <c r="A183">
         <v>1</v>
       </c>
@@ -11494,7 +11493,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1">
+    <row r="184" spans="1:11">
       <c r="A184">
         <v>2</v>
       </c>
@@ -11526,7 +11525,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="28" hidden="1">
+    <row r="185" spans="1:11" ht="28">
       <c r="A185">
         <v>3</v>
       </c>
@@ -11558,7 +11557,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="28" hidden="1">
+    <row r="186" spans="1:11" ht="28">
       <c r="A186">
         <v>4</v>
       </c>
@@ -11590,7 +11589,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1">
+    <row r="187" spans="1:11">
       <c r="A187">
         <v>5</v>
       </c>
@@ -11622,7 +11621,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1">
+    <row r="188" spans="1:11">
       <c r="A188">
         <v>6</v>
       </c>
@@ -11654,7 +11653,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="28" hidden="1">
+    <row r="189" spans="1:11" ht="28">
       <c r="A189">
         <v>7</v>
       </c>
@@ -11686,7 +11685,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1">
+    <row r="190" spans="1:11">
       <c r="A190">
         <v>8</v>
       </c>
@@ -11718,7 +11717,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1">
+    <row r="191" spans="1:11">
       <c r="A191">
         <v>9</v>
       </c>
@@ -11750,7 +11749,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="42" hidden="1">
+    <row r="192" spans="1:11" ht="42">
       <c r="A192">
         <v>10</v>
       </c>
@@ -11782,7 +11781,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1">
+    <row r="193" spans="1:11">
       <c r="A193">
         <v>11</v>
       </c>
@@ -11814,7 +11813,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1">
+    <row r="194" spans="1:11">
       <c r="A194">
         <v>12</v>
       </c>
@@ -11951,7 +11950,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="28" hidden="1">
+    <row r="198" spans="1:11" ht="28">
       <c r="A198">
         <v>16</v>
       </c>
@@ -11983,7 +11982,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="56" hidden="1">
+    <row r="199" spans="1:11" ht="56">
       <c r="A199">
         <v>17</v>
       </c>
@@ -12111,7 +12110,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="42" hidden="1">
+    <row r="203" spans="1:11" ht="42">
       <c r="A203">
         <v>21</v>
       </c>
@@ -12213,7 +12212,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="28" hidden="1">
+    <row r="206" spans="1:11" ht="28">
       <c r="A206">
         <v>24</v>
       </c>
@@ -12245,7 +12244,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1">
+    <row r="207" spans="1:11">
       <c r="A207">
         <v>1</v>
       </c>
@@ -12277,7 +12276,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1">
+    <row r="208" spans="1:11">
       <c r="A208">
         <v>2</v>
       </c>
@@ -12309,7 +12308,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="28" hidden="1">
+    <row r="209" spans="1:11" ht="28">
       <c r="A209">
         <v>3</v>
       </c>
@@ -12341,7 +12340,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="28" hidden="1">
+    <row r="210" spans="1:11" ht="28">
       <c r="A210">
         <v>4</v>
       </c>
@@ -12373,7 +12372,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1">
+    <row r="211" spans="1:11">
       <c r="A211">
         <v>5</v>
       </c>
@@ -12405,7 +12404,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="28" hidden="1">
+    <row r="212" spans="1:11" ht="28">
       <c r="A212">
         <v>6</v>
       </c>
@@ -12437,7 +12436,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="42" hidden="1">
+    <row r="213" spans="1:11" ht="42">
       <c r="A213">
         <v>7</v>
       </c>
@@ -12469,7 +12468,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="42" hidden="1">
+    <row r="214" spans="1:11" ht="42">
       <c r="A214">
         <v>8</v>
       </c>
@@ -12501,7 +12500,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1">
+    <row r="215" spans="1:11">
       <c r="A215">
         <v>9</v>
       </c>
@@ -12533,7 +12532,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1">
+    <row r="216" spans="1:11">
       <c r="A216">
         <v>10</v>
       </c>
@@ -12565,7 +12564,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="28" hidden="1">
+    <row r="217" spans="1:11" ht="28">
       <c r="A217">
         <v>11</v>
       </c>
@@ -12667,7 +12666,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1">
+    <row r="220" spans="1:11">
       <c r="A220">
         <v>1</v>
       </c>
@@ -12699,7 +12698,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1">
+    <row r="221" spans="1:11">
       <c r="A221">
         <v>2</v>
       </c>
@@ -12731,7 +12730,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="28" hidden="1">
+    <row r="222" spans="1:11" ht="28">
       <c r="A222">
         <v>3</v>
       </c>
@@ -12763,7 +12762,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="28" hidden="1">
+    <row r="223" spans="1:11" ht="28">
       <c r="A223">
         <v>4</v>
       </c>
@@ -12795,7 +12794,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1">
+    <row r="224" spans="1:11">
       <c r="A224">
         <v>5</v>
       </c>
@@ -12827,7 +12826,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1">
+    <row r="225" spans="1:11">
       <c r="A225">
         <v>6</v>
       </c>
@@ -12859,7 +12858,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="28" hidden="1">
+    <row r="226" spans="1:11" ht="28">
       <c r="A226">
         <v>7</v>
       </c>
@@ -12891,7 +12890,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1">
+    <row r="227" spans="1:11">
       <c r="A227">
         <v>8</v>
       </c>
@@ -12923,7 +12922,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="28" hidden="1">
+    <row r="228" spans="1:11" ht="28">
       <c r="A228">
         <v>9</v>
       </c>
@@ -12955,7 +12954,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1">
+    <row r="229" spans="1:11">
       <c r="A229">
         <v>10</v>
       </c>
@@ -12987,7 +12986,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1">
+    <row r="230" spans="1:11">
       <c r="A230">
         <v>11</v>
       </c>
@@ -13124,7 +13123,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="28" hidden="1">
+    <row r="234" spans="1:11" ht="28">
       <c r="A234">
         <v>15</v>
       </c>
@@ -13156,7 +13155,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="56" hidden="1">
+    <row r="235" spans="1:11" ht="56">
       <c r="A235">
         <v>16</v>
       </c>
@@ -13188,7 +13187,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1">
+    <row r="236" spans="1:11">
       <c r="A236">
         <v>17</v>
       </c>
@@ -13316,7 +13315,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="42" hidden="1">
+    <row r="240" spans="1:11" ht="42">
       <c r="A240">
         <v>21</v>
       </c>
@@ -13453,7 +13452,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="28" hidden="1">
+    <row r="244" spans="1:11" ht="28">
       <c r="A244">
         <v>25</v>
       </c>
@@ -13520,7 +13519,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="28" hidden="1">
+    <row r="246" spans="1:11" ht="28">
       <c r="A246">
         <v>27</v>
       </c>
@@ -13552,7 +13551,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1">
+    <row r="247" spans="1:11">
       <c r="A247">
         <v>1</v>
       </c>
@@ -13584,7 +13583,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1">
+    <row r="248" spans="1:11">
       <c r="A248">
         <v>2</v>
       </c>
@@ -13616,7 +13615,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="28" hidden="1">
+    <row r="249" spans="1:11" ht="28">
       <c r="A249">
         <v>3</v>
       </c>
@@ -13648,7 +13647,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="28" hidden="1">
+    <row r="250" spans="1:11" ht="28">
       <c r="A250">
         <v>4</v>
       </c>
@@ -13680,7 +13679,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1">
+    <row r="251" spans="1:11">
       <c r="A251">
         <v>5</v>
       </c>
@@ -13712,7 +13711,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1">
+    <row r="252" spans="1:11">
       <c r="A252">
         <v>6</v>
       </c>
@@ -13744,7 +13743,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="28" hidden="1">
+    <row r="253" spans="1:11" ht="28">
       <c r="A253">
         <v>7</v>
       </c>
@@ -13846,7 +13845,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1">
+    <row r="256" spans="1:11">
       <c r="A256">
         <v>10</v>
       </c>
@@ -13878,7 +13877,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1">
+    <row r="257" spans="1:11">
       <c r="A257">
         <v>11</v>
       </c>
@@ -13945,7 +13944,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="42" hidden="1">
+    <row r="259" spans="1:11" ht="42">
       <c r="A259">
         <v>13</v>
       </c>
@@ -14047,7 +14046,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="28" hidden="1">
+    <row r="262" spans="1:11" ht="28">
       <c r="A262">
         <v>16</v>
       </c>
@@ -14149,7 +14148,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="28" hidden="1">
+    <row r="265" spans="1:11" ht="28">
       <c r="A265">
         <v>19</v>
       </c>
@@ -14181,7 +14180,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1">
+    <row r="266" spans="1:11">
       <c r="A266">
         <v>20</v>
       </c>
@@ -14213,7 +14212,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1">
+    <row r="267" spans="1:11">
       <c r="A267">
         <v>21</v>
       </c>
@@ -14385,7 +14384,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="42" hidden="1">
+    <row r="272" spans="1:11" ht="42">
       <c r="A272">
         <v>26</v>
       </c>
@@ -14417,7 +14416,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1">
+    <row r="273" spans="1:11">
       <c r="A273">
         <v>27</v>
       </c>
@@ -14449,7 +14448,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="28" hidden="1">
+    <row r="274" spans="1:11" ht="28">
       <c r="A274">
         <v>28</v>
       </c>
@@ -14481,7 +14480,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1">
+    <row r="275" spans="1:11">
       <c r="A275">
         <v>29</v>
       </c>
@@ -14548,7 +14547,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="28" hidden="1">
+    <row r="277" spans="1:11" ht="28">
       <c r="A277">
         <v>31</v>
       </c>
@@ -14580,7 +14579,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="42" hidden="1">
+    <row r="278" spans="1:11" ht="42">
       <c r="A278">
         <v>32</v>
       </c>
@@ -14612,7 +14611,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1">
+    <row r="279" spans="1:11">
       <c r="A279">
         <v>33</v>
       </c>
@@ -14679,7 +14678,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="28" hidden="1">
+    <row r="281" spans="1:11" ht="28">
       <c r="A281">
         <v>35</v>
       </c>
@@ -14746,7 +14745,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1">
+    <row r="283" spans="1:11">
       <c r="A283">
         <v>1</v>
       </c>
@@ -14778,7 +14777,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1">
+    <row r="284" spans="1:11">
       <c r="A284">
         <v>2</v>
       </c>
@@ -14810,7 +14809,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="28" hidden="1">
+    <row r="285" spans="1:11" ht="28">
       <c r="A285">
         <v>3</v>
       </c>
@@ -14842,7 +14841,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="28" hidden="1">
+    <row r="286" spans="1:11" ht="28">
       <c r="A286">
         <v>4</v>
       </c>
@@ -14874,7 +14873,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="28" hidden="1">
+    <row r="287" spans="1:11" ht="28">
       <c r="A287">
         <v>5</v>
       </c>
@@ -14906,7 +14905,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="42" hidden="1">
+    <row r="288" spans="1:11" ht="42">
       <c r="A288">
         <v>6</v>
       </c>
@@ -14938,7 +14937,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="28" hidden="1">
+    <row r="289" spans="1:11" ht="28">
       <c r="A289">
         <v>7</v>
       </c>
@@ -15005,7 +15004,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="28" hidden="1">
+    <row r="291" spans="1:11" ht="28">
       <c r="A291">
         <v>9</v>
       </c>
@@ -15107,7 +15106,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1">
+    <row r="294" spans="1:11">
       <c r="A294">
         <v>12</v>
       </c>
@@ -15139,7 +15138,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="28" hidden="1">
+    <row r="295" spans="1:11" ht="28">
       <c r="A295">
         <v>13</v>
       </c>
@@ -15171,7 +15170,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1">
+    <row r="296" spans="1:11">
       <c r="A296">
         <v>14</v>
       </c>
@@ -15235,7 +15234,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="42" hidden="1">
+    <row r="298" spans="1:11" ht="42">
       <c r="A298">
         <v>16</v>
       </c>
@@ -15267,7 +15266,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1">
+    <row r="299" spans="1:11">
       <c r="A299">
         <v>1</v>
       </c>
@@ -15299,7 +15298,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1">
+    <row r="300" spans="1:11">
       <c r="A300">
         <v>2</v>
       </c>
@@ -15331,7 +15330,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="28" hidden="1">
+    <row r="301" spans="1:11" ht="28">
       <c r="A301">
         <v>3</v>
       </c>
@@ -15363,7 +15362,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="28" hidden="1">
+    <row r="302" spans="1:11" ht="28">
       <c r="A302">
         <v>4</v>
       </c>
@@ -15395,7 +15394,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1">
+    <row r="303" spans="1:11">
       <c r="A303">
         <v>5</v>
       </c>
@@ -15427,7 +15426,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1">
+    <row r="304" spans="1:11">
       <c r="A304">
         <v>6</v>
       </c>
@@ -15459,7 +15458,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="28" hidden="1">
+    <row r="305" spans="1:11" ht="28">
       <c r="A305">
         <v>7</v>
       </c>
@@ -15561,7 +15560,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="28" hidden="1">
+    <row r="308" spans="1:11" ht="28">
       <c r="A308">
         <v>10</v>
       </c>
@@ -15593,7 +15592,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="28" hidden="1">
+    <row r="309" spans="1:11" ht="28">
       <c r="A309">
         <v>11</v>
       </c>
@@ -15625,7 +15624,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="310" spans="1:11" hidden="1">
+    <row r="310" spans="1:11">
       <c r="A310">
         <v>12</v>
       </c>
@@ -15692,7 +15691,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="28" hidden="1">
+    <row r="312" spans="1:11" ht="28">
       <c r="A312">
         <v>14</v>
       </c>
@@ -15724,7 +15723,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="28" hidden="1">
+    <row r="313" spans="1:11" ht="28">
       <c r="A313">
         <v>15</v>
       </c>
@@ -15756,7 +15755,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="70" hidden="1">
+    <row r="314" spans="1:11" ht="70">
       <c r="A314">
         <v>16</v>
       </c>
@@ -15788,7 +15787,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="28" hidden="1">
+    <row r="315" spans="1:11" ht="28">
       <c r="A315">
         <v>17</v>
       </c>
@@ -15855,7 +15854,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="28" hidden="1">
+    <row r="317" spans="1:11" ht="28">
       <c r="A317">
         <v>19</v>
       </c>
@@ -15887,7 +15886,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="28" hidden="1">
+    <row r="318" spans="1:11" ht="28">
       <c r="A318">
         <v>20</v>
       </c>
@@ -15919,7 +15918,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="28" hidden="1">
+    <row r="319" spans="1:11" ht="28">
       <c r="A319">
         <v>21</v>
       </c>
@@ -15951,7 +15950,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="56" hidden="1">
+    <row r="320" spans="1:11" ht="56">
       <c r="A320">
         <v>22</v>
       </c>
@@ -16018,7 +16017,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="28" hidden="1">
+    <row r="322" spans="1:11" ht="28">
       <c r="A322">
         <v>24</v>
       </c>
@@ -16050,7 +16049,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1">
+    <row r="323" spans="1:11">
       <c r="A323">
         <v>25</v>
       </c>
@@ -16082,7 +16081,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="324" spans="1:11" ht="28" hidden="1">
+    <row r="324" spans="1:11" ht="28">
       <c r="A324">
         <v>26</v>
       </c>
@@ -16114,7 +16113,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1">
+    <row r="325" spans="1:11">
       <c r="A325">
         <v>27</v>
       </c>
@@ -16146,7 +16145,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1">
+    <row r="326" spans="1:11">
       <c r="A326">
         <v>28</v>
       </c>
@@ -16178,7 +16177,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1">
+    <row r="327" spans="1:11">
       <c r="A327">
         <v>29</v>
       </c>
@@ -16315,7 +16314,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="28" hidden="1">
+    <row r="331" spans="1:11" ht="28">
       <c r="A331">
         <v>33</v>
       </c>
@@ -16347,7 +16346,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="28" hidden="1">
+    <row r="332" spans="1:11" ht="28">
       <c r="A332">
         <v>34</v>
       </c>
@@ -16379,7 +16378,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="333" spans="1:11" hidden="1">
+    <row r="333" spans="1:11">
       <c r="A333">
         <v>35</v>
       </c>
@@ -16411,7 +16410,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="28" hidden="1">
+    <row r="334" spans="1:11" ht="28">
       <c r="A334">
         <v>36</v>
       </c>
@@ -16443,7 +16442,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="335" spans="1:11" hidden="1">
+    <row r="335" spans="1:11">
       <c r="A335">
         <v>37</v>
       </c>
@@ -16539,7 +16538,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="42" hidden="1">
+    <row r="338" spans="1:11" ht="42">
       <c r="A338">
         <v>40</v>
       </c>
@@ -16571,7 +16570,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="42" hidden="1">
+    <row r="339" spans="1:11" ht="42">
       <c r="A339">
         <v>41</v>
       </c>
@@ -16603,7 +16602,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="340" spans="1:11" hidden="1">
+    <row r="340" spans="1:11">
       <c r="A340">
         <v>42</v>
       </c>
@@ -16670,7 +16669,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="28" hidden="1">
+    <row r="342" spans="1:11" ht="28">
       <c r="A342">
         <v>44</v>
       </c>
@@ -16737,7 +16736,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="344" spans="1:11" hidden="1">
+    <row r="344" spans="1:11">
       <c r="A344">
         <v>1</v>
       </c>
@@ -16769,7 +16768,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="345" spans="1:11" hidden="1">
+    <row r="345" spans="1:11">
       <c r="A345">
         <v>2</v>
       </c>
@@ -16801,7 +16800,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="28" hidden="1">
+    <row r="346" spans="1:11" ht="28">
       <c r="A346">
         <v>3</v>
       </c>
@@ -16833,7 +16832,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="28" hidden="1">
+    <row r="347" spans="1:11" ht="28">
       <c r="A347">
         <v>4</v>
       </c>
@@ -16865,7 +16864,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="348" spans="1:11" hidden="1">
+    <row r="348" spans="1:11">
       <c r="A348">
         <v>5</v>
       </c>
@@ -16897,7 +16896,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="28" hidden="1">
+    <row r="349" spans="1:11" ht="28">
       <c r="A349">
         <v>6</v>
       </c>
@@ -16929,7 +16928,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="56" hidden="1">
+    <row r="350" spans="1:11" ht="56">
       <c r="A350">
         <v>7</v>
       </c>
@@ -16961,7 +16960,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="351" spans="1:11" ht="28" hidden="1">
+    <row r="351" spans="1:11" ht="28">
       <c r="A351">
         <v>8</v>
       </c>
@@ -16993,7 +16992,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="352" spans="1:11" hidden="1">
+    <row r="352" spans="1:11">
       <c r="A352">
         <v>9</v>
       </c>
@@ -17025,7 +17024,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1">
+    <row r="353" spans="1:11">
       <c r="A353">
         <v>10</v>
       </c>
@@ -17057,7 +17056,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="354" spans="1:11" hidden="1">
+    <row r="354" spans="1:11">
       <c r="A354">
         <v>11</v>
       </c>
@@ -17089,7 +17088,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="355" spans="1:11" ht="28" hidden="1">
+    <row r="355" spans="1:11" ht="28">
       <c r="A355">
         <v>12</v>
       </c>
@@ -17121,7 +17120,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="356" spans="1:11" ht="42" hidden="1">
+    <row r="356" spans="1:11" ht="42">
       <c r="A356">
         <v>13</v>
       </c>
@@ -17188,7 +17187,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="358" spans="1:11" ht="42" hidden="1">
+    <row r="358" spans="1:11" ht="42">
       <c r="A358">
         <v>15</v>
       </c>
@@ -17255,7 +17254,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="360" spans="1:11" ht="28" hidden="1">
+    <row r="360" spans="1:11" ht="28">
       <c r="A360">
         <v>17</v>
       </c>
@@ -17322,7 +17321,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="362" spans="1:11" hidden="1">
+    <row r="362" spans="1:11">
       <c r="A362">
         <v>19</v>
       </c>
@@ -17354,7 +17353,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="363" spans="1:11" ht="42" hidden="1">
+    <row r="363" spans="1:11" ht="42">
       <c r="A363">
         <v>20</v>
       </c>
@@ -17386,7 +17385,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="364" spans="1:11" hidden="1">
+    <row r="364" spans="1:11">
       <c r="A364">
         <v>21</v>
       </c>
@@ -17418,7 +17417,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="365" spans="1:11" ht="28" hidden="1">
+    <row r="365" spans="1:11" ht="28">
       <c r="A365">
         <v>22</v>
       </c>
@@ -17450,7 +17449,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="366" spans="1:11" hidden="1">
+    <row r="366" spans="1:11">
       <c r="A366">
         <v>23</v>
       </c>
@@ -17514,7 +17513,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="368" spans="1:11" ht="28" hidden="1">
+    <row r="368" spans="1:11" ht="28">
       <c r="A368">
         <v>25</v>
       </c>
@@ -17546,7 +17545,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="369" spans="1:11" hidden="1">
+    <row r="369" spans="1:11">
       <c r="A369">
         <v>1</v>
       </c>
@@ -17578,7 +17577,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="370" spans="1:11" hidden="1">
+    <row r="370" spans="1:11">
       <c r="A370">
         <v>2</v>
       </c>
@@ -17610,7 +17609,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="371" spans="1:11" ht="28" hidden="1">
+    <row r="371" spans="1:11" ht="28">
       <c r="A371">
         <v>3</v>
       </c>
@@ -17642,7 +17641,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="372" spans="1:11" ht="28" hidden="1">
+    <row r="372" spans="1:11" ht="28">
       <c r="A372">
         <v>4</v>
       </c>
@@ -17674,7 +17673,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="373" spans="1:11" hidden="1">
+    <row r="373" spans="1:11">
       <c r="A373">
         <v>5</v>
       </c>
@@ -17706,7 +17705,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="374" spans="1:11" ht="28" hidden="1">
+    <row r="374" spans="1:11" ht="28">
       <c r="A374">
         <v>6</v>
       </c>
@@ -17738,7 +17737,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="375" spans="1:11" ht="56" hidden="1">
+    <row r="375" spans="1:11" ht="56">
       <c r="A375">
         <v>7</v>
       </c>
@@ -17770,7 +17769,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="376" spans="1:11" ht="28" hidden="1">
+    <row r="376" spans="1:11" ht="28">
       <c r="A376">
         <v>8</v>
       </c>
@@ -17802,7 +17801,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="377" spans="1:11" ht="28" hidden="1">
+    <row r="377" spans="1:11" ht="28">
       <c r="A377">
         <v>9</v>
       </c>
@@ -17834,7 +17833,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="378" spans="1:11" ht="28" hidden="1">
+    <row r="378" spans="1:11" ht="28">
       <c r="A378">
         <v>10</v>
       </c>
@@ -17866,7 +17865,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="379" spans="1:11" ht="56" hidden="1">
+    <row r="379" spans="1:11" ht="56">
       <c r="A379">
         <v>11</v>
       </c>
@@ -17933,7 +17932,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="381" spans="1:11" ht="98" hidden="1">
+    <row r="381" spans="1:11" ht="98">
       <c r="A381">
         <v>13</v>
       </c>
@@ -17965,7 +17964,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="382" spans="1:11" ht="28" hidden="1">
+    <row r="382" spans="1:11" ht="28">
       <c r="A382">
         <v>14</v>
       </c>
@@ -18067,7 +18066,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="385" spans="1:11" ht="28" hidden="1">
+    <row r="385" spans="1:11" ht="28">
       <c r="A385">
         <v>17</v>
       </c>
@@ -18169,7 +18168,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="388" spans="1:11" hidden="1">
+    <row r="388" spans="1:11">
       <c r="A388">
         <v>20</v>
       </c>
@@ -18201,7 +18200,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="389" spans="1:11" ht="28" hidden="1">
+    <row r="389" spans="1:11" ht="28">
       <c r="A389">
         <v>21</v>
       </c>
@@ -18233,7 +18232,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="390" spans="1:11" hidden="1">
+    <row r="390" spans="1:11">
       <c r="A390">
         <v>22</v>
       </c>
@@ -18300,7 +18299,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="392" spans="1:11" ht="28" hidden="1">
+    <row r="392" spans="1:11" ht="28">
       <c r="A392">
         <v>24</v>
       </c>
@@ -18332,7 +18331,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="393" spans="1:11" ht="28" hidden="1">
+    <row r="393" spans="1:11" ht="28">
       <c r="A393">
         <v>25</v>
       </c>
@@ -18364,7 +18363,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="394" spans="1:11" hidden="1">
+    <row r="394" spans="1:11">
       <c r="A394">
         <v>26</v>
       </c>
@@ -18431,7 +18430,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="396" spans="1:11" ht="28" hidden="1">
+    <row r="396" spans="1:11" ht="28">
       <c r="A396">
         <v>28</v>
       </c>
@@ -18533,7 +18532,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="399" spans="1:11" hidden="1">
+    <row r="399" spans="1:11">
       <c r="A399">
         <v>1</v>
       </c>
@@ -18565,7 +18564,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="400" spans="1:11" hidden="1">
+    <row r="400" spans="1:11">
       <c r="A400">
         <v>2</v>
       </c>
@@ -18597,7 +18596,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="401" spans="1:11" ht="28" hidden="1">
+    <row r="401" spans="1:11" ht="28">
       <c r="A401">
         <v>3</v>
       </c>
@@ -18629,7 +18628,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="402" spans="1:11" ht="28" hidden="1">
+    <row r="402" spans="1:11" ht="28">
       <c r="A402">
         <v>4</v>
       </c>
@@ -18661,7 +18660,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="403" spans="1:11" hidden="1">
+    <row r="403" spans="1:11">
       <c r="A403">
         <v>5</v>
       </c>
@@ -18693,7 +18692,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="28" hidden="1">
+    <row r="404" spans="1:11" ht="28">
       <c r="A404">
         <v>6</v>
       </c>
@@ -18760,7 +18759,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="406" spans="1:11" ht="28" hidden="1">
+    <row r="406" spans="1:11" ht="28">
       <c r="A406">
         <v>8</v>
       </c>
@@ -18792,7 +18791,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="407" spans="1:11" hidden="1">
+    <row r="407" spans="1:11">
       <c r="A407">
         <v>9</v>
       </c>
@@ -18824,7 +18823,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="408" spans="1:11" hidden="1">
+    <row r="408" spans="1:11">
       <c r="A408">
         <v>10</v>
       </c>
@@ -18856,7 +18855,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="409" spans="1:11" hidden="1">
+    <row r="409" spans="1:11">
       <c r="A409">
         <v>11</v>
       </c>
@@ -18923,7 +18922,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="411" spans="1:11" ht="70" hidden="1">
+    <row r="411" spans="1:11" ht="70">
       <c r="A411">
         <v>13</v>
       </c>
@@ -18955,7 +18954,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="412" spans="1:11" ht="28" hidden="1">
+    <row r="412" spans="1:11" ht="28">
       <c r="A412">
         <v>14</v>
       </c>
@@ -19057,7 +19056,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="28" hidden="1">
+    <row r="415" spans="1:11" ht="28">
       <c r="A415">
         <v>17</v>
       </c>
@@ -19121,7 +19120,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="417" spans="1:11" ht="28" hidden="1">
+    <row r="417" spans="1:11" ht="28">
       <c r="A417">
         <v>19</v>
       </c>
@@ -19153,7 +19152,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="418" spans="1:11" hidden="1">
+    <row r="418" spans="1:11">
       <c r="A418">
         <v>1</v>
       </c>
@@ -19185,7 +19184,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="419" spans="1:11" hidden="1">
+    <row r="419" spans="1:11">
       <c r="A419">
         <v>2</v>
       </c>
@@ -19217,7 +19216,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="420" spans="1:11" ht="28" hidden="1">
+    <row r="420" spans="1:11" ht="28">
       <c r="A420">
         <v>3</v>
       </c>
@@ -19249,7 +19248,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="421" spans="1:11" ht="28" hidden="1">
+    <row r="421" spans="1:11" ht="28">
       <c r="A421">
         <v>4</v>
       </c>
@@ -19281,7 +19280,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="422" spans="1:11" hidden="1">
+    <row r="422" spans="1:11">
       <c r="A422">
         <v>5</v>
       </c>
@@ -19313,7 +19312,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="423" spans="1:11" ht="28" hidden="1">
+    <row r="423" spans="1:11" ht="28">
       <c r="A423">
         <v>6</v>
       </c>
@@ -19415,7 +19414,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="426" spans="1:11" hidden="1">
+    <row r="426" spans="1:11">
       <c r="A426">
         <v>9</v>
       </c>
@@ -19447,7 +19446,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="427" spans="1:11" hidden="1">
+    <row r="427" spans="1:11">
       <c r="A427">
         <v>10</v>
       </c>
@@ -19514,7 +19513,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="429" spans="1:11" hidden="1">
+    <row r="429" spans="1:11">
       <c r="A429">
         <v>12</v>
       </c>
@@ -19581,7 +19580,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="431" spans="1:11" ht="70" hidden="1">
+    <row r="431" spans="1:11" ht="70">
       <c r="A431">
         <v>14</v>
       </c>
@@ -19613,7 +19612,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="432" spans="1:11" ht="28" hidden="1">
+    <row r="432" spans="1:11" ht="28">
       <c r="A432">
         <v>15</v>
       </c>
@@ -19715,7 +19714,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="435" spans="1:11" ht="28" hidden="1">
+    <row r="435" spans="1:11" ht="28">
       <c r="A435">
         <v>18</v>
       </c>
@@ -19852,7 +19851,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="439" spans="1:11" hidden="1">
+    <row r="439" spans="1:11">
       <c r="A439">
         <v>22</v>
       </c>
@@ -19884,7 +19883,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="440" spans="1:11" ht="28" hidden="1">
+    <row r="440" spans="1:11" ht="28">
       <c r="A440">
         <v>23</v>
       </c>
@@ -19916,7 +19915,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="441" spans="1:11" hidden="1">
+    <row r="441" spans="1:11">
       <c r="A441">
         <v>24</v>
       </c>
@@ -19980,7 +19979,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="443" spans="1:11" ht="28" hidden="1">
+    <row r="443" spans="1:11" ht="28">
       <c r="A443">
         <v>26</v>
       </c>
@@ -20012,7 +20011,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="444" spans="1:11" ht="42" hidden="1">
+    <row r="444" spans="1:11" ht="42">
       <c r="A444">
         <v>27</v>
       </c>
@@ -20044,7 +20043,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="445" spans="1:11" hidden="1">
+    <row r="445" spans="1:11">
       <c r="A445">
         <v>28</v>
       </c>
@@ -20111,7 +20110,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="447" spans="1:11" ht="28" hidden="1">
+    <row r="447" spans="1:11" ht="28">
       <c r="A447">
         <v>30</v>
       </c>
@@ -20178,7 +20177,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="449" spans="1:11" hidden="1">
+    <row r="449" spans="1:11">
       <c r="A449">
         <v>1</v>
       </c>
@@ -20210,7 +20209,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="450" spans="1:11" hidden="1">
+    <row r="450" spans="1:11">
       <c r="A450">
         <v>2</v>
       </c>
@@ -20242,7 +20241,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="451" spans="1:11" ht="28" hidden="1">
+    <row r="451" spans="1:11" ht="28">
       <c r="A451">
         <v>3</v>
       </c>
@@ -20274,7 +20273,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="452" spans="1:11" ht="28" hidden="1">
+    <row r="452" spans="1:11" ht="28">
       <c r="A452">
         <v>4</v>
       </c>
@@ -20306,7 +20305,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="453" spans="1:11" hidden="1">
+    <row r="453" spans="1:11">
       <c r="A453">
         <v>5</v>
       </c>
@@ -20338,7 +20337,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="454" spans="1:11" hidden="1">
+    <row r="454" spans="1:11">
       <c r="A454">
         <v>6</v>
       </c>
@@ -20370,7 +20369,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="455" spans="1:11" ht="42" hidden="1">
+    <row r="455" spans="1:11" ht="42">
       <c r="A455">
         <v>7</v>
       </c>
@@ -20402,7 +20401,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="456" spans="1:11" ht="42" hidden="1">
+    <row r="456" spans="1:11" ht="42">
       <c r="A456">
         <v>8</v>
       </c>
@@ -20434,7 +20433,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="457" spans="1:11" ht="42" hidden="1">
+    <row r="457" spans="1:11" ht="42">
       <c r="A457">
         <v>9</v>
       </c>
@@ -20466,7 +20465,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="458" spans="1:11" hidden="1">
+    <row r="458" spans="1:11">
       <c r="A458">
         <v>10</v>
       </c>
@@ -20498,7 +20497,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="459" spans="1:11" hidden="1">
+    <row r="459" spans="1:11">
       <c r="A459">
         <v>11</v>
       </c>
@@ -20530,7 +20529,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="460" spans="1:11" hidden="1">
+    <row r="460" spans="1:11">
       <c r="A460">
         <v>12</v>
       </c>
@@ -20597,7 +20596,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="462" spans="1:11" ht="42" hidden="1">
+    <row r="462" spans="1:11" ht="42">
       <c r="A462">
         <v>14</v>
       </c>
@@ -20629,7 +20628,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="463" spans="1:11" ht="28" hidden="1">
+    <row r="463" spans="1:11" ht="28">
       <c r="A463">
         <v>15</v>
       </c>
@@ -20731,7 +20730,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="466" spans="1:11" hidden="1">
+    <row r="466" spans="1:11">
       <c r="A466">
         <v>18</v>
       </c>
@@ -20763,7 +20762,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="467" spans="1:11" hidden="1">
+    <row r="467" spans="1:11">
       <c r="A467">
         <v>19</v>
       </c>
@@ -20795,7 +20794,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="468" spans="1:11" ht="28" hidden="1">
+    <row r="468" spans="1:11" ht="28">
       <c r="A468">
         <v>20</v>
       </c>
@@ -20827,7 +20826,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="469" spans="1:11" hidden="1">
+    <row r="469" spans="1:11">
       <c r="A469">
         <v>21</v>
       </c>
@@ -20891,7 +20890,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="471" spans="1:11" ht="28" hidden="1">
+    <row r="471" spans="1:11" ht="28">
       <c r="A471">
         <v>23</v>
       </c>
@@ -20923,7 +20922,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="472" spans="1:11" hidden="1">
+    <row r="472" spans="1:11">
       <c r="A472">
         <v>1</v>
       </c>
@@ -20955,7 +20954,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="473" spans="1:11" hidden="1">
+    <row r="473" spans="1:11">
       <c r="A473">
         <v>2</v>
       </c>
@@ -20987,7 +20986,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="474" spans="1:11" ht="28" hidden="1">
+    <row r="474" spans="1:11" ht="28">
       <c r="A474">
         <v>3</v>
       </c>
@@ -21019,7 +21018,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="475" spans="1:11" ht="28" hidden="1">
+    <row r="475" spans="1:11" ht="28">
       <c r="A475">
         <v>4</v>
       </c>
@@ -21051,7 +21050,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="476" spans="1:11" ht="28" hidden="1">
+    <row r="476" spans="1:11" ht="28">
       <c r="A476">
         <v>5</v>
       </c>
@@ -21083,7 +21082,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="477" spans="1:11" hidden="1">
+    <row r="477" spans="1:11">
       <c r="A477">
         <v>6</v>
       </c>
@@ -21115,7 +21114,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="478" spans="1:11" ht="42" hidden="1">
+    <row r="478" spans="1:11" ht="42">
       <c r="A478">
         <v>7</v>
       </c>
@@ -21147,7 +21146,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="479" spans="1:11" ht="70" hidden="1">
+    <row r="479" spans="1:11" ht="70">
       <c r="A479">
         <v>8</v>
       </c>
@@ -21179,7 +21178,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="480" spans="1:11" ht="42" hidden="1">
+    <row r="480" spans="1:11" ht="42">
       <c r="A480">
         <v>9</v>
       </c>
@@ -21211,7 +21210,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="481" spans="1:11" hidden="1">
+    <row r="481" spans="1:11">
       <c r="A481">
         <v>10</v>
       </c>
@@ -21243,7 +21242,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="482" spans="1:11" hidden="1">
+    <row r="482" spans="1:11">
       <c r="A482">
         <v>11</v>
       </c>
@@ -21275,7 +21274,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="483" spans="1:11" ht="42" hidden="1">
+    <row r="483" spans="1:11" ht="42">
       <c r="A483">
         <v>12</v>
       </c>
@@ -21342,7 +21341,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="485" spans="1:11" ht="70" hidden="1">
+    <row r="485" spans="1:11" ht="70">
       <c r="A485">
         <v>14</v>
       </c>
@@ -21374,7 +21373,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="486" spans="1:11" ht="28" hidden="1">
+    <row r="486" spans="1:11" ht="28">
       <c r="A486">
         <v>15</v>
       </c>
@@ -21441,7 +21440,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="488" spans="1:11" ht="28" hidden="1">
+    <row r="488" spans="1:11" ht="28">
       <c r="A488">
         <v>17</v>
       </c>
@@ -21508,7 +21507,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="490" spans="1:11" ht="28" hidden="1">
+    <row r="490" spans="1:11" ht="28">
       <c r="A490">
         <v>19</v>
       </c>
@@ -21540,7 +21539,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="491" spans="1:11" hidden="1">
+    <row r="491" spans="1:11">
       <c r="A491">
         <v>20</v>
       </c>
@@ -21572,7 +21571,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="492" spans="1:11" ht="28" hidden="1">
+    <row r="492" spans="1:11" ht="28">
       <c r="A492">
         <v>21</v>
       </c>
@@ -21604,7 +21603,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="493" spans="1:11" hidden="1">
+    <row r="493" spans="1:11">
       <c r="A493">
         <v>22</v>
       </c>
@@ -21636,7 +21635,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="494" spans="1:11" hidden="1">
+    <row r="494" spans="1:11">
       <c r="A494">
         <v>23</v>
       </c>
@@ -21703,7 +21702,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="496" spans="1:11" hidden="1">
+    <row r="496" spans="1:11">
       <c r="A496">
         <v>25</v>
       </c>
@@ -21805,7 +21804,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="499" spans="1:11" hidden="1">
+    <row r="499" spans="1:11">
       <c r="A499">
         <v>28</v>
       </c>
@@ -21837,7 +21836,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="500" spans="1:11" ht="28" hidden="1">
+    <row r="500" spans="1:11" ht="28">
       <c r="A500">
         <v>29</v>
       </c>
@@ -21869,7 +21868,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="501" spans="1:11" hidden="1">
+    <row r="501" spans="1:11">
       <c r="A501">
         <v>30</v>
       </c>
@@ -21933,7 +21932,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="503" spans="1:11" ht="42" hidden="1">
+    <row r="503" spans="1:11" ht="42">
       <c r="A503">
         <v>32</v>
       </c>
@@ -21965,7 +21964,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="504" spans="1:11" ht="42" hidden="1">
+    <row r="504" spans="1:11" ht="42">
       <c r="A504">
         <v>33</v>
       </c>
@@ -21997,7 +21996,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="505" spans="1:11" hidden="1">
+    <row r="505" spans="1:11">
       <c r="A505">
         <v>34</v>
       </c>
@@ -22064,7 +22063,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="507" spans="1:11" ht="28" hidden="1">
+    <row r="507" spans="1:11" ht="28">
       <c r="A507">
         <v>36</v>
       </c>
@@ -22131,7 +22130,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="509" spans="1:11" hidden="1">
+    <row r="509" spans="1:11">
       <c r="A509">
         <v>1</v>
       </c>
@@ -22163,7 +22162,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="510" spans="1:11" hidden="1">
+    <row r="510" spans="1:11">
       <c r="A510">
         <v>2</v>
       </c>
@@ -22195,7 +22194,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="511" spans="1:11" ht="28" hidden="1">
+    <row r="511" spans="1:11" ht="28">
       <c r="A511">
         <v>3</v>
       </c>
@@ -22227,7 +22226,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="512" spans="1:11" ht="28" hidden="1">
+    <row r="512" spans="1:11" ht="28">
       <c r="A512">
         <v>4</v>
       </c>
@@ -22259,7 +22258,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="513" spans="1:11" ht="28" hidden="1">
+    <row r="513" spans="1:11" ht="28">
       <c r="A513">
         <v>5</v>
       </c>
@@ -22291,7 +22290,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="514" spans="1:11" hidden="1">
+    <row r="514" spans="1:11">
       <c r="A514">
         <v>6</v>
       </c>
@@ -22323,7 +22322,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="515" spans="1:11" ht="28" hidden="1">
+    <row r="515" spans="1:11" ht="28">
       <c r="A515">
         <v>7</v>
       </c>
@@ -22355,7 +22354,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="516" spans="1:11" ht="70" hidden="1">
+    <row r="516" spans="1:11" ht="70">
       <c r="A516">
         <v>8</v>
       </c>
@@ -22387,7 +22386,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="517" spans="1:11" ht="42" hidden="1">
+    <row r="517" spans="1:11" ht="42">
       <c r="A517">
         <v>9</v>
       </c>
@@ -22419,7 +22418,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="518" spans="1:11" hidden="1">
+    <row r="518" spans="1:11">
       <c r="A518">
         <v>10</v>
       </c>
@@ -22451,7 +22450,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="519" spans="1:11" hidden="1">
+    <row r="519" spans="1:11">
       <c r="A519">
         <v>11</v>
       </c>
@@ -22483,7 +22482,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="520" spans="1:11" ht="28" hidden="1">
+    <row r="520" spans="1:11" ht="28">
       <c r="A520">
         <v>12</v>
       </c>
@@ -22550,7 +22549,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="522" spans="1:11" ht="70" hidden="1">
+    <row r="522" spans="1:11" ht="70">
       <c r="A522">
         <v>14</v>
       </c>
@@ -22582,7 +22581,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="523" spans="1:11" ht="28" hidden="1">
+    <row r="523" spans="1:11" ht="28">
       <c r="A523">
         <v>15</v>
       </c>
@@ -22649,7 +22648,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="525" spans="1:11" ht="28" hidden="1">
+    <row r="525" spans="1:11" ht="28">
       <c r="A525">
         <v>17</v>
       </c>
@@ -22716,7 +22715,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="527" spans="1:11" ht="28" hidden="1">
+    <row r="527" spans="1:11" ht="28">
       <c r="A527">
         <v>19</v>
       </c>
@@ -22748,7 +22747,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="528" spans="1:11" hidden="1">
+    <row r="528" spans="1:11">
       <c r="A528">
         <v>20</v>
       </c>
@@ -22780,7 +22779,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="529" spans="1:11" ht="28" hidden="1">
+    <row r="529" spans="1:11" ht="28">
       <c r="A529">
         <v>21</v>
       </c>
@@ -22812,7 +22811,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="530" spans="1:11" hidden="1">
+    <row r="530" spans="1:11">
       <c r="A530">
         <v>22</v>
       </c>
@@ -22914,7 +22913,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="533" spans="1:11" hidden="1">
+    <row r="533" spans="1:11">
       <c r="A533">
         <v>25</v>
       </c>
@@ -22946,7 +22945,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="534" spans="1:11" ht="28" hidden="1">
+    <row r="534" spans="1:11" ht="28">
       <c r="A534">
         <v>26</v>
       </c>
@@ -22978,7 +22977,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="535" spans="1:11" hidden="1">
+    <row r="535" spans="1:11">
       <c r="A535">
         <v>27</v>
       </c>
@@ -23042,7 +23041,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="537" spans="1:11" ht="42" hidden="1">
+    <row r="537" spans="1:11" ht="42">
       <c r="A537">
         <v>29</v>
       </c>
@@ -23074,7 +23073,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="538" spans="1:11" ht="42" hidden="1">
+    <row r="538" spans="1:11" ht="42">
       <c r="A538">
         <v>30</v>
       </c>
@@ -23106,7 +23105,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="539" spans="1:11" hidden="1">
+    <row r="539" spans="1:11">
       <c r="A539">
         <v>31</v>
       </c>
@@ -23173,7 +23172,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="541" spans="1:11" ht="28" hidden="1">
+    <row r="541" spans="1:11" ht="28">
       <c r="A541">
         <v>33</v>
       </c>
@@ -23205,7 +23204,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="542" spans="1:11" hidden="1">
+    <row r="542" spans="1:11">
       <c r="A542">
         <v>1</v>
       </c>
@@ -23237,7 +23236,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="543" spans="1:11" hidden="1">
+    <row r="543" spans="1:11">
       <c r="A543">
         <v>2</v>
       </c>
@@ -23269,7 +23268,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="544" spans="1:11" ht="28" hidden="1">
+    <row r="544" spans="1:11" ht="28">
       <c r="A544">
         <v>3</v>
       </c>
@@ -23301,7 +23300,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="545" spans="1:11" ht="28" hidden="1">
+    <row r="545" spans="1:11" ht="28">
       <c r="A545">
         <v>4</v>
       </c>
@@ -23333,7 +23332,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="546" spans="1:11" ht="28" hidden="1">
+    <row r="546" spans="1:11" ht="28">
       <c r="A546">
         <v>5</v>
       </c>
@@ -23365,7 +23364,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="547" spans="1:11" hidden="1">
+    <row r="547" spans="1:11">
       <c r="A547">
         <v>6</v>
       </c>
@@ -23397,7 +23396,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="548" spans="1:11" hidden="1">
+    <row r="548" spans="1:11">
       <c r="A548">
         <v>7</v>
       </c>
@@ -23429,7 +23428,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="549" spans="1:11" ht="56" hidden="1">
+    <row r="549" spans="1:11" ht="56">
       <c r="A549">
         <v>8</v>
       </c>
@@ -23461,7 +23460,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="550" spans="1:11" ht="42" hidden="1">
+    <row r="550" spans="1:11" ht="42">
       <c r="A550">
         <v>9</v>
       </c>
@@ -23493,7 +23492,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="551" spans="1:11" hidden="1">
+    <row r="551" spans="1:11">
       <c r="A551">
         <v>10</v>
       </c>
@@ -23525,7 +23524,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="552" spans="1:11" hidden="1">
+    <row r="552" spans="1:11">
       <c r="A552">
         <v>11</v>
       </c>
@@ -23557,7 +23556,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="553" spans="1:11" hidden="1">
+    <row r="553" spans="1:11">
       <c r="A553">
         <v>12</v>
       </c>
@@ -23624,7 +23623,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="555" spans="1:11" ht="70" hidden="1">
+    <row r="555" spans="1:11" ht="70">
       <c r="A555">
         <v>14</v>
       </c>
@@ -23656,7 +23655,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="556" spans="1:11" ht="28" hidden="1">
+    <row r="556" spans="1:11" ht="28">
       <c r="A556">
         <v>15</v>
       </c>
@@ -23758,7 +23757,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="559" spans="1:11" ht="28" hidden="1">
+    <row r="559" spans="1:11" ht="28">
       <c r="A559">
         <v>18</v>
       </c>
@@ -23790,7 +23789,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="560" spans="1:11" hidden="1">
+    <row r="560" spans="1:11">
       <c r="A560">
         <v>19</v>
       </c>
@@ -23822,7 +23821,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="561" spans="1:11" hidden="1">
+    <row r="561" spans="1:11">
       <c r="A561">
         <v>20</v>
       </c>
@@ -23854,7 +23853,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="562" spans="1:11" hidden="1">
+    <row r="562" spans="1:11">
       <c r="A562">
         <v>21</v>
       </c>
@@ -23886,7 +23885,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="563" spans="1:11" ht="42" hidden="1">
+    <row r="563" spans="1:11" ht="42">
       <c r="A563">
         <v>22</v>
       </c>
@@ -23988,7 +23987,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="566" spans="1:11" hidden="1">
+    <row r="566" spans="1:11">
       <c r="A566">
         <v>25</v>
       </c>
@@ -24020,7 +24019,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="567" spans="1:11" hidden="1">
+    <row r="567" spans="1:11">
       <c r="A567">
         <v>26</v>
       </c>
@@ -24052,7 +24051,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="568" spans="1:11" ht="28" hidden="1">
+    <row r="568" spans="1:11" ht="28">
       <c r="A568">
         <v>27</v>
       </c>
@@ -24084,7 +24083,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="569" spans="1:11" hidden="1">
+    <row r="569" spans="1:11">
       <c r="A569">
         <v>28</v>
       </c>
@@ -24186,7 +24185,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="572" spans="1:11" ht="28" hidden="1">
+    <row r="572" spans="1:11" ht="28">
       <c r="A572">
         <v>31</v>
       </c>
@@ -24218,7 +24217,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="573" spans="1:11" ht="42" hidden="1">
+    <row r="573" spans="1:11" ht="42">
       <c r="A573">
         <v>32</v>
       </c>
@@ -24250,7 +24249,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="574" spans="1:11" hidden="1">
+    <row r="574" spans="1:11">
       <c r="A574">
         <v>33</v>
       </c>
@@ -24317,7 +24316,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="576" spans="1:11" ht="28" hidden="1">
+    <row r="576" spans="1:11" ht="28">
       <c r="A576">
         <v>35</v>
       </c>
@@ -24419,7 +24418,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="579" spans="1:11" hidden="1">
+    <row r="579" spans="1:11">
       <c r="A579">
         <v>1</v>
       </c>
@@ -24451,7 +24450,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="580" spans="1:11" hidden="1">
+    <row r="580" spans="1:11">
       <c r="A580">
         <v>2</v>
       </c>
@@ -24483,7 +24482,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="581" spans="1:11" ht="28" hidden="1">
+    <row r="581" spans="1:11" ht="28">
       <c r="A581">
         <v>3</v>
       </c>
@@ -24515,7 +24514,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="582" spans="1:11" ht="28" hidden="1">
+    <row r="582" spans="1:11" ht="28">
       <c r="A582">
         <v>4</v>
       </c>
@@ -24547,7 +24546,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="583" spans="1:11" ht="28" hidden="1">
+    <row r="583" spans="1:11" ht="28">
       <c r="A583">
         <v>5</v>
       </c>
@@ -24579,7 +24578,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="584" spans="1:11" ht="56" hidden="1">
+    <row r="584" spans="1:11" ht="56">
       <c r="A584">
         <v>6</v>
       </c>
@@ -24611,7 +24610,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="585" spans="1:11" ht="28" hidden="1">
+    <row r="585" spans="1:11" ht="28">
       <c r="A585">
         <v>7</v>
       </c>
@@ -24643,7 +24642,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="586" spans="1:11" ht="28" hidden="1">
+    <row r="586" spans="1:11" ht="28">
       <c r="A586">
         <v>8</v>
       </c>
@@ -24675,7 +24674,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="587" spans="1:11" ht="28" hidden="1">
+    <row r="587" spans="1:11" ht="28">
       <c r="A587">
         <v>9</v>
       </c>
@@ -24707,7 +24706,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="588" spans="1:11" hidden="1">
+    <row r="588" spans="1:11">
       <c r="A588">
         <v>10</v>
       </c>
@@ -24774,7 +24773,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="590" spans="1:11" ht="42" hidden="1">
+    <row r="590" spans="1:11" ht="42">
       <c r="A590">
         <v>12</v>
       </c>
@@ -24806,7 +24805,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="591" spans="1:11" ht="28" hidden="1">
+    <row r="591" spans="1:11" ht="28">
       <c r="A591">
         <v>13</v>
       </c>
@@ -24908,7 +24907,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="594" spans="1:11" ht="28" hidden="1">
+    <row r="594" spans="1:11" ht="28">
       <c r="A594">
         <v>16</v>
       </c>
@@ -24940,7 +24939,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="595" spans="1:11" ht="42" hidden="1">
+    <row r="595" spans="1:11" ht="42">
       <c r="A595">
         <v>17</v>
       </c>
@@ -25042,7 +25041,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="598" spans="1:11" hidden="1">
+    <row r="598" spans="1:11">
       <c r="A598">
         <v>1</v>
       </c>
@@ -25074,7 +25073,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="599" spans="1:11" hidden="1">
+    <row r="599" spans="1:11">
       <c r="A599">
         <v>2</v>
       </c>
@@ -25106,7 +25105,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="600" spans="1:11" ht="28" hidden="1">
+    <row r="600" spans="1:11" ht="28">
       <c r="A600">
         <v>3</v>
       </c>
@@ -25138,7 +25137,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="601" spans="1:11" ht="28" hidden="1">
+    <row r="601" spans="1:11" ht="28">
       <c r="A601">
         <v>4</v>
       </c>
@@ -25170,7 +25169,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="602" spans="1:11" hidden="1">
+    <row r="602" spans="1:11">
       <c r="A602">
         <v>5</v>
       </c>
@@ -25202,7 +25201,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="603" spans="1:11" ht="28" hidden="1">
+    <row r="603" spans="1:11" ht="28">
       <c r="A603">
         <v>6</v>
       </c>
@@ -25234,7 +25233,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="604" spans="1:11" ht="56" hidden="1">
+    <row r="604" spans="1:11" ht="56">
       <c r="A604">
         <v>7</v>
       </c>
@@ -25266,7 +25265,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="605" spans="1:11" ht="28" hidden="1">
+    <row r="605" spans="1:11" ht="28">
       <c r="A605">
         <v>8</v>
       </c>
@@ -25298,7 +25297,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="606" spans="1:11" ht="42" hidden="1">
+    <row r="606" spans="1:11" ht="42">
       <c r="A606">
         <v>9</v>
       </c>
@@ -25330,7 +25329,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="607" spans="1:11" hidden="1">
+    <row r="607" spans="1:11">
       <c r="A607">
         <v>10</v>
       </c>
@@ -25362,7 +25361,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="608" spans="1:11" hidden="1">
+    <row r="608" spans="1:11">
       <c r="A608">
         <v>11</v>
       </c>
@@ -25394,7 +25393,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="609" spans="1:11" hidden="1">
+    <row r="609" spans="1:11">
       <c r="A609">
         <v>12</v>
       </c>
@@ -25461,7 +25460,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="611" spans="1:11" ht="70" hidden="1">
+    <row r="611" spans="1:11" ht="70">
       <c r="A611">
         <v>14</v>
       </c>
@@ -25493,7 +25492,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="612" spans="1:11" ht="28" hidden="1">
+    <row r="612" spans="1:11" ht="28">
       <c r="A612">
         <v>15</v>
       </c>
@@ -25595,7 +25594,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="615" spans="1:11" ht="28" hidden="1">
+    <row r="615" spans="1:11" ht="28">
       <c r="A615">
         <v>18</v>
       </c>
@@ -25697,7 +25696,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="618" spans="1:11" ht="42" hidden="1">
+    <row r="618" spans="1:11" ht="42">
       <c r="A618">
         <v>21</v>
       </c>
@@ -25729,7 +25728,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="619" spans="1:11" hidden="1">
+    <row r="619" spans="1:11">
       <c r="A619">
         <v>22</v>
       </c>
@@ -25761,7 +25760,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="620" spans="1:11" ht="28" hidden="1">
+    <row r="620" spans="1:11" ht="28">
       <c r="A620">
         <v>23</v>
       </c>
@@ -25793,7 +25792,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="621" spans="1:11" hidden="1">
+    <row r="621" spans="1:11">
       <c r="A621">
         <v>24</v>
       </c>
@@ -25857,7 +25856,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="623" spans="1:11" ht="42" hidden="1">
+    <row r="623" spans="1:11" ht="42">
       <c r="A623">
         <v>26</v>
       </c>
@@ -25889,7 +25888,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="624" spans="1:11" hidden="1">
+    <row r="624" spans="1:11">
       <c r="A624">
         <v>1</v>
       </c>
@@ -25921,7 +25920,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="625" spans="1:11" hidden="1">
+    <row r="625" spans="1:11">
       <c r="A625">
         <v>2</v>
       </c>
@@ -25953,7 +25952,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="626" spans="1:11" ht="28" hidden="1">
+    <row r="626" spans="1:11" ht="28">
       <c r="A626">
         <v>3</v>
       </c>
@@ -25985,7 +25984,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="627" spans="1:11" ht="28" hidden="1">
+    <row r="627" spans="1:11" ht="28">
       <c r="A627">
         <v>4</v>
       </c>
@@ -26017,7 +26016,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="628" spans="1:11" hidden="1">
+    <row r="628" spans="1:11">
       <c r="A628">
         <v>5</v>
       </c>
@@ -26049,7 +26048,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="629" spans="1:11" ht="42" hidden="1">
+    <row r="629" spans="1:11" ht="42">
       <c r="A629">
         <v>6</v>
       </c>
@@ -26081,7 +26080,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="630" spans="1:11" hidden="1">
+    <row r="630" spans="1:11">
       <c r="A630">
         <v>7</v>
       </c>
@@ -26113,7 +26112,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="631" spans="1:11" hidden="1">
+    <row r="631" spans="1:11">
       <c r="A631">
         <v>8</v>
       </c>
@@ -26145,7 +26144,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="632" spans="1:11" ht="56" hidden="1">
+    <row r="632" spans="1:11" ht="56">
       <c r="A632">
         <v>9</v>
       </c>
@@ -26177,7 +26176,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="633" spans="1:11" ht="28" hidden="1">
+    <row r="633" spans="1:11" ht="28">
       <c r="A633">
         <v>10</v>
       </c>
@@ -26209,7 +26208,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="634" spans="1:11" ht="28" hidden="1">
+    <row r="634" spans="1:11" ht="28">
       <c r="A634">
         <v>11</v>
       </c>
@@ -26346,7 +26345,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="638" spans="1:11" ht="28" hidden="1">
+    <row r="638" spans="1:11" ht="28">
       <c r="A638">
         <v>15</v>
       </c>
@@ -26378,7 +26377,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="639" spans="1:11" hidden="1">
+    <row r="639" spans="1:11">
       <c r="A639">
         <v>16</v>
       </c>
@@ -26410,7 +26409,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="640" spans="1:11" ht="28" hidden="1">
+    <row r="640" spans="1:11" ht="28">
       <c r="A640">
         <v>17</v>
       </c>
@@ -26442,7 +26441,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="641" spans="1:11" ht="42" hidden="1">
+    <row r="641" spans="1:11" ht="42">
       <c r="A641">
         <v>18</v>
       </c>
@@ -26474,7 +26473,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="642" spans="1:11" hidden="1">
+    <row r="642" spans="1:11">
       <c r="A642">
         <v>19</v>
       </c>
@@ -26506,7 +26505,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="643" spans="1:11" ht="28" hidden="1">
+    <row r="643" spans="1:11" ht="28">
       <c r="A643">
         <v>20</v>
       </c>
@@ -26643,7 +26642,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="647" spans="1:11" ht="42" hidden="1">
+    <row r="647" spans="1:11" ht="42">
       <c r="A647">
         <v>24</v>
       </c>
@@ -26675,7 +26674,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="648" spans="1:11" ht="28" hidden="1">
+    <row r="648" spans="1:11" ht="28">
       <c r="A648">
         <v>25</v>
       </c>
@@ -26806,7 +26805,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="652" spans="1:11" hidden="1">
+    <row r="652" spans="1:11">
       <c r="A652">
         <v>29</v>
       </c>
@@ -26838,7 +26837,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="653" spans="1:11" hidden="1">
+    <row r="653" spans="1:11">
       <c r="A653">
         <v>30</v>
       </c>
@@ -27010,7 +27009,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="658" spans="1:11" ht="28" hidden="1">
+    <row r="658" spans="1:11" ht="28">
       <c r="A658">
         <v>35</v>
       </c>
@@ -27077,7 +27076,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="660" spans="1:11" ht="28" hidden="1">
+    <row r="660" spans="1:11" ht="28">
       <c r="A660">
         <v>37</v>
       </c>
@@ -27109,7 +27108,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="661" spans="1:11" hidden="1">
+    <row r="661" spans="1:11">
       <c r="A661">
         <v>1</v>
       </c>
@@ -27141,7 +27140,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="662" spans="1:11" hidden="1">
+    <row r="662" spans="1:11">
       <c r="A662">
         <v>2</v>
       </c>
@@ -27173,7 +27172,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="663" spans="1:11" ht="28" hidden="1">
+    <row r="663" spans="1:11" ht="28">
       <c r="A663">
         <v>3</v>
       </c>
@@ -27205,7 +27204,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="664" spans="1:11" ht="28" hidden="1">
+    <row r="664" spans="1:11" ht="28">
       <c r="A664">
         <v>4</v>
       </c>
@@ -27237,7 +27236,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="665" spans="1:11" hidden="1">
+    <row r="665" spans="1:11">
       <c r="A665">
         <v>5</v>
       </c>
@@ -27269,7 +27268,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="666" spans="1:11" ht="28" hidden="1">
+    <row r="666" spans="1:11" ht="28">
       <c r="A666">
         <v>6</v>
       </c>
@@ -27301,7 +27300,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="667" spans="1:11" ht="28" hidden="1">
+    <row r="667" spans="1:11" ht="28">
       <c r="A667">
         <v>7</v>
       </c>
@@ -27333,7 +27332,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="668" spans="1:11" hidden="1">
+    <row r="668" spans="1:11">
       <c r="A668">
         <v>8</v>
       </c>
@@ -27365,7 +27364,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="669" spans="1:11" hidden="1">
+    <row r="669" spans="1:11">
       <c r="A669">
         <v>9</v>
       </c>
@@ -27397,7 +27396,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="670" spans="1:11" hidden="1">
+    <row r="670" spans="1:11">
       <c r="A670">
         <v>10</v>
       </c>
@@ -27429,7 +27428,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="671" spans="1:11" hidden="1">
+    <row r="671" spans="1:11">
       <c r="A671">
         <v>11</v>
       </c>
@@ -27566,7 +27565,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="675" spans="1:11" ht="28" hidden="1">
+    <row r="675" spans="1:11" ht="28">
       <c r="A675">
         <v>15</v>
       </c>
@@ -27598,7 +27597,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="676" spans="1:11" ht="28" hidden="1">
+    <row r="676" spans="1:11" ht="28">
       <c r="A676">
         <v>16</v>
       </c>
@@ -27665,7 +27664,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="678" spans="1:11" hidden="1">
+    <row r="678" spans="1:11">
       <c r="A678">
         <v>18</v>
       </c>
@@ -27732,7 +27731,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="680" spans="1:11" hidden="1">
+    <row r="680" spans="1:11">
       <c r="A680">
         <v>20</v>
       </c>
@@ -27764,7 +27763,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="681" spans="1:11" hidden="1">
+    <row r="681" spans="1:11">
       <c r="A681">
         <v>21</v>
       </c>
@@ -27831,7 +27830,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="683" spans="1:11" ht="28" hidden="1">
+    <row r="683" spans="1:11" ht="28">
       <c r="A683">
         <v>23</v>
       </c>
@@ -27863,7 +27862,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="684" spans="1:11" hidden="1">
+    <row r="684" spans="1:11">
       <c r="A684">
         <v>24</v>
       </c>
@@ -27895,7 +27894,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="685" spans="1:11" ht="28" hidden="1">
+    <row r="685" spans="1:11" ht="28">
       <c r="A685">
         <v>25</v>
       </c>
@@ -27997,7 +27996,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="688" spans="1:11" hidden="1">
+    <row r="688" spans="1:11">
       <c r="A688">
         <v>28</v>
       </c>
@@ -28029,7 +28028,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="689" spans="1:11" hidden="1">
+    <row r="689" spans="1:11">
       <c r="A689">
         <v>29</v>
       </c>
@@ -28096,7 +28095,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="691" spans="1:11" ht="42" hidden="1">
+    <row r="691" spans="1:11" ht="42">
       <c r="A691">
         <v>31</v>
       </c>
@@ -28128,7 +28127,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="692" spans="1:11" hidden="1">
+    <row r="692" spans="1:11">
       <c r="A692">
         <v>32</v>
       </c>
@@ -28195,7 +28194,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="694" spans="1:11" ht="28" hidden="1">
+    <row r="694" spans="1:11" ht="28">
       <c r="A694">
         <v>34</v>
       </c>
@@ -28227,7 +28226,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="695" spans="1:11" hidden="1">
+    <row r="695" spans="1:11">
       <c r="A695">
         <v>1</v>
       </c>
@@ -28259,7 +28258,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="696" spans="1:11" hidden="1">
+    <row r="696" spans="1:11">
       <c r="A696">
         <v>2</v>
       </c>
@@ -28291,7 +28290,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="697" spans="1:11" ht="28" hidden="1">
+    <row r="697" spans="1:11" ht="28">
       <c r="A697">
         <v>3</v>
       </c>
@@ -28323,7 +28322,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="698" spans="1:11" ht="28" hidden="1">
+    <row r="698" spans="1:11" ht="28">
       <c r="A698">
         <v>4</v>
       </c>
@@ -28355,7 +28354,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="699" spans="1:11" hidden="1">
+    <row r="699" spans="1:11">
       <c r="A699">
         <v>5</v>
       </c>
@@ -28387,7 +28386,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="700" spans="1:11" ht="28" hidden="1">
+    <row r="700" spans="1:11" ht="28">
       <c r="A700">
         <v>6</v>
       </c>
@@ -28419,7 +28418,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="701" spans="1:11" hidden="1">
+    <row r="701" spans="1:11">
       <c r="A701">
         <v>7</v>
       </c>
@@ -28451,7 +28450,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="702" spans="1:11" hidden="1">
+    <row r="702" spans="1:11">
       <c r="A702">
         <v>8</v>
       </c>
@@ -28483,7 +28482,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="703" spans="1:11" ht="42" hidden="1">
+    <row r="703" spans="1:11" ht="42">
       <c r="A703">
         <v>9</v>
       </c>
@@ -28515,7 +28514,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="704" spans="1:11" hidden="1">
+    <row r="704" spans="1:11">
       <c r="A704">
         <v>10</v>
       </c>
@@ -28547,7 +28546,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="705" spans="1:11" hidden="1">
+    <row r="705" spans="1:11">
       <c r="A705">
         <v>11</v>
       </c>
@@ -28684,7 +28683,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="709" spans="1:11" ht="28" hidden="1">
+    <row r="709" spans="1:11" ht="28">
       <c r="A709">
         <v>15</v>
       </c>
@@ -28716,7 +28715,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="710" spans="1:11" ht="28" hidden="1">
+    <row r="710" spans="1:11" ht="28">
       <c r="A710">
         <v>16</v>
       </c>
@@ -28748,7 +28747,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="711" spans="1:11" hidden="1">
+    <row r="711" spans="1:11">
       <c r="A711">
         <v>17</v>
       </c>
@@ -28780,7 +28779,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="712" spans="1:11" hidden="1">
+    <row r="712" spans="1:11">
       <c r="A712">
         <v>18</v>
       </c>
@@ -28812,7 +28811,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="713" spans="1:11" hidden="1">
+    <row r="713" spans="1:11">
       <c r="A713">
         <v>19</v>
       </c>
@@ -28879,7 +28878,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="715" spans="1:11" hidden="1">
+    <row r="715" spans="1:11">
       <c r="A715">
         <v>21</v>
       </c>
@@ -28946,7 +28945,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="717" spans="1:11" ht="28" hidden="1">
+    <row r="717" spans="1:11" ht="28">
       <c r="A717">
         <v>23</v>
       </c>
@@ -29077,7 +29076,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="721" spans="1:11" hidden="1">
+    <row r="721" spans="1:11">
       <c r="A721">
         <v>27</v>
       </c>
@@ -29109,7 +29108,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="722" spans="1:11" hidden="1">
+    <row r="722" spans="1:11">
       <c r="A722">
         <v>28</v>
       </c>
@@ -29281,7 +29280,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="727" spans="1:11" ht="28" hidden="1">
+    <row r="727" spans="1:11" ht="28">
       <c r="A727">
         <v>33</v>
       </c>
@@ -29348,7 +29347,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="729" spans="1:11" ht="28" hidden="1">
+    <row r="729" spans="1:11" ht="28">
       <c r="A729">
         <v>35</v>
       </c>
@@ -29380,7 +29379,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="730" spans="1:11" hidden="1">
+    <row r="730" spans="1:11">
       <c r="A730">
         <v>1</v>
       </c>
@@ -29441,7 +29440,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="732" spans="1:11" ht="28" hidden="1">
+    <row r="732" spans="1:11" ht="28">
       <c r="A732">
         <v>3</v>
       </c>
@@ -29470,7 +29469,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="733" spans="1:11" ht="28" hidden="1">
+    <row r="733" spans="1:11" ht="28">
       <c r="A733">
         <v>4</v>
       </c>
@@ -29499,7 +29498,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="734" spans="1:11" ht="28" hidden="1">
+    <row r="734" spans="1:11" ht="28">
       <c r="A734">
         <v>5</v>
       </c>
@@ -29560,7 +29559,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="736" spans="1:11" ht="42" hidden="1">
+    <row r="736" spans="1:11" ht="42">
       <c r="A736">
         <v>7</v>
       </c>
@@ -29589,7 +29588,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="737" spans="1:11" hidden="1">
+    <row r="737" spans="1:11">
       <c r="A737">
         <v>1</v>
       </c>
@@ -29621,7 +29620,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="738" spans="1:11" hidden="1">
+    <row r="738" spans="1:11">
       <c r="A738">
         <v>2</v>
       </c>
@@ -29653,7 +29652,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="739" spans="1:11" ht="28" hidden="1">
+    <row r="739" spans="1:11" ht="28">
       <c r="A739">
         <v>3</v>
       </c>
@@ -29685,7 +29684,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="740" spans="1:11" ht="28" hidden="1">
+    <row r="740" spans="1:11" ht="28">
       <c r="A740">
         <v>4</v>
       </c>
@@ -29717,7 +29716,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="741" spans="1:11" ht="42" hidden="1">
+    <row r="741" spans="1:11" ht="42">
       <c r="A741">
         <v>5</v>
       </c>
@@ -29749,7 +29748,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="742" spans="1:11" hidden="1">
+    <row r="742" spans="1:11">
       <c r="A742">
         <v>6</v>
       </c>
@@ -29851,7 +29850,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="745" spans="1:11" hidden="1">
+    <row r="745" spans="1:11">
       <c r="A745">
         <v>9</v>
       </c>
@@ -29883,7 +29882,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="746" spans="1:11" ht="28" hidden="1">
+    <row r="746" spans="1:11" ht="28">
       <c r="A746">
         <v>10</v>
       </c>
@@ -29915,7 +29914,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="747" spans="1:11" ht="28" hidden="1">
+    <row r="747" spans="1:11" ht="28">
       <c r="A747">
         <v>11</v>
       </c>
@@ -29947,7 +29946,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="748" spans="1:11" hidden="1">
+    <row r="748" spans="1:11">
       <c r="A748">
         <v>1</v>
       </c>
@@ -29979,7 +29978,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="749" spans="1:11" hidden="1">
+    <row r="749" spans="1:11">
       <c r="A749">
         <v>2</v>
       </c>
@@ -30046,7 +30045,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="751" spans="1:11" ht="28" hidden="1">
+    <row r="751" spans="1:11" ht="28">
       <c r="A751">
         <v>4</v>
       </c>
@@ -30078,7 +30077,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="752" spans="1:11" ht="28" hidden="1">
+    <row r="752" spans="1:11" ht="28">
       <c r="A752">
         <v>5</v>
       </c>
@@ -30110,7 +30109,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="753" spans="1:11" ht="28" hidden="1">
+    <row r="753" spans="1:11" ht="28">
       <c r="A753">
         <v>6</v>
       </c>
@@ -30142,7 +30141,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="754" spans="1:11" ht="28" hidden="1">
+    <row r="754" spans="1:11" ht="28">
       <c r="A754">
         <v>7</v>
       </c>
@@ -30174,7 +30173,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="755" spans="1:11" ht="42" hidden="1">
+    <row r="755" spans="1:11" ht="42">
       <c r="A755">
         <v>8</v>
       </c>
@@ -30206,7 +30205,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="756" spans="1:11" ht="28" hidden="1">
+    <row r="756" spans="1:11" ht="28">
       <c r="A756">
         <v>9</v>
       </c>
@@ -30238,7 +30237,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="757" spans="1:11" ht="28" hidden="1">
+    <row r="757" spans="1:11" ht="28">
       <c r="A757">
         <v>10</v>
       </c>
@@ -30305,7 +30304,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="759" spans="1:11" hidden="1">
+    <row r="759" spans="1:11">
       <c r="A759">
         <v>1</v>
       </c>
@@ -30337,7 +30336,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="760" spans="1:11" hidden="1">
+    <row r="760" spans="1:11">
       <c r="A760">
         <v>2</v>
       </c>
@@ -30369,7 +30368,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="761" spans="1:11" ht="28" hidden="1">
+    <row r="761" spans="1:11" ht="28">
       <c r="A761">
         <v>3</v>
       </c>
@@ -30401,7 +30400,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="762" spans="1:11" ht="28" hidden="1">
+    <row r="762" spans="1:11" ht="28">
       <c r="A762">
         <v>4</v>
       </c>
@@ -30503,7 +30502,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="765" spans="1:11" hidden="1">
+    <row r="765" spans="1:11">
       <c r="A765">
         <v>7</v>
       </c>
@@ -30535,7 +30534,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="766" spans="1:11" ht="28" hidden="1">
+    <row r="766" spans="1:11" ht="28">
       <c r="A766">
         <v>8</v>
       </c>
@@ -30567,7 +30566,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="767" spans="1:11" hidden="1">
+    <row r="767" spans="1:11">
       <c r="A767">
         <v>9</v>
       </c>
@@ -30634,7 +30633,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="769" spans="1:11" ht="28" hidden="1">
+    <row r="769" spans="1:11" ht="28">
       <c r="A769">
         <v>11</v>
       </c>
@@ -30806,7 +30805,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="774" spans="1:11" ht="84" hidden="1">
+    <row r="774" spans="1:11" ht="84">
       <c r="A774">
         <v>16</v>
       </c>
@@ -30838,7 +30837,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="775" spans="1:11" hidden="1">
+    <row r="775" spans="1:11">
       <c r="A775">
         <v>17</v>
       </c>
@@ -30940,7 +30939,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="778" spans="1:11" hidden="1">
+    <row r="778" spans="1:11">
       <c r="A778">
         <v>20</v>
       </c>
@@ -30972,7 +30971,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="779" spans="1:11" hidden="1">
+    <row r="779" spans="1:11">
       <c r="A779">
         <v>1</v>
       </c>
@@ -31004,7 +31003,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="780" spans="1:11" hidden="1">
+    <row r="780" spans="1:11">
       <c r="A780">
         <v>2</v>
       </c>
@@ -31036,7 +31035,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="781" spans="1:11" ht="28" hidden="1">
+    <row r="781" spans="1:11" ht="28">
       <c r="A781">
         <v>3</v>
       </c>
@@ -31068,7 +31067,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="782" spans="1:11" hidden="1">
+    <row r="782" spans="1:11">
       <c r="A782">
         <v>4</v>
       </c>
@@ -31100,7 +31099,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="783" spans="1:11" ht="28" hidden="1">
+    <row r="783" spans="1:11" ht="28">
       <c r="A783">
         <v>5</v>
       </c>
@@ -31132,7 +31131,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="784" spans="1:11" hidden="1">
+    <row r="784" spans="1:11">
       <c r="A784">
         <v>6</v>
       </c>
@@ -31234,7 +31233,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="787" spans="1:11" hidden="1">
+    <row r="787" spans="1:11">
       <c r="A787">
         <v>9</v>
       </c>
@@ -31266,7 +31265,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="788" spans="1:11" hidden="1">
+    <row r="788" spans="1:11">
       <c r="A788">
         <v>10</v>
       </c>
@@ -31298,7 +31297,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="789" spans="1:11" hidden="1">
+    <row r="789" spans="1:11">
       <c r="A789">
         <v>11</v>
       </c>
@@ -31330,7 +31329,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="790" spans="1:11" hidden="1">
+    <row r="790" spans="1:11">
       <c r="A790">
         <v>1</v>
       </c>
@@ -31391,7 +31390,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="792" spans="1:11" ht="28" hidden="1">
+    <row r="792" spans="1:11" ht="28">
       <c r="A792">
         <v>3</v>
       </c>
@@ -31420,7 +31419,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="793" spans="1:11" ht="28" hidden="1">
+    <row r="793" spans="1:11" ht="28">
       <c r="A793">
         <v>4</v>
       </c>
@@ -31449,7 +31448,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="794" spans="1:11" ht="28" hidden="1">
+    <row r="794" spans="1:11" ht="28">
       <c r="A794">
         <v>5</v>
       </c>
@@ -31478,7 +31477,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="795" spans="1:11" ht="56" hidden="1">
+    <row r="795" spans="1:11" ht="56">
       <c r="A795">
         <v>6</v>
       </c>
@@ -31507,7 +31506,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="796" spans="1:11" ht="28" hidden="1">
+    <row r="796" spans="1:11" ht="28">
       <c r="A796">
         <v>7</v>
       </c>
@@ -31536,7 +31535,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="797" spans="1:11" ht="28" hidden="1">
+    <row r="797" spans="1:11" ht="28">
       <c r="A797">
         <v>8</v>
       </c>
@@ -31565,7 +31564,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="798" spans="1:11" ht="28" hidden="1">
+    <row r="798" spans="1:11" ht="28">
       <c r="A798">
         <v>9</v>
       </c>
@@ -31594,7 +31593,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="799" spans="1:11" ht="42" hidden="1">
+    <row r="799" spans="1:11" ht="42">
       <c r="A799">
         <v>10</v>
       </c>
@@ -31623,7 +31622,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="800" spans="1:11" hidden="1">
+    <row r="800" spans="1:11">
       <c r="A800">
         <v>1</v>
       </c>
@@ -31655,7 +31654,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="801" spans="1:11" hidden="1">
+    <row r="801" spans="1:11">
       <c r="A801">
         <v>2</v>
       </c>
@@ -31687,7 +31686,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="802" spans="1:11" ht="84" hidden="1">
+    <row r="802" spans="1:11" ht="84">
       <c r="A802">
         <v>3</v>
       </c>
@@ -31719,7 +31718,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="803" spans="1:11" hidden="1">
+    <row r="803" spans="1:11">
       <c r="A803">
         <v>4</v>
       </c>
@@ -31751,7 +31750,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="804" spans="1:11" hidden="1">
+    <row r="804" spans="1:11">
       <c r="A804">
         <v>5</v>
       </c>
@@ -31783,7 +31782,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="805" spans="1:11" ht="42" hidden="1">
+    <row r="805" spans="1:11" ht="42">
       <c r="A805">
         <v>6</v>
       </c>
@@ -31815,7 +31814,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="806" spans="1:11" hidden="1">
+    <row r="806" spans="1:11">
       <c r="A806">
         <v>7</v>
       </c>
@@ -31847,7 +31846,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="807" spans="1:11" ht="28" hidden="1">
+    <row r="807" spans="1:11" ht="28">
       <c r="A807">
         <v>8</v>
       </c>
@@ -31879,7 +31878,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="808" spans="1:11" ht="42" hidden="1">
+    <row r="808" spans="1:11" ht="42">
       <c r="A808">
         <v>9</v>
       </c>
@@ -31911,7 +31910,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="809" spans="1:11" ht="28" hidden="1">
+    <row r="809" spans="1:11" ht="28">
       <c r="A809">
         <v>10</v>
       </c>
@@ -31943,7 +31942,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="810" spans="1:11" hidden="1">
+    <row r="810" spans="1:11">
       <c r="A810">
         <v>1</v>
       </c>
@@ -31975,7 +31974,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="811" spans="1:11" hidden="1">
+    <row r="811" spans="1:11">
       <c r="A811">
         <v>2</v>
       </c>
@@ -32007,7 +32006,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="812" spans="1:11" hidden="1">
+    <row r="812" spans="1:11">
       <c r="A812">
         <v>3</v>
       </c>
@@ -32039,7 +32038,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="813" spans="1:11" ht="28" hidden="1">
+    <row r="813" spans="1:11" ht="28">
       <c r="A813">
         <v>4</v>
       </c>
@@ -32071,7 +32070,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="814" spans="1:11" hidden="1">
+    <row r="814" spans="1:11">
       <c r="A814">
         <v>5</v>
       </c>
@@ -32103,7 +32102,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="815" spans="1:11" ht="84" hidden="1">
+    <row r="815" spans="1:11" ht="84">
       <c r="A815">
         <v>6</v>
       </c>
@@ -32135,7 +32134,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="816" spans="1:11" hidden="1">
+    <row r="816" spans="1:11">
       <c r="A816">
         <v>7</v>
       </c>
@@ -32167,7 +32166,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="817" spans="1:11" hidden="1">
+    <row r="817" spans="1:11">
       <c r="A817">
         <v>8</v>
       </c>
@@ -32199,7 +32198,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="818" spans="1:11" hidden="1">
+    <row r="818" spans="1:11">
       <c r="A818">
         <v>9</v>
       </c>
@@ -32231,7 +32230,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="819" spans="1:11" hidden="1">
+    <row r="819" spans="1:11">
       <c r="A819">
         <v>1</v>
       </c>
@@ -32263,7 +32262,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="820" spans="1:11" hidden="1">
+    <row r="820" spans="1:11">
       <c r="A820">
         <v>2</v>
       </c>
@@ -32295,7 +32294,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="821" spans="1:11" ht="42" hidden="1">
+    <row r="821" spans="1:11" ht="42">
       <c r="A821">
         <v>3</v>
       </c>
@@ -32327,7 +32326,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="822" spans="1:11" hidden="1">
+    <row r="822" spans="1:11">
       <c r="A822">
         <v>4</v>
       </c>
@@ -32359,7 +32358,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="823" spans="1:11" hidden="1">
+    <row r="823" spans="1:11">
       <c r="A823">
         <v>5</v>
       </c>
@@ -32391,7 +32390,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="824" spans="1:11" hidden="1">
+    <row r="824" spans="1:11">
       <c r="A824">
         <v>6</v>
       </c>
@@ -32458,7 +32457,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="826" spans="1:11" hidden="1">
+    <row r="826" spans="1:11">
       <c r="A826">
         <v>1</v>
       </c>
@@ -32490,7 +32489,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="827" spans="1:11" hidden="1">
+    <row r="827" spans="1:11">
       <c r="A827">
         <v>2</v>
       </c>
@@ -32522,7 +32521,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="828" spans="1:11" ht="42" hidden="1">
+    <row r="828" spans="1:11" ht="42">
       <c r="A828">
         <v>3</v>
       </c>
@@ -32554,7 +32553,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="829" spans="1:11" ht="28" hidden="1">
+    <row r="829" spans="1:11" ht="28">
       <c r="A829">
         <v>4</v>
       </c>
@@ -32621,7 +32620,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="831" spans="1:11" ht="28" hidden="1">
+    <row r="831" spans="1:11" ht="28">
       <c r="A831">
         <v>6</v>
       </c>
@@ -32653,7 +32652,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="832" spans="1:11" hidden="1">
+    <row r="832" spans="1:11">
       <c r="A832">
         <v>7</v>
       </c>
@@ -32685,7 +32684,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="833" spans="1:11" hidden="1">
+    <row r="833" spans="1:11">
       <c r="A833">
         <v>8</v>
       </c>
@@ -32717,7 +32716,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="834" spans="1:11" hidden="1">
+    <row r="834" spans="1:11">
       <c r="A834">
         <v>1</v>
       </c>
@@ -32749,7 +32748,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="835" spans="1:11" hidden="1">
+    <row r="835" spans="1:11">
       <c r="A835">
         <v>2</v>
       </c>
@@ -32781,7 +32780,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="836" spans="1:11" ht="28" hidden="1">
+    <row r="836" spans="1:11" ht="28">
       <c r="A836">
         <v>3</v>
       </c>
@@ -32813,7 +32812,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="837" spans="1:11" hidden="1">
+    <row r="837" spans="1:11">
       <c r="A837">
         <v>4</v>
       </c>
@@ -32915,7 +32914,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="840" spans="1:11" ht="42" hidden="1">
+    <row r="840" spans="1:11" ht="42">
       <c r="A840">
         <v>7</v>
       </c>
@@ -32948,11 +32947,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K840">
-    <filterColumn colId="6">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K840"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0"/>
   <extLst>

--- a/public/upload/sdtm-3-1-2-excel.xlsx
+++ b/public/upload/sdtm-3-1-2-excel.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8028" uniqueCount="2012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8028" uniqueCount="2011">
   <si>
     <t>Seq. For Order</t>
   </si>
@@ -5221,9 +5221,6 @@
   </si>
   <si>
     <t>TA</t>
-  </si>
-  <si>
-    <t>ETORD</t>
   </si>
   <si>
     <t>BRANCH</t>
@@ -6197,7 +6194,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="185">
+  <cellStyleXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6383,8 +6380,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6433,8 +6432,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="185">
+  <cellStyles count="187">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -6527,6 +6529,7 @@
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6619,6 +6622,7 @@
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6921,8 +6925,8 @@
   <dimension ref="A1:K894"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+      <pane ySplit="1" topLeftCell="A868" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D859" sqref="D859"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7686,7 +7690,7 @@
         <v>11</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>116</v>
@@ -7738,7 +7742,7 @@
         <v>11</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>123</v>
@@ -10052,7 +10056,7 @@
         <v>379</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E120" s="10" t="s">
         <v>429</v>
@@ -10367,7 +10371,7 @@
         <v>157</v>
       </c>
       <c r="J131" s="12" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="K131" s="11"/>
     </row>
@@ -10425,7 +10429,7 @@
         <v>157</v>
       </c>
       <c r="J133" s="12" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="K133" s="11"/>
     </row>
@@ -10438,10 +10442,10 @@
       </c>
       <c r="C134" s="11"/>
       <c r="D134" s="11" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="F134" s="11" t="s">
         <v>1665</v>
@@ -10454,7 +10458,7 @@
         <v>157</v>
       </c>
       <c r="J134" s="12" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="K134" s="11"/>
     </row>
@@ -10541,7 +10545,7 @@
         <v>157</v>
       </c>
       <c r="J137" s="12" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="K137" s="11"/>
     </row>
@@ -10570,7 +10574,7 @@
         <v>157</v>
       </c>
       <c r="J138" s="12" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="K138" s="11"/>
     </row>
@@ -10599,7 +10603,7 @@
         <v>157</v>
       </c>
       <c r="J139" s="12" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="K139" s="11"/>
     </row>
@@ -10628,7 +10632,7 @@
         <v>157</v>
       </c>
       <c r="J140" s="12" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="K140" s="11"/>
     </row>
@@ -10657,7 +10661,7 @@
         <v>157</v>
       </c>
       <c r="J141" s="12" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="K141" s="11"/>
     </row>
@@ -10686,7 +10690,7 @@
         <v>157</v>
       </c>
       <c r="J142" s="12" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="K142" s="11"/>
     </row>
@@ -10715,7 +10719,7 @@
         <v>157</v>
       </c>
       <c r="J143" s="12" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="K143" s="11"/>
     </row>
@@ -10744,7 +10748,7 @@
         <v>157</v>
       </c>
       <c r="J144" s="12" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="K144" s="11"/>
     </row>
@@ -10760,7 +10764,7 @@
         <v>1629</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="F145" s="11" t="s">
         <v>1631</v>
@@ -10789,7 +10793,7 @@
         <v>1633</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="F146" s="11" t="s">
         <v>1635</v>
@@ -10802,7 +10806,7 @@
         <v>134</v>
       </c>
       <c r="J146" s="12" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="K146" s="11"/>
     </row>
@@ -10831,7 +10835,7 @@
         <v>157</v>
       </c>
       <c r="J147" s="12" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="K147" s="11"/>
     </row>
@@ -10850,7 +10854,7 @@
         <v>1611</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="G148" s="11" t="s">
         <v>14</v>
@@ -10879,7 +10883,7 @@
         <v>1614</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="G149" s="11" t="s">
         <v>14</v>
@@ -10889,7 +10893,7 @@
         <v>157</v>
       </c>
       <c r="J149" s="12" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="K149" s="11"/>
     </row>
@@ -10905,7 +10909,7 @@
         <v>1623</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="F150" s="11" t="s">
         <v>1625</v>
@@ -10918,7 +10922,7 @@
         <v>157</v>
       </c>
       <c r="J150" s="12" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="K150" s="11"/>
     </row>
@@ -10934,7 +10938,7 @@
         <v>1623</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="F151" s="11" t="s">
         <v>1706</v>
@@ -10947,7 +10951,7 @@
         <v>157</v>
       </c>
       <c r="J151" s="12" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="K151" s="11"/>
     </row>
@@ -10976,7 +10980,7 @@
         <v>157</v>
       </c>
       <c r="J152" s="12" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="K152" s="11"/>
     </row>
@@ -11005,7 +11009,7 @@
         <v>157</v>
       </c>
       <c r="J153" s="12" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="K153" s="11"/>
     </row>
@@ -11034,7 +11038,7 @@
         <v>157</v>
       </c>
       <c r="J154" s="12" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="K154" s="11"/>
     </row>
@@ -11063,7 +11067,7 @@
         <v>157</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="K155" s="11"/>
     </row>
@@ -11150,7 +11154,7 @@
         <v>157</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="K158" s="11"/>
     </row>
@@ -11163,23 +11167,23 @@
       </c>
       <c r="C159" s="11"/>
       <c r="D159" s="11" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="F159" s="11" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="G159" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H159" s="16"/>
       <c r="I159" s="11" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="K159" s="11"/>
     </row>
@@ -11192,23 +11196,23 @@
       </c>
       <c r="C160" s="11"/>
       <c r="D160" s="11" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="E160" s="13" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="G160" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H160" s="16"/>
       <c r="I160" s="11" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="K160" s="11"/>
     </row>
@@ -11237,7 +11241,7 @@
         <v>157</v>
       </c>
       <c r="J161" s="12" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="K161" s="11"/>
     </row>
@@ -11266,7 +11270,7 @@
         <v>157</v>
       </c>
       <c r="J162" s="12" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="K162" s="11"/>
     </row>
@@ -11279,23 +11283,23 @@
       </c>
       <c r="C163" s="11"/>
       <c r="D163" s="11" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="E163" s="13" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="F163" s="11" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="G163" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H163" s="16"/>
       <c r="I163" s="11" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="J163" s="12" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="K163" s="11"/>
     </row>
@@ -11308,23 +11312,23 @@
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="11" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="E164" s="13" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="G164" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H164" s="16"/>
       <c r="I164" s="11" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="J164" s="12" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="K164" s="11"/>
     </row>
@@ -11337,23 +11341,23 @@
       </c>
       <c r="C165" s="11"/>
       <c r="D165" s="11" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="E165" s="13" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="F165" s="11" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="G165" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H165" s="16"/>
       <c r="I165" s="11" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="J165" s="12" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="K165" s="11"/>
     </row>
@@ -11366,23 +11370,23 @@
       </c>
       <c r="C166" s="11"/>
       <c r="D166" s="11" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="E166" s="13" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F166" s="11" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="G166" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H166" s="16"/>
       <c r="I166" s="11" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="K166" s="11"/>
     </row>
@@ -11411,7 +11415,7 @@
         <v>134</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="K167" s="11"/>
     </row>
@@ -11437,10 +11441,10 @@
       </c>
       <c r="H168" s="16"/>
       <c r="I168" s="11" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="J168" s="12" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="K168" s="11"/>
     </row>
@@ -11469,7 +11473,7 @@
         <v>148</v>
       </c>
       <c r="J169" s="12" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="K169" s="11"/>
     </row>
@@ -11511,23 +11515,23 @@
       </c>
       <c r="C171" s="11"/>
       <c r="D171" s="11" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="E171" s="13" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="F171" s="11" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="G171" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H171" s="16"/>
       <c r="I171" s="11" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="J171" s="12" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="K171" s="11"/>
     </row>
@@ -11540,13 +11544,13 @@
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="11" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="E172" s="13" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="F172" s="11" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="G172" s="11" t="s">
         <v>14</v>
@@ -11556,7 +11560,7 @@
         <v>157</v>
       </c>
       <c r="J172" s="12" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="K172" s="11"/>
     </row>
@@ -11569,13 +11573,13 @@
       </c>
       <c r="C173" s="11"/>
       <c r="D173" s="11" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="E173" s="13" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="F173" s="11" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="G173" s="11" t="s">
         <v>14</v>
@@ -11585,7 +11589,7 @@
         <v>134</v>
       </c>
       <c r="J173" s="12" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="K173" s="11"/>
     </row>
@@ -11598,13 +11602,13 @@
       </c>
       <c r="C174" s="11"/>
       <c r="D174" s="11" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E174" s="13" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="G174" s="11" t="s">
         <v>14</v>
@@ -11614,7 +11618,7 @@
         <v>470</v>
       </c>
       <c r="J174" s="12" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="K174" s="11"/>
     </row>
@@ -11630,10 +11634,10 @@
         <v>1633</v>
       </c>
       <c r="E175" s="13" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="F175" s="11" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="G175" s="11" t="s">
         <v>14</v>
@@ -11643,7 +11647,7 @@
         <v>275</v>
       </c>
       <c r="J175" s="12" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="K175" s="11"/>
     </row>
@@ -11759,7 +11763,7 @@
         <v>157</v>
       </c>
       <c r="J179" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="K179" s="11"/>
     </row>
@@ -11788,7 +11792,7 @@
         <v>157</v>
       </c>
       <c r="J180" s="12" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="K180" s="11"/>
     </row>
@@ -12211,7 +12215,7 @@
         <v>14</v>
       </c>
       <c r="H193" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I193" s="4" t="s">
         <v>157</v>
@@ -12279,7 +12283,7 @@
         <v>14</v>
       </c>
       <c r="H195" s="16" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="I195" s="4" t="s">
         <v>157</v>
@@ -12314,7 +12318,7 @@
         <v>14</v>
       </c>
       <c r="H196" s="16" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I196" s="4" t="s">
         <v>157</v>
@@ -12349,7 +12353,7 @@
         <v>14</v>
       </c>
       <c r="H197" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I197" s="4" t="s">
         <v>157</v>
@@ -12384,7 +12388,7 @@
         <v>14</v>
       </c>
       <c r="H198" s="16" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I198" s="4" t="s">
         <v>157</v>
@@ -12551,7 +12555,7 @@
         <v>14</v>
       </c>
       <c r="H203" s="16" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="I203" s="4" t="s">
         <v>157</v>
@@ -12586,7 +12590,7 @@
         <v>14</v>
       </c>
       <c r="H204" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I204" s="4" t="s">
         <v>157</v>
@@ -12621,7 +12625,7 @@
         <v>14</v>
       </c>
       <c r="H205" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I205" s="4" t="s">
         <v>157</v>
@@ -12656,7 +12660,7 @@
         <v>14</v>
       </c>
       <c r="H206" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I206" s="4" t="s">
         <v>157</v>
@@ -12691,7 +12695,7 @@
         <v>14</v>
       </c>
       <c r="H207" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I207" s="4" t="s">
         <v>157</v>
@@ -12726,7 +12730,7 @@
         <v>14</v>
       </c>
       <c r="H208" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I208" s="4" t="s">
         <v>157</v>
@@ -12761,7 +12765,7 @@
         <v>14</v>
       </c>
       <c r="H209" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I209" s="4" t="s">
         <v>157</v>
@@ -12796,7 +12800,7 @@
         <v>14</v>
       </c>
       <c r="H210" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I210" s="4" t="s">
         <v>157</v>
@@ -12831,7 +12835,7 @@
         <v>14</v>
       </c>
       <c r="H211" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I211" s="4" t="s">
         <v>157</v>
@@ -12866,7 +12870,7 @@
         <v>14</v>
       </c>
       <c r="H212" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I212" s="4" t="s">
         <v>157</v>
@@ -13099,7 +13103,7 @@
         <v>14</v>
       </c>
       <c r="H219" s="16" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="I219" s="4" t="s">
         <v>42</v>
@@ -13122,7 +13126,7 @@
         <v>454</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E220" s="10" t="s">
         <v>542</v>
@@ -13134,7 +13138,7 @@
         <v>14</v>
       </c>
       <c r="H220" s="16" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="I220" s="4" t="s">
         <v>42</v>
@@ -13466,7 +13470,7 @@
         <v>14</v>
       </c>
       <c r="H230" s="16" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I230" s="4" t="s">
         <v>470</v>
@@ -13501,7 +13505,7 @@
         <v>14</v>
       </c>
       <c r="H231" s="16" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I231" s="4" t="s">
         <v>148</v>
@@ -14095,7 +14099,7 @@
         <v>14</v>
       </c>
       <c r="H249" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I249" s="4" t="s">
         <v>157</v>
@@ -14130,7 +14134,7 @@
         <v>14</v>
       </c>
       <c r="H250" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I250" s="4" t="s">
         <v>157</v>
@@ -14165,7 +14169,7 @@
         <v>14</v>
       </c>
       <c r="H251" s="16" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="I251" s="4" t="s">
         <v>157</v>
@@ -14395,7 +14399,7 @@
         <v>14</v>
       </c>
       <c r="H258" s="16" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="I258" s="4" t="s">
         <v>42</v>
@@ -14418,7 +14422,7 @@
         <v>571</v>
       </c>
       <c r="D259" s="11" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E259" s="10" t="s">
         <v>615</v>
@@ -14430,7 +14434,7 @@
         <v>14</v>
       </c>
       <c r="H259" s="16" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="I259" s="4" t="s">
         <v>42</v>
@@ -15294,7 +15298,7 @@
         <v>14</v>
       </c>
       <c r="H285" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I285" s="4" t="s">
         <v>157</v>
@@ -15329,7 +15333,7 @@
         <v>14</v>
       </c>
       <c r="H286" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I286" s="4" t="s">
         <v>157</v>
@@ -15364,7 +15368,7 @@
         <v>14</v>
       </c>
       <c r="H287" s="16" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="I287" s="4" t="s">
         <v>157</v>
@@ -15627,7 +15631,7 @@
         <v>14</v>
       </c>
       <c r="H295" s="16" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="I295" s="4" t="s">
         <v>42</v>
@@ -15662,7 +15666,7 @@
         <v>14</v>
       </c>
       <c r="H296" s="16" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="I296" s="4" t="s">
         <v>42</v>
@@ -15685,7 +15689,7 @@
         <v>642</v>
       </c>
       <c r="D297" s="11" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E297" s="10" t="s">
         <v>685</v>
@@ -15697,7 +15701,7 @@
         <v>14</v>
       </c>
       <c r="H297" s="16" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="I297" s="4" t="s">
         <v>42</v>
@@ -15753,7 +15757,7 @@
         <v>642</v>
       </c>
       <c r="D299" s="11" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E299" s="10" t="s">
         <v>688</v>
@@ -15765,7 +15769,7 @@
         <v>14</v>
       </c>
       <c r="H299" s="16" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="I299" s="4" t="s">
         <v>42</v>
@@ -16064,7 +16068,7 @@
         <v>14</v>
       </c>
       <c r="H308" s="16" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I308" s="4" t="s">
         <v>134</v>
@@ -16099,7 +16103,7 @@
         <v>14</v>
       </c>
       <c r="H309" s="16" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I309" s="4" t="s">
         <v>470</v>
@@ -16200,7 +16204,7 @@
         <v>14</v>
       </c>
       <c r="H312" s="16" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I312" s="4" t="s">
         <v>157</v>
@@ -16268,7 +16272,7 @@
         <v>14</v>
       </c>
       <c r="H314" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I314" s="4" t="s">
         <v>717</v>
@@ -16303,7 +16307,7 @@
         <v>14</v>
       </c>
       <c r="H315" s="16" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I315" s="4" t="s">
         <v>275</v>
@@ -16371,7 +16375,7 @@
         <v>14</v>
       </c>
       <c r="H317" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I317" s="4" t="s">
         <v>717</v>
@@ -16406,7 +16410,7 @@
         <v>14</v>
       </c>
       <c r="H318" s="16" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="I318" s="4" t="s">
         <v>157</v>
@@ -16540,7 +16544,7 @@
         <v>14</v>
       </c>
       <c r="H322" s="16" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="I322" s="4" t="s">
         <v>157</v>
@@ -16575,7 +16579,7 @@
         <v>14</v>
       </c>
       <c r="H323" s="16" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I323" s="4" t="s">
         <v>157</v>
@@ -16610,7 +16614,7 @@
         <v>14</v>
       </c>
       <c r="H324" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I324" s="4" t="s">
         <v>157</v>
@@ -16645,7 +16649,7 @@
         <v>14</v>
       </c>
       <c r="H325" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I325" s="4" t="s">
         <v>157</v>
@@ -17348,7 +17352,7 @@
         <v>14</v>
       </c>
       <c r="H346" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I346" s="4" t="s">
         <v>275</v>
@@ -17383,7 +17387,7 @@
         <v>14</v>
       </c>
       <c r="H347" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I347" s="4" t="s">
         <v>275</v>
@@ -17813,7 +17817,7 @@
         <v>14</v>
       </c>
       <c r="H360" s="16" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I360" s="4" t="s">
         <v>134</v>
@@ -17848,7 +17852,7 @@
         <v>14</v>
       </c>
       <c r="H361" s="16" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I361" s="4" t="s">
         <v>470</v>
@@ -17982,7 +17986,7 @@
         <v>14</v>
       </c>
       <c r="H365" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I365" s="4" t="s">
         <v>717</v>
@@ -18149,7 +18153,7 @@
         <v>14</v>
       </c>
       <c r="H370" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I370" s="4" t="s">
         <v>717</v>
@@ -18316,7 +18320,7 @@
         <v>14</v>
       </c>
       <c r="H375" s="16" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="I375" s="4" t="s">
         <v>157</v>
@@ -18549,7 +18553,7 @@
         <v>14</v>
       </c>
       <c r="H382" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I382" s="4" t="s">
         <v>157</v>
@@ -18584,7 +18588,7 @@
         <v>14</v>
       </c>
       <c r="H383" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I383" s="4" t="s">
         <v>157</v>
@@ -18619,7 +18623,7 @@
         <v>14</v>
       </c>
       <c r="H384" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I384" s="4" t="s">
         <v>157</v>
@@ -19514,7 +19518,7 @@
         <v>14</v>
       </c>
       <c r="H411" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I411" s="4" t="s">
         <v>717</v>
@@ -19582,7 +19586,7 @@
         <v>14</v>
       </c>
       <c r="H413" s="16" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="I413" s="4" t="s">
         <v>157</v>
@@ -19650,7 +19654,7 @@
         <v>14</v>
       </c>
       <c r="H415" s="16" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="I415" s="4" t="s">
         <v>157</v>
@@ -20278,7 +20282,7 @@
         <v>14</v>
       </c>
       <c r="H434" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I434" s="4" t="s">
         <v>717</v>
@@ -20379,7 +20383,7 @@
         <v>14</v>
       </c>
       <c r="H437" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I437" s="4" t="s">
         <v>717</v>
@@ -20414,7 +20418,7 @@
         <v>14</v>
       </c>
       <c r="H438" s="16" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="I438" s="4" t="s">
         <v>157</v>
@@ -20482,7 +20486,7 @@
         <v>14</v>
       </c>
       <c r="H440" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I440" s="4" t="s">
         <v>157</v>
@@ -20517,7 +20521,7 @@
         <v>14</v>
       </c>
       <c r="H441" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I441" s="4" t="s">
         <v>157</v>
@@ -21121,7 +21125,7 @@
         <v>14</v>
       </c>
       <c r="H459" s="16" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I459" s="4" t="s">
         <v>134</v>
@@ -21288,7 +21292,7 @@
         <v>14</v>
       </c>
       <c r="H464" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I464" s="4" t="s">
         <v>717</v>
@@ -21389,7 +21393,7 @@
         <v>14</v>
       </c>
       <c r="H467" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I467" s="4" t="s">
         <v>717</v>
@@ -21424,7 +21428,7 @@
         <v>14</v>
       </c>
       <c r="H468" s="16" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="I468" s="4" t="s">
         <v>157</v>
@@ -21755,7 +21759,7 @@
         <v>14</v>
       </c>
       <c r="H478" s="16" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I478" s="4" t="s">
         <v>134</v>
@@ -21790,7 +21794,7 @@
         <v>14</v>
       </c>
       <c r="H479" s="16" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I479" s="4" t="s">
         <v>470</v>
@@ -21891,7 +21895,7 @@
         <v>14</v>
       </c>
       <c r="H482" s="16" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I482" s="4" t="s">
         <v>157</v>
@@ -21959,7 +21963,7 @@
         <v>14</v>
       </c>
       <c r="H484" s="16" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I484" s="4" t="s">
         <v>717</v>
@@ -22060,7 +22064,7 @@
         <v>14</v>
       </c>
       <c r="H487" s="16" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I487" s="4" t="s">
         <v>717</v>
@@ -22095,7 +22099,7 @@
         <v>14</v>
       </c>
       <c r="H488" s="16" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="I488" s="4" t="s">
         <v>157</v>
@@ -22163,7 +22167,7 @@
         <v>14</v>
       </c>
       <c r="H490" s="16" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="I490" s="4" t="s">
         <v>157</v>
@@ -22198,7 +22202,7 @@
         <v>14</v>
       </c>
       <c r="H491" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I491" s="4" t="s">
         <v>157</v>
@@ -22233,7 +22237,7 @@
         <v>14</v>
       </c>
       <c r="H492" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I492" s="4" t="s">
         <v>157</v>
@@ -22997,7 +23001,7 @@
         <v>14</v>
       </c>
       <c r="H515" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I515" s="4" t="s">
         <v>717</v>
@@ -23098,7 +23102,7 @@
         <v>14</v>
       </c>
       <c r="H518" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I518" s="4" t="s">
         <v>717</v>
@@ -23133,7 +23137,7 @@
         <v>14</v>
       </c>
       <c r="H519" s="16" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="I519" s="4" t="s">
         <v>157</v>
@@ -23761,7 +23765,7 @@
         <v>14</v>
       </c>
       <c r="H538" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I538" s="4" t="s">
         <v>717</v>
@@ -23862,7 +23866,7 @@
         <v>14</v>
       </c>
       <c r="H541" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I541" s="4" t="s">
         <v>717</v>
@@ -23930,7 +23934,7 @@
         <v>14</v>
       </c>
       <c r="H543" s="16" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="I543" s="4" t="s">
         <v>157</v>
@@ -24130,7 +24134,7 @@
         <v>14</v>
       </c>
       <c r="H549" s="16" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="I549" s="4" t="s">
         <v>157</v>
@@ -24198,7 +24202,7 @@
         <v>14</v>
       </c>
       <c r="H551" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I551" s="4" t="s">
         <v>157</v>
@@ -24233,7 +24237,7 @@
         <v>14</v>
       </c>
       <c r="H552" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I552" s="4" t="s">
         <v>157</v>
@@ -24997,7 +25001,7 @@
         <v>14</v>
       </c>
       <c r="H575" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I575" s="4" t="s">
         <v>717</v>
@@ -25098,7 +25102,7 @@
         <v>14</v>
       </c>
       <c r="H578" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I578" s="4" t="s">
         <v>717</v>
@@ -25166,7 +25170,7 @@
         <v>14</v>
       </c>
       <c r="H580" s="16" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="I580" s="4" t="s">
         <v>157</v>
@@ -25333,7 +25337,7 @@
         <v>14</v>
       </c>
       <c r="H585" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I585" s="4" t="s">
         <v>157</v>
@@ -25368,7 +25372,7 @@
         <v>14</v>
       </c>
       <c r="H586" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I586" s="4" t="s">
         <v>157</v>
@@ -26097,7 +26101,7 @@
         <v>14</v>
       </c>
       <c r="H608" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I608" s="4" t="s">
         <v>717</v>
@@ -26198,7 +26202,7 @@
         <v>14</v>
       </c>
       <c r="H611" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I611" s="4" t="s">
         <v>717</v>
@@ -26233,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="H612" s="16" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="I612" s="4" t="s">
         <v>157</v>
@@ -26433,7 +26437,7 @@
         <v>14</v>
       </c>
       <c r="H618" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I618" s="4" t="s">
         <v>157</v>
@@ -26468,7 +26472,7 @@
         <v>14</v>
       </c>
       <c r="H619" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I619" s="4" t="s">
         <v>157</v>
@@ -27272,7 +27276,7 @@
         <v>14</v>
       </c>
       <c r="H643" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I643" s="4" t="s">
         <v>717</v>
@@ -27373,7 +27377,7 @@
         <v>14</v>
       </c>
       <c r="H646" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I646" s="4" t="s">
         <v>717</v>
@@ -27408,7 +27412,7 @@
         <v>14</v>
       </c>
       <c r="H647" s="16" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="I647" s="4" t="s">
         <v>157</v>
@@ -27975,7 +27979,7 @@
         <v>14</v>
       </c>
       <c r="H664" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I664" s="4" t="s">
         <v>717</v>
@@ -28076,7 +28080,7 @@
         <v>14</v>
       </c>
       <c r="H667" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I667" s="4" t="s">
         <v>717</v>
@@ -28111,7 +28115,7 @@
         <v>14</v>
       </c>
       <c r="H668" s="16" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="I668" s="4" t="s">
         <v>157</v>
@@ -28179,7 +28183,7 @@
         <v>14</v>
       </c>
       <c r="H670" s="16" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="I670" s="4" t="s">
         <v>717</v>
@@ -28214,7 +28218,7 @@
         <v>14</v>
       </c>
       <c r="H671" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I671" s="4" t="s">
         <v>157</v>
@@ -28809,7 +28813,7 @@
         <v>14</v>
       </c>
       <c r="H689" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I689" s="4" t="s">
         <v>157</v>
@@ -28844,7 +28848,7 @@
         <v>14</v>
       </c>
       <c r="H690" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I690" s="4" t="s">
         <v>157</v>
@@ -28879,7 +28883,7 @@
         <v>14</v>
       </c>
       <c r="H691" s="16" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="I691" s="4" t="s">
         <v>157</v>
@@ -29112,7 +29116,7 @@
         <v>14</v>
       </c>
       <c r="H698" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I698" s="4" t="s">
         <v>717</v>
@@ -29147,7 +29151,7 @@
         <v>14</v>
       </c>
       <c r="H699" s="16" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I699" s="4" t="s">
         <v>157</v>
@@ -29182,7 +29186,7 @@
         <v>14</v>
       </c>
       <c r="H700" s="16" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I700" s="4" t="s">
         <v>717</v>
@@ -29271,7 +29275,7 @@
         <v>1364</v>
       </c>
       <c r="D703" s="11" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E703" s="10" t="s">
         <v>1417</v>
@@ -29283,7 +29287,7 @@
         <v>14</v>
       </c>
       <c r="H703" s="16" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I703" s="4" t="s">
         <v>717</v>
@@ -29483,7 +29487,7 @@
         <v>14</v>
       </c>
       <c r="H709" s="16" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="I709" s="4" t="s">
         <v>42</v>
@@ -29518,7 +29522,7 @@
         <v>14</v>
       </c>
       <c r="H710" s="16" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="I710" s="4" t="s">
         <v>42</v>
@@ -29541,7 +29545,7 @@
         <v>1364</v>
       </c>
       <c r="D711" s="11" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E711" s="10" t="s">
         <v>1436</v>
@@ -29553,7 +29557,7 @@
         <v>14</v>
       </c>
       <c r="H711" s="16" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="I711" s="4" t="s">
         <v>42</v>
@@ -29609,7 +29613,7 @@
         <v>1364</v>
       </c>
       <c r="D713" s="11" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E713" s="10" t="s">
         <v>1440</v>
@@ -29621,7 +29625,7 @@
         <v>14</v>
       </c>
       <c r="H713" s="16" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="I713" s="4" t="s">
         <v>42</v>
@@ -30052,7 +30056,7 @@
         <v>14</v>
       </c>
       <c r="H726" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I726" s="4" t="s">
         <v>717</v>
@@ -30087,7 +30091,7 @@
         <v>14</v>
       </c>
       <c r="H727" s="16" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I727" s="4" t="s">
         <v>157</v>
@@ -30122,7 +30126,7 @@
         <v>14</v>
       </c>
       <c r="H728" s="16" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I728" s="4" t="s">
         <v>717</v>
@@ -30211,7 +30215,7 @@
         <v>1444</v>
       </c>
       <c r="D731" s="11" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E731" s="10" t="s">
         <v>1471</v>
@@ -30223,7 +30227,7 @@
         <v>14</v>
       </c>
       <c r="H731" s="16" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I731" s="4" t="s">
         <v>717</v>
@@ -30291,7 +30295,7 @@
         <v>14</v>
       </c>
       <c r="H733" s="16" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="I733" s="4" t="s">
         <v>157</v>
@@ -30392,7 +30396,7 @@
         <v>14</v>
       </c>
       <c r="H736" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I736" s="4" t="s">
         <v>717</v>
@@ -31194,7 +31198,7 @@
         <v>14</v>
       </c>
       <c r="H760" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I760" s="4" t="s">
         <v>157</v>
@@ -31229,7 +31233,7 @@
         <v>14</v>
       </c>
       <c r="H761" s="16" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I761" s="4" t="s">
         <v>157</v>
@@ -31264,7 +31268,7 @@
         <v>14</v>
       </c>
       <c r="H762" s="16" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="I762" s="4" t="s">
         <v>157</v>
@@ -31464,7 +31468,7 @@
         <v>14</v>
       </c>
       <c r="H768" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I768" s="4" t="s">
         <v>717</v>
@@ -31532,7 +31536,7 @@
         <v>14</v>
       </c>
       <c r="H770" s="16" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I770" s="4" t="s">
         <v>717</v>
@@ -31588,7 +31592,7 @@
         <v>1509</v>
       </c>
       <c r="D772" s="11" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E772" s="10" t="s">
         <v>1563</v>
@@ -31600,7 +31604,7 @@
         <v>14</v>
       </c>
       <c r="H772" s="16" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I772" s="4" t="s">
         <v>717</v>
@@ -31800,7 +31804,7 @@
         <v>14</v>
       </c>
       <c r="H778" s="16" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="I778" s="4" t="s">
         <v>42</v>
@@ -31835,7 +31839,7 @@
         <v>14</v>
       </c>
       <c r="H779" s="16" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="I779" s="4" t="s">
         <v>42</v>
@@ -31858,7 +31862,7 @@
         <v>1509</v>
       </c>
       <c r="D780" s="11" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E780" s="10" t="s">
         <v>1582</v>
@@ -31870,7 +31874,7 @@
         <v>14</v>
       </c>
       <c r="H780" s="16" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="I780" s="4" t="s">
         <v>42</v>
@@ -31926,7 +31930,7 @@
         <v>1509</v>
       </c>
       <c r="D782" s="11" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E782" s="10" t="s">
         <v>1586</v>
@@ -31938,7 +31942,7 @@
         <v>14</v>
       </c>
       <c r="H782" s="16" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="I782" s="4" t="s">
         <v>42</v>
@@ -32036,7 +32040,7 @@
         <v>14</v>
       </c>
       <c r="H785" s="16" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J785" s="5" t="s">
         <v>1594</v>
@@ -32158,7 +32162,7 @@
         <v>14</v>
       </c>
       <c r="H789" s="16" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="J789" s="5" t="s">
         <v>1603</v>
@@ -32653,7 +32657,7 @@
         <v>14</v>
       </c>
       <c r="H804" s="16" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="I804" s="4" t="s">
         <v>157</v>
@@ -33323,7 +33327,7 @@
         <v>14</v>
       </c>
       <c r="H824" s="16" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="I824" s="4" t="s">
         <v>717</v>
@@ -33358,7 +33362,7 @@
         <v>14</v>
       </c>
       <c r="H825" s="16" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="I825" s="4" t="s">
         <v>157</v>
@@ -33393,7 +33397,7 @@
         <v>14</v>
       </c>
       <c r="H826" s="16" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="I826" s="4" t="s">
         <v>157</v>
@@ -33428,7 +33432,7 @@
         <v>14</v>
       </c>
       <c r="H827" s="16" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="I827" s="4" t="s">
         <v>157</v>
@@ -33529,7 +33533,7 @@
         <v>14</v>
       </c>
       <c r="H830" s="16" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="I830" s="4" t="s">
         <v>157</v>
@@ -34029,7 +34033,7 @@
         <v>14</v>
       </c>
       <c r="H845" s="16" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J845" s="5" t="s">
         <v>1594</v>
@@ -34420,8 +34424,8 @@
       <c r="C858" s="4" t="s">
         <v>1724</v>
       </c>
-      <c r="D858" s="4" t="s">
-        <v>1725</v>
+      <c r="D858" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="E858" s="10" t="s">
         <v>50</v>
@@ -34520,23 +34524,23 @@
         <v>1724</v>
       </c>
       <c r="D861" s="4" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E861" s="10" t="s">
         <v>1726</v>
       </c>
-      <c r="E861" s="10" t="s">
+      <c r="F861" s="4" t="s">
         <v>1727</v>
-      </c>
-      <c r="F861" s="4" t="s">
-        <v>1728</v>
       </c>
       <c r="G861" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H861" s="16"/>
       <c r="I861" s="4" t="s">
+        <v>1728</v>
+      </c>
+      <c r="J861" s="5" t="s">
         <v>1729</v>
-      </c>
-      <c r="J861" s="5" t="s">
-        <v>1730</v>
       </c>
       <c r="K861" s="4" t="s">
         <v>485</v>
@@ -34553,23 +34557,23 @@
         <v>1724</v>
       </c>
       <c r="D862" s="4" t="s">
+        <v>1730</v>
+      </c>
+      <c r="E862" s="10" t="s">
         <v>1731</v>
       </c>
-      <c r="E862" s="10" t="s">
+      <c r="F862" s="4" t="s">
         <v>1732</v>
-      </c>
-      <c r="F862" s="4" t="s">
-        <v>1733</v>
       </c>
       <c r="G862" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H862" s="16"/>
       <c r="I862" s="4" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="J862" s="5" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="K862" s="4" t="s">
         <v>485</v>
@@ -34616,7 +34620,7 @@
         <v>1723</v>
       </c>
       <c r="C864" s="4" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D864" s="4" t="s">
         <v>12</v>
@@ -34649,7 +34653,7 @@
         <v>1723</v>
       </c>
       <c r="C865" s="4" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D865" s="4" t="s">
         <v>17</v>
@@ -34682,7 +34686,7 @@
         <v>1723</v>
       </c>
       <c r="C866" s="4" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D866" s="4" t="s">
         <v>40</v>
@@ -34715,7 +34719,7 @@
         <v>1723</v>
       </c>
       <c r="C867" s="4" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D867" s="4" t="s">
         <v>44</v>
@@ -34748,7 +34752,7 @@
         <v>1723</v>
       </c>
       <c r="C868" s="4" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D868" s="4" t="s">
         <v>47</v>
@@ -34781,7 +34785,7 @@
         <v>1723</v>
       </c>
       <c r="C869" s="4" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D869" s="4" t="s">
         <v>1679</v>
@@ -34814,7 +34818,7 @@
         <v>1723</v>
       </c>
       <c r="C870" s="4" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D870" s="4" t="s">
         <v>1682</v>
@@ -34847,26 +34851,26 @@
         <v>1723</v>
       </c>
       <c r="C871" s="4" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D871" s="4" t="s">
         <v>1735</v>
       </c>
-      <c r="D871" s="4" t="s">
+      <c r="E871" s="10" t="s">
         <v>1736</v>
       </c>
-      <c r="E871" s="10" t="s">
+      <c r="F871" s="4" t="s">
         <v>1737</v>
-      </c>
-      <c r="F871" s="4" t="s">
-        <v>1738</v>
       </c>
       <c r="G871" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H871" s="16"/>
       <c r="I871" s="4" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="J871" s="5" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="K871" s="4" t="s">
         <v>455</v>
@@ -34880,26 +34884,26 @@
         <v>1723</v>
       </c>
       <c r="C872" s="4" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D872" s="4" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E872" s="10" t="s">
         <v>1740</v>
       </c>
-      <c r="E872" s="10" t="s">
+      <c r="F872" s="4" t="s">
         <v>1741</v>
-      </c>
-      <c r="F872" s="4" t="s">
-        <v>1742</v>
       </c>
       <c r="G872" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H872" s="16"/>
       <c r="I872" s="4" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="J872" s="5" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="K872" s="4" t="s">
         <v>460</v>
@@ -34913,7 +34917,7 @@
         <v>1723</v>
       </c>
       <c r="C873" s="4" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="D873" s="4" t="s">
         <v>12</v>
@@ -34946,7 +34950,7 @@
         <v>1723</v>
       </c>
       <c r="C874" s="4" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="D874" s="4" t="s">
         <v>17</v>
@@ -34979,7 +34983,7 @@
         <v>1723</v>
       </c>
       <c r="C875" s="4" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="D875" s="4" t="s">
         <v>1611</v>
@@ -35012,7 +35016,7 @@
         <v>1723</v>
       </c>
       <c r="C876" s="4" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="D876" s="4" t="s">
         <v>1614</v>
@@ -35045,26 +35049,26 @@
         <v>1723</v>
       </c>
       <c r="C877" s="4" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D877" s="4" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E877" s="10" t="s">
         <v>1744</v>
       </c>
-      <c r="D877" s="4" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E877" s="10" t="s">
+      <c r="F877" s="4" t="s">
         <v>1745</v>
-      </c>
-      <c r="F877" s="4" t="s">
-        <v>1746</v>
       </c>
       <c r="G877" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H877" s="16"/>
       <c r="I877" s="4" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="J877" s="5" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="K877" s="4" t="s">
         <v>455</v>
@@ -35078,26 +35082,26 @@
         <v>1723</v>
       </c>
       <c r="C878" s="4" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="D878" s="4" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="E878" s="10" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F878" s="4" t="s">
         <v>1748</v>
-      </c>
-      <c r="F878" s="4" t="s">
-        <v>1749</v>
       </c>
       <c r="G878" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H878" s="16"/>
       <c r="I878" s="4" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="J878" s="5" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="K878" s="4" t="s">
         <v>460</v>
@@ -35111,16 +35115,16 @@
         <v>1723</v>
       </c>
       <c r="C879" s="4" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="D879" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E879" s="10" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F879" s="4" t="s">
         <v>1751</v>
-      </c>
-      <c r="F879" s="4" t="s">
-        <v>1752</v>
       </c>
       <c r="G879" s="4" t="s">
         <v>14</v>
@@ -35132,7 +35136,7 @@
         <v>42</v>
       </c>
       <c r="J879" s="5" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="K879" s="4" t="s">
         <v>460</v>
@@ -35146,7 +35150,7 @@
         <v>1723</v>
       </c>
       <c r="C880" s="4" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D880" s="4" t="s">
         <v>12</v>
@@ -35179,7 +35183,7 @@
         <v>1723</v>
       </c>
       <c r="C881" s="4" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D881" s="4" t="s">
         <v>17</v>
@@ -35212,7 +35216,7 @@
         <v>1723</v>
       </c>
       <c r="C882" s="4" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D882" s="4" t="s">
         <v>769</v>
@@ -35221,7 +35225,7 @@
         <v>769</v>
       </c>
       <c r="F882" s="4" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G882" s="4" t="s">
         <v>14</v>
@@ -35245,7 +35249,7 @@
         <v>1723</v>
       </c>
       <c r="C883" s="4" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D883" s="4" t="s">
         <v>772</v>
@@ -35278,7 +35282,7 @@
         <v>1723</v>
       </c>
       <c r="C884" s="4" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D884" s="4" t="s">
         <v>775</v>
@@ -35293,7 +35297,7 @@
         <v>14</v>
       </c>
       <c r="H884" s="16" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="I884" s="4" t="s">
         <v>148</v>
@@ -35313,7 +35317,7 @@
         <v>1723</v>
       </c>
       <c r="C885" s="4" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D885" s="4" t="s">
         <v>778</v>
@@ -35346,26 +35350,26 @@
         <v>1723</v>
       </c>
       <c r="C886" s="4" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D886" s="4" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E886" s="10" t="s">
         <v>1756</v>
       </c>
-      <c r="E886" s="10" t="s">
+      <c r="F886" s="4" t="s">
         <v>1757</v>
-      </c>
-      <c r="F886" s="4" t="s">
-        <v>1758</v>
       </c>
       <c r="G886" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H886" s="16"/>
       <c r="I886" s="4" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="J886" s="5" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="K886" s="4" t="s">
         <v>460</v>
@@ -35379,16 +35383,16 @@
         <v>1723</v>
       </c>
       <c r="C887" s="4" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D887" s="4" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E887" s="10" t="s">
         <v>1760</v>
       </c>
-      <c r="E887" s="10" t="s">
+      <c r="F887" s="4" t="s">
         <v>1761</v>
-      </c>
-      <c r="F887" s="4" t="s">
-        <v>1762</v>
       </c>
       <c r="G887" s="4" t="s">
         <v>14</v>
@@ -35398,7 +35402,7 @@
         <v>157</v>
       </c>
       <c r="J887" s="5" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="K887" s="4" t="s">
         <v>460</v>
@@ -35412,7 +35416,7 @@
         <v>1723</v>
       </c>
       <c r="C888" s="4" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D888" s="4" t="s">
         <v>12</v>
@@ -35445,7 +35449,7 @@
         <v>1723</v>
       </c>
       <c r="C889" s="4" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D889" s="4" t="s">
         <v>17</v>
@@ -35478,13 +35482,13 @@
         <v>1723</v>
       </c>
       <c r="C890" s="4" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D890" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E890" s="10" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F890" s="4" t="s">
         <v>25</v>
@@ -35497,7 +35501,7 @@
         <v>15</v>
       </c>
       <c r="J890" s="5" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="K890" s="4" t="s">
         <v>455</v>
@@ -35511,13 +35515,13 @@
         <v>1723</v>
       </c>
       <c r="C891" s="4" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D891" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E891" s="10" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="F891" s="4" t="s">
         <v>30</v>
@@ -35530,7 +35534,7 @@
         <v>15</v>
       </c>
       <c r="J891" s="5" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="K891" s="4" t="s">
         <v>460</v>
@@ -35544,28 +35548,28 @@
         <v>1723</v>
       </c>
       <c r="C892" s="4" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D892" s="4" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E892" s="10" t="s">
         <v>1769</v>
       </c>
-      <c r="E892" s="10" t="s">
+      <c r="F892" s="4" t="s">
         <v>1770</v>
       </c>
-      <c r="F892" s="4" t="s">
-        <v>1771</v>
-      </c>
       <c r="G892" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H892" s="16" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="I892" s="4" t="s">
         <v>134</v>
       </c>
       <c r="J892" s="5" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="K892" s="4" t="s">
         <v>455</v>
@@ -35579,28 +35583,28 @@
         <v>1723</v>
       </c>
       <c r="C893" s="4" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D893" s="4" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E893" s="10" t="s">
         <v>1773</v>
       </c>
-      <c r="E893" s="10" t="s">
+      <c r="F893" s="4" t="s">
         <v>1774</v>
       </c>
-      <c r="F893" s="4" t="s">
-        <v>1775</v>
-      </c>
       <c r="G893" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H893" s="16" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="I893" s="4" t="s">
         <v>470</v>
       </c>
       <c r="J893" s="5" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="K893" s="4" t="s">
         <v>455</v>
@@ -35614,16 +35618,16 @@
         <v>1723</v>
       </c>
       <c r="C894" s="4" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D894" s="4" t="s">
         <v>1633</v>
       </c>
       <c r="E894" s="10" t="s">
+        <v>1776</v>
+      </c>
+      <c r="F894" s="4" t="s">
         <v>1777</v>
-      </c>
-      <c r="F894" s="4" t="s">
-        <v>1778</v>
       </c>
       <c r="G894" s="4" t="s">
         <v>14</v>
@@ -35633,7 +35637,7 @@
         <v>275</v>
       </c>
       <c r="J894" s="5" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="K894" s="4" t="s">
         <v>455</v>
@@ -35672,18 +35676,18 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B2" t="s">
         <v>1780</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -35691,66 +35695,66 @@
         <v>454</v>
       </c>
       <c r="B3" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C3" t="s">
         <v>1782</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1783</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B4" t="s">
         <v>1784</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1785</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B5" t="s">
         <v>1786</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1787</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B6" t="s">
         <v>1788</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1789</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B7" t="s">
         <v>1790</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1791</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B8" t="s">
         <v>1792</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1793</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B9" t="s">
         <v>1794</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1795</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B10" t="s">
         <v>1796</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1797</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -35758,10 +35762,10 @@
         <v>642</v>
       </c>
       <c r="B11" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C11" t="s">
         <v>1798</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1799</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -35769,7 +35773,7 @@
         <v>1364</v>
       </c>
       <c r="B12" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -35777,15 +35781,15 @@
         <v>1627</v>
       </c>
       <c r="B13" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B14" t="s">
         <v>1802</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1803</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -35793,31 +35797,31 @@
         <v>1062</v>
       </c>
       <c r="B15" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B16" t="s">
         <v>1805</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1806</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B17" t="s">
         <v>1807</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B18" t="s">
         <v>1809</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1810</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -35825,34 +35829,34 @@
         <v>1642</v>
       </c>
       <c r="B19" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C19" t="s">
         <v>1811</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B20" t="s">
         <v>1813</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1814</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B21" t="s">
         <v>1815</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B22" t="s">
         <v>1817</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1818</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -35860,26 +35864,26 @@
         <v>546</v>
       </c>
       <c r="B23" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B24" t="s">
         <v>1820</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1821</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B25" t="s">
         <v>1822</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1823</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -35887,23 +35891,23 @@
         <v>619</v>
       </c>
       <c r="B26" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B27" t="s">
         <v>1825</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1826</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B28" t="s">
         <v>1827</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1828</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -35911,7 +35915,7 @@
         <v>692</v>
       </c>
       <c r="B29" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -35919,7 +35923,7 @@
         <v>1444</v>
       </c>
       <c r="B30" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -35927,55 +35931,55 @@
         <v>1324</v>
       </c>
       <c r="B31" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B32" t="s">
         <v>1832</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1833</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B33" t="s">
         <v>1834</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1835</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B34" t="s">
         <v>1836</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1837</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B35" t="s">
         <v>1838</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1839</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B36" t="s">
         <v>1840</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B37" t="s">
         <v>1842</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1843</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -35983,31 +35987,31 @@
         <v>765</v>
       </c>
       <c r="B38" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B39" t="s">
         <v>1845</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1846</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B40" t="s">
         <v>1847</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1848</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B41" t="s">
         <v>1849</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1850</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -36015,7 +36019,7 @@
         <v>791</v>
       </c>
       <c r="B42" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -36023,7 +36027,7 @@
         <v>1103</v>
       </c>
       <c r="B43" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -36031,39 +36035,39 @@
         <v>571</v>
       </c>
       <c r="B44" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B45" t="s">
         <v>1854</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1855</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B46" t="s">
         <v>1856</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1857</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B47" t="s">
         <v>1858</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1859</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B48" t="s">
         <v>1860</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1861</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -36071,23 +36075,23 @@
         <v>1169</v>
       </c>
       <c r="B49" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B50" t="s">
         <v>1863</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1864</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B51" t="s">
         <v>1865</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1866</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -36095,7 +36099,7 @@
         <v>1225</v>
       </c>
       <c r="B52" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -36103,23 +36107,23 @@
         <v>880</v>
       </c>
       <c r="B53" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B54" t="s">
         <v>1869</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1870</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B55" t="s">
         <v>1871</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1872</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -36127,31 +36131,31 @@
         <v>1288</v>
       </c>
       <c r="B56" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B57" t="s">
         <v>1874</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1875</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B58" t="s">
         <v>1876</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1877</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B59" t="s">
         <v>1878</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1879</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -36159,39 +36163,39 @@
         <v>924</v>
       </c>
       <c r="B60" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B61" t="s">
         <v>1881</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1882</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B62" t="s">
         <v>1883</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1884</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B63" t="s">
         <v>1885</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1886</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B64" t="s">
         <v>1887</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1888</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -36199,7 +36203,7 @@
         <v>978</v>
       </c>
       <c r="B65" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -36207,39 +36211,39 @@
         <v>1608</v>
       </c>
       <c r="B66" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B67" t="s">
         <v>1891</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1892</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B68" t="s">
         <v>1893</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1894</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B69" t="s">
         <v>1895</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1896</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B70" t="s">
         <v>1897</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1898</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -36247,7 +36251,7 @@
         <v>1509</v>
       </c>
       <c r="B71" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -36255,7 +36259,7 @@
         <v>1692</v>
       </c>
       <c r="B72" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -36263,95 +36267,95 @@
         <v>1724</v>
       </c>
       <c r="B73" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B74" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B75" t="s">
         <v>1903</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1904</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B76" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B77" t="s">
         <v>1906</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1907</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B78" t="s">
         <v>1908</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1909</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B79" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B80" t="s">
         <v>1911</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1912</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B81" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B82" t="s">
         <v>1914</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1915</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B83" t="s">
         <v>1916</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1917</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B84" t="s">
         <v>1918</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1919</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -36359,7 +36363,7 @@
         <v>1011</v>
       </c>
       <c r="B85" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
   </sheetData>
